--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_5B0E33157D159E704B084D584231D110C02F0A68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26E9D891-A232-4F85-8006-0395A4F5B819}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_5B0E33157D159E704B084D584231D110C02F0A68" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F43E85ED-0A16-4BDF-B9DD-4A607BCEF880}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Source" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Source!$A$1:$D$3499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Source!$A$1:$D$5407</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5410" uniqueCount="76">
   <si>
     <t>Dátum</t>
   </si>
@@ -617,9 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5196"/>
+  <dimension ref="A1:E5407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -73447,20 +73449,2968 @@
         <v>40.49530823889701</v>
       </c>
     </row>
+    <row r="5197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5197" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5197" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5197" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5197" s="6">
+        <v>33.074707495555586</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5198" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5198" s="2">
+        <v>41</v>
+      </c>
+      <c r="D5198" s="6">
+        <v>36.994094479308117</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5199" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5199" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5199" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5199" s="6">
+        <v>66.862969487341047</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5200" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5200" s="2">
+        <v>158</v>
+      </c>
+      <c r="D5200" s="6">
+        <v>23.407338052331696</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5201" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5201" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5201" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5201" s="6">
+        <v>17.900877956696149</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5202" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5202" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5202" s="6">
+        <v>54.985930070834819</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5203" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5203" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5203" s="6">
+        <v>41.074600355239788</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5204" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5204" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5204" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5204" s="6">
+        <v>18.720164737449689</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5205" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5205" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5205" s="6">
+        <v>10.137746632367291</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5206" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5206" s="2">
+        <v>72</v>
+      </c>
+      <c r="D5206" s="6">
+        <v>58.843720884617269</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5207" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5207" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5207" s="6">
+        <v>37.203962753518432</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5208" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5208" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5208" s="6">
+        <v>3.1379440190786996</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5209" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5209" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5209" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5209" s="6">
+        <v>48.875312413218552</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5210" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5210" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5210" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5210" s="6">
+        <v>9.6796831517048343</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5211" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5211" s="2">
+        <v>44</v>
+      </c>
+      <c r="D5211" s="6">
+        <v>74.340021119324177</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5212" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5212" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5212" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5212" s="6">
+        <v>6.6458430251877454</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5213" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5213" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5213" s="6">
+        <v>16.713940901471318</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5214" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5214" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5214" s="6">
+        <v>19.010451674752897</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5215" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5215" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5215" s="2">
+        <v>28</v>
+      </c>
+      <c r="D5215" s="6">
+        <v>21.614361199133882</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5216" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5216" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5216" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5216" s="6">
+        <v>49.589757461004417</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5217" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5217" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5217" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5217" s="6">
+        <v>30.382208178890441</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5218" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5218" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5218" s="2">
+        <v>74</v>
+      </c>
+      <c r="D5218" s="6">
+        <v>66.772540243990477</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5219" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5219" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5219" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5219" s="6">
+        <v>17.803097739006589</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5220" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5220" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5220" s="6">
+        <v>17.990465053521635</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5221" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5221" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5221" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5221" s="6">
+        <v>61.252824435793428</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5222" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5222" s="2">
+        <v>66</v>
+      </c>
+      <c r="D5222" s="6">
+        <v>88.801582282738863</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5223" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5223" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5223" s="2">
+        <v>34</v>
+      </c>
+      <c r="D5223" s="6">
+        <v>35.292407980236256</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5224" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5224" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5224" s="6">
+        <v>8.4448760714436517</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5225" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5225" s="2">
+        <v>31</v>
+      </c>
+      <c r="D5225" s="6">
+        <v>28.002348584074792</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5226" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5226" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5226" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5226" s="6">
+        <v>41.736227045075125</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5227" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5227" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5227" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5227" s="6">
+        <v>11.170777246722574</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5228" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5228" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5228" s="2">
+        <v>118</v>
+      </c>
+      <c r="D5228" s="6">
+        <v>73.037880663530586</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5229" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5229" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5229" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5229" s="6">
+        <v>20.782210427873739</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5230" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5230" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5230" s="2">
+        <v>53</v>
+      </c>
+      <c r="D5230" s="6">
+        <v>38.128262034682329</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5231" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5231" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5231" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5231" s="6">
+        <v>26.317809480990867</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5232" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5232" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5232" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5232" s="6">
+        <v>19.955483920485072</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5233" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5233" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5233" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5233" s="6">
+        <v>35.030452609370649</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5234" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5234" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5234" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5234" s="6">
+        <v>32.602114479996274</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5235" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5235" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5235" s="2">
+        <v>63</v>
+      </c>
+      <c r="D5235" s="6">
+        <v>60.049469324729422</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5236" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5236" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5236" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5236" s="6">
+        <v>78.47722158604067</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5237" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5237" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5237" s="2">
+        <v>69</v>
+      </c>
+      <c r="D5237" s="6">
+        <v>39.291723967097454</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5238" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5238" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5238" s="2">
+        <v>64</v>
+      </c>
+      <c r="D5238" s="6">
+        <v>47.768501897678377</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5239" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5239" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5239" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5239" s="6">
+        <v>106.07206129611031</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5240" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5240" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5240" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5240" s="6">
+        <v>17.660489700150116</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5241" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5241" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5241" s="2">
+        <v>29</v>
+      </c>
+      <c r="D5241" s="6">
+        <v>34.458584346296888</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5242" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5242" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5242" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5242" s="6">
+        <v>12.859978941784483</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5243" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5243" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5243" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5243" s="6">
+        <v>37.035730662057773</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5244" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5244" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5244" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5244" s="6">
+        <v>9.9143237191933036</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5245" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5245" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5245" s="6">
+        <v>20.037403152551427</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5246" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5246" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5246" s="2">
+        <v>27</v>
+      </c>
+      <c r="D5246" s="6">
+        <v>44.667968103762036</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5247" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5247" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5247" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5247" s="6">
+        <v>36.089970172701122</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5248" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5248" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5248" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5248" s="6">
+        <v>19.315406796263847</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5249" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5249" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5249" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5249" s="6">
+        <v>8.7646259695867474</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5250" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5250" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5250" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5250" s="6">
+        <v>7.0164887485591132</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5251" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5251" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5251" s="2">
+        <v>28</v>
+      </c>
+      <c r="D5251" s="6">
+        <v>51.896540539538677</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5252" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5252" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5252" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5252" s="6">
+        <v>9.7408922657315404</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5253" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5253" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5253" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5253" s="6">
+        <v>36.850509765385084</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5254" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5254" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5254" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5254" s="6">
+        <v>44.500338589532745</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5255" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5255" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5255" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5255" s="6">
+        <v>47.054461975004095</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5256" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5256" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5256" s="2">
+        <v>31</v>
+      </c>
+      <c r="D5256" s="6">
+        <v>29.424885859918561</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5257" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5257" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5257" s="2">
+        <v>69</v>
+      </c>
+      <c r="D5257" s="6">
+        <v>60.249906132392624</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5258" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5258" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5258" s="6">
+        <v>43.788621753130322</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5259" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5259" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5259" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5259" s="6">
+        <v>6.295643414756988</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5260" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5260" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5260" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5260" s="6">
+        <v>11.055831951354341</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5261" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5261" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5261" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5261" s="6">
+        <v>43.705288339889123</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5262" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5262" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5262" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5262" s="6">
+        <v>29.715290374103123</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5263" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5263" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5263" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5263" s="6">
+        <v>32.041407357200072</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5264" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5264" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5264" s="2">
+        <v>29</v>
+      </c>
+      <c r="D5264" s="6">
+        <v>42.176603619916079</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5265" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5265" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5265" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5265" s="6">
+        <v>7.6474524424051236</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5266" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5266" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5266" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5266" s="6">
+        <v>17.071583282652071</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5267" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B5267" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5267" s="2">
+        <v>61</v>
+      </c>
+      <c r="D5267" s="6">
+        <v>38.597090665198714</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5268" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5268" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5268" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5268" s="6">
+        <v>13.781128123148159</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5269" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5269" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5269" s="2">
+        <v>51</v>
+      </c>
+      <c r="D5269" s="6">
+        <v>46.017044352310101</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5270" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5270" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5270" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5270" s="6">
+        <v>12.433171702101205</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5271" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5271" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5271" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5271" s="6">
+        <v>12.858263362950201</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5272" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5272" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5272" s="2">
+        <v>131</v>
+      </c>
+      <c r="D5272" s="6">
+        <v>19.407349904148433</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5273" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5273" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5273" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5273" s="6">
+        <v>17.900877956696149</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5274" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5274" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5274" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5274" s="6">
+        <v>48.516997121324835</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5275" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5275" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5275" s="6">
+        <v>26.642984014209592</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5276" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5276" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5276" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5276" s="6">
+        <v>31.200274562416151</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5277" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5277" s="2">
+        <v>77</v>
+      </c>
+      <c r="D5277" s="6">
+        <v>62.930090390493469</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5278" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5278" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5278" s="6">
+        <v>52.0855478549258</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5279" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5279" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5279" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5279" s="6">
+        <v>34.517384209865696</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5280" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5280" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5280" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5280" s="6">
+        <v>44.432102193835043</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5281" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5281" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5281" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5281" s="6">
+        <v>11.292963676988974</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5282" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5282" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5282" s="6">
+        <v>87.856388595564937</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5283" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5283" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5283" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5283" s="6">
+        <v>42.53339536120157</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5284" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5284" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5284" s="2">
+        <v>31</v>
+      </c>
+      <c r="D5284" s="6">
+        <v>30.478362820330052</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5285" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5285" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5285" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5285" s="6">
+        <v>12.492582529123334</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5286" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5286" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5286" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5286" s="6">
+        <v>16.210770899350411</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5287" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5287" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5287" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5287" s="6">
+        <v>9.0163195383644403</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5288" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5288" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5288" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5288" s="6">
+        <v>18.229324907334266</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5289" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5289" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5289" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5289" s="6">
+        <v>19.851295748213385</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5290" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5290" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5290" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5290" s="6">
+        <v>53.409293217019759</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5291" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5291" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5291" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5291" s="6">
+        <v>49.819749378982984</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5292" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5292" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5292" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5292" s="6">
+        <v>31.306999156072195</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5293" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5293" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5293" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5293" s="6">
+        <v>25.564091869273305</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5294" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5294" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5294" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5294" s="6">
+        <v>36.330419979654963</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5295" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5295" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5295" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5295" s="6">
+        <v>16.889752142887303</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5296" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5296" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5296" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5296" s="6">
+        <v>21.679237613477259</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5297" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5297" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5297" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5297" s="6">
+        <v>7.588404917286387</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5298" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5298" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5298" s="2">
+        <v>111</v>
+      </c>
+      <c r="D5298" s="6">
+        <v>68.705125030948253</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5299" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5299" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5299" s="2">
+        <v>37</v>
+      </c>
+      <c r="D5299" s="6">
+        <v>59.149368140871417</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5300" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5300" s="2">
+        <v>43</v>
+      </c>
+      <c r="D5300" s="6">
+        <v>30.934250330025286</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5301" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5301" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5301" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5301" s="6">
+        <v>2.193150790082572</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5302" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5302" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5302" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5302" s="6">
+        <v>36.84089339166475</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5303" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5303" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5303" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5303" s="6">
+        <v>31.845866008518772</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5304" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5304" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5304" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5304" s="6">
+        <v>27.94466955428252</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5305" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5305" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5305" s="2">
+        <v>48</v>
+      </c>
+      <c r="D5305" s="6">
+        <v>45.75197662836527</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5306" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5306" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5306" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5306" s="6">
+        <v>67.266189930891997</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5307" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5307" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5307" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5307" s="6">
+        <v>18.791694071220519</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5308" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5308" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5308" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5308" s="6">
+        <v>43.290204844771026</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5309" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5309" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5309" s="2">
+        <v>84</v>
+      </c>
+      <c r="D5309" s="6">
+        <v>189.57559891219717</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5310" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5310" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5310" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5310" s="6">
+        <v>7.5687813000643356</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5311" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5311" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5311" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5311" s="6">
+        <v>27.329222067752706</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5312" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5312" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5312" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5312" s="6">
+        <v>17.682471044953665</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5313" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5313" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5313" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5313" s="6">
+        <v>17.636062220027512</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5314" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5314" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5314" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5314" s="6">
+        <v>24.78580929798326</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5315" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5315" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5315" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5315" s="6">
+        <v>33.39567192091905</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5316" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5316" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5316" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5316" s="6">
+        <v>33.087383780564473</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5317" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5317" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5317" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5317" s="6">
+        <v>40.335849016548309</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5318" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5318" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5318" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5318" s="6">
+        <v>60.705564216829238</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5319" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5319" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5319" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5319" s="6">
+        <v>17.529251939173495</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5320" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5320" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5320" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5320" s="6">
+        <v>46.108354633388466</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5321" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5321" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5321" s="6">
+        <v>35.215509651829819</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5322" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5322" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5322" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5322" s="6">
+        <v>29.22267679719462</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5323" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5323" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5323" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5323" s="6">
+        <v>12.283503255128362</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5324" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5324" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5324" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5324" s="6">
+        <v>32.891554609654641</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5325" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5325" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5325" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5325" s="6">
+        <v>28.517855742426725</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5326" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5326" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5326" s="2">
+        <v>31</v>
+      </c>
+      <c r="D5326" s="6">
+        <v>29.424885859918561</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5327" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5327" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5327" s="2">
+        <v>137</v>
+      </c>
+      <c r="D5327" s="6">
+        <v>119.62662521938825</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5328" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5328" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5328" s="2">
+        <v>79</v>
+      </c>
+      <c r="D5328" s="6">
+        <v>59.64312273271198</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5329" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5329" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5329" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5329" s="6">
+        <v>6.295643414756988</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5330" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5330" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5330" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5330" s="6">
+        <v>43.705288339889123</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5331" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5331" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5331" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5331" s="6">
+        <v>19.810193582735419</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5332" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5332" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5332" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5332" s="6">
+        <v>19.717789142892354</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5333" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5333" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5333" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5333" s="6">
+        <v>47.994066188180369</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5334" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5334" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5334" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5334" s="6">
+        <v>61.179619539240989</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5335" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5335" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5335" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5335" s="6">
+        <v>38.411062385967163</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5336" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B5336" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5336" s="2">
+        <v>54</v>
+      </c>
+      <c r="D5336" s="6">
+        <v>34.167916326569348</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5337" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5337" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5337" s="2">
+        <v>44</v>
+      </c>
+      <c r="D5337" s="6">
+        <v>121.27392748370382</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5338" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5338" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5338" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5338" s="6">
+        <v>52.33310926341148</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5339" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5339" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5339" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5339" s="6">
+        <v>18.649757553151812</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5340" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5340" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5340" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5340" s="6">
+        <v>16.715742371835262</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5341" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5341" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5341" s="2">
+        <v>150</v>
+      </c>
+      <c r="D5341" s="6">
+        <v>22.222156378795916</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5342" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5342" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5342" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5342" s="6">
+        <v>39.056460996427958</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5343" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5343" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5343" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5343" s="6">
+        <v>48.516997121324835</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5344" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5344" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5344" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5344" s="6">
+        <v>35.523978685612789</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5345" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5345" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5345" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5345" s="6">
+        <v>68.640604037315526</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5346" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5346" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5346" s="6">
+        <v>15.206619948550935</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5347" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5347" s="2">
+        <v>62</v>
+      </c>
+      <c r="D5347" s="6">
+        <v>50.670981872864871</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5348" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5348" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5348" s="6">
+        <v>24.448318380883542</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5349" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5349" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5349" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5349" s="6">
+        <v>25.103552152629597</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5350" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5350" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5350" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5350" s="6">
+        <v>24.437656206609276</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5351" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5351" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5351" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5351" s="6">
+        <v>64.53122101136556</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5352" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5352" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5352" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5352" s="6">
+        <v>70.960929250263987</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5353" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5353" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5353" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5353" s="6">
+        <v>18.608360470525685</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5354" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5354" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5354" s="2">
+        <v>28</v>
+      </c>
+      <c r="D5354" s="6">
+        <v>27.528843837717467</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5355" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5355" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5355" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5355" s="6">
+        <v>15.751517101938116</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5356" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5356" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5356" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5356" s="6">
+        <v>11.57912207096458</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5357" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5357" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5357" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5357" s="6">
+        <v>72.130556306915523</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5358" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5358" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5358" s="6">
+        <v>15.19110408944522</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5359" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5359" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5359" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5359" s="6">
+        <v>18.948964123294594</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5360" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5360" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5360" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5360" s="6">
+        <v>44.507744347516471</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5361" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5361" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5361" s="6">
+        <v>30.445402398267383</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5362" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5362" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5362" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5362" s="6">
+        <v>5.4446955054038604</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5363" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5363" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5363" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5363" s="6">
+        <v>12.109306674918935</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5364" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5364" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5364" s="2">
+        <v>72</v>
+      </c>
+      <c r="D5364" s="6">
+        <v>74.736863958147367</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5365" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5365" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5365" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5365" s="6">
+        <v>42.224380357218259</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5366" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5366" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5366" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5366" s="6">
+        <v>32.51885642021589</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5367" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5367" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5367" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5367" s="6">
+        <v>60.707239338291096</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5368" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5368" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5368" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5368" s="6">
+        <v>7.9791266048018379</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5369" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5369" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5369" s="2">
+        <v>118</v>
+      </c>
+      <c r="D5369" s="6">
+        <v>73.037880663530586</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5370" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5370" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5370" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5370" s="6">
+        <v>62.346631283621214</v>
+      </c>
+    </row>
+    <row r="5371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5371" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5371" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5371" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5371" s="6">
+        <v>33.811855011888106</v>
+      </c>
+    </row>
+    <row r="5372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5372" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5372" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5372" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5372" s="6">
+        <v>39.476714221486297</v>
+      </c>
+    </row>
+    <row r="5373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5373" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5373" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5373" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5373" s="6">
+        <v>33.770818942359348</v>
+      </c>
+    </row>
+    <row r="5374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5374" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5374" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5374" s="2">
+        <v>28</v>
+      </c>
+      <c r="D5374" s="6">
+        <v>44.584212411926281</v>
+      </c>
+    </row>
+    <row r="5375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5375" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5375" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5375" s="2">
+        <v>59</v>
+      </c>
+      <c r="D5375" s="6">
+        <v>56.236804605698978</v>
+      </c>
+    </row>
+    <row r="5376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5376" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5376" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5376" s="2">
+        <v>89</v>
+      </c>
+      <c r="D5376" s="6">
+        <v>142.54025961546162</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5377" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5377" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5377" s="2">
+        <v>41</v>
+      </c>
+      <c r="D5377" s="6">
+        <v>23.347256270304282</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5378" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5378" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5378" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5378" s="6">
+        <v>52.24679895058572</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5379" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5379" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5379" s="2">
+        <v>81</v>
+      </c>
+      <c r="D5379" s="6">
+        <v>182.80504180819011</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5380" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5380" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5380" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5380" s="6">
+        <v>7.5687813000643356</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5381" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5381" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5381" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5381" s="6">
+        <v>29.705676160600767</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5382" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5382" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5382" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5382" s="6">
+        <v>16.074973677230602</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5383" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5383" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5383" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5383" s="6">
+        <v>10.581637332016507</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5384" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5384" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5384" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5384" s="6">
+        <v>13.219098292257739</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5385" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5385" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5385" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5385" s="6">
+        <v>35.62205004898032</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5386" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5386" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5386" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5386" s="6">
+        <v>26.46990702445158</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5387" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5387" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5387" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5387" s="6">
+        <v>33.967030750777525</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5388" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5388" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5388" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5388" s="6">
+        <v>49.668188904678466</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5389" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5389" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5389" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5389" s="6">
+        <v>39.44081686314037</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5390" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5390" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5390" s="2">
+        <v>51</v>
+      </c>
+      <c r="D5390" s="6">
+        <v>51.120132310930686</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5391" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5391" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5391" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5391" s="6">
+        <v>18.534478764120959</v>
+      </c>
+    </row>
+    <row r="5392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5392" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5392" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5392" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5392" s="6">
+        <v>19.481784531463081</v>
+      </c>
+    </row>
+    <row r="5393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5393" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5393" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5393" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5393" s="6">
+        <v>30.708758137820908</v>
+      </c>
+    </row>
+    <row r="5394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5394" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5394" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5394" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5394" s="6">
+        <v>5.8043919899390541</v>
+      </c>
+    </row>
+    <row r="5395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5395" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5395" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5395" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5395" s="6">
+        <v>22.81428459394138</v>
+      </c>
+    </row>
+    <row r="5396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5396" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5396" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5396" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5396" s="6">
+        <v>22.780556794775659</v>
+      </c>
+    </row>
+    <row r="5397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5397" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5397" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5397" s="2">
+        <v>104</v>
+      </c>
+      <c r="D5397" s="6">
+        <v>90.811452721287424</v>
+      </c>
+    </row>
+    <row r="5398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5398" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5398" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5398" s="2">
+        <v>92</v>
+      </c>
+      <c r="D5398" s="6">
+        <v>69.457813815310161</v>
+      </c>
+    </row>
+    <row r="5399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5399" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5399" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5399" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5399" s="6">
+        <v>37.773860488541928</v>
+      </c>
+    </row>
+    <row r="5400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5400" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5400" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5400" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5400" s="6">
+        <v>5.5279159756771703</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5401" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5401" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5401" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5401" s="6">
+        <v>73.608906677708006</v>
+      </c>
+    </row>
+    <row r="5402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5402" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5402" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5402" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5402" s="6">
+        <v>58.192443649285288</v>
+      </c>
+    </row>
+    <row r="5403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5403" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5403" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5403" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5403" s="6">
+        <v>36.970854642923165</v>
+      </c>
+    </row>
+    <row r="5404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5404" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5404" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5404" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5404" s="6">
+        <v>46.539700546114297</v>
+      </c>
+    </row>
+    <row r="5405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5405" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5405" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5405" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5405" s="6">
+        <v>34.413535990823057</v>
+      </c>
+    </row>
+    <row r="5406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5406" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5406" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5406" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5406" s="6">
+        <v>25.607374923978107</v>
+      </c>
+    </row>
+    <row r="5407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5407" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B5407" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5407" s="2">
+        <v>66</v>
+      </c>
+      <c r="D5407" s="6">
+        <v>41.760786621362541</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3499" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D5407" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -73671,6 +76621,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -73681,23 +76637,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE1A6F06-52B0-4BD6-85AD-7A6BCF1D7732}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
-    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8368A0A5-FD4F-48F8-AED2-65DBADDB4D3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73716,6 +76655,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE1A6F06-52B0-4BD6-85AD-7A6BCF1D7732}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8585F0FB-D95C-45F4-8292-91CBFDED63C8}">
   <ds:schemaRefs>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5814"/>
+  <dimension ref="A1:C5885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -75950,6 +75950,929 @@
         <v>103</v>
       </c>
     </row>
+    <row r="5815">
+      <c r="A5815" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5815" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C5815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5816">
+      <c r="A5816" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5816" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C5816">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5817">
+      <c r="A5817" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5817" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C5817">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5818">
+      <c r="A5818" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5818" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C5818">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5819">
+      <c r="A5819" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5819" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C5819">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5820">
+      <c r="A5820" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5820" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C5820">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5821">
+      <c r="A5821" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5821" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C5821">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5822">
+      <c r="A5822" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5822" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C5822">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5823">
+      <c r="A5823" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5823" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C5823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5824">
+      <c r="A5824" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5824" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C5824">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5825">
+      <c r="A5825" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5825" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C5825">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5826">
+      <c r="A5826" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5826" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C5826">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5827">
+      <c r="A5827" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5827" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C5827">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5828">
+      <c r="A5828" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5828" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C5828">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5829">
+      <c r="A5829" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5829" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C5829">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5830">
+      <c r="A5830" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5830" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C5830">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5831">
+      <c r="A5831" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5831" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C5831">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5832">
+      <c r="A5832" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5832" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C5832">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5833">
+      <c r="A5833" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5833" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C5833">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5834">
+      <c r="A5834" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5834" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C5834">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5835">
+      <c r="A5835" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5835" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C5835">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5836">
+      <c r="A5836" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5836" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C5836">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5837">
+      <c r="A5837" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5837" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C5837">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5838">
+      <c r="A5838" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5838" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C5838">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5839">
+      <c r="A5839" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5839" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C5839">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5840">
+      <c r="A5840" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5840" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C5840">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5841">
+      <c r="A5841" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5841" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C5841">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5842">
+      <c r="A5842" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5842" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C5842">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5843">
+      <c r="A5843" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5843" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C5843">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5844">
+      <c r="A5844" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5844" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C5844">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5845">
+      <c r="A5845" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5845" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C5845">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5846">
+      <c r="A5846" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5846" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C5846">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5847">
+      <c r="A5847" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5847" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C5847">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5848">
+      <c r="A5848" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5848" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C5848">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5849">
+      <c r="A5849" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5849" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C5849">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5850">
+      <c r="A5850" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5850" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C5850">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5851">
+      <c r="A5851" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5851" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C5851">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5852">
+      <c r="A5852" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5852" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C5852">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5853">
+      <c r="A5853" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5853" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C5853">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5854">
+      <c r="A5854" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5854" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C5854">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5855">
+      <c r="A5855" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5855" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C5855">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5856">
+      <c r="A5856" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5856" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C5856">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5857">
+      <c r="A5857" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5857" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C5857">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5858">
+      <c r="A5858" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5858" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C5858">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5859">
+      <c r="A5859" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5859" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C5859">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5860">
+      <c r="A5860" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5860" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C5860">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5861">
+      <c r="A5861" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5861" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C5861">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5862">
+      <c r="A5862" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5862" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C5862">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5863">
+      <c r="A5863" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5863" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C5863">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5864">
+      <c r="A5864" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5864" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C5864">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5865">
+      <c r="A5865" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5865" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C5865">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5866">
+      <c r="A5866" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5866" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C5866">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5867">
+      <c r="A5867" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5867" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C5867">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5868">
+      <c r="A5868" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5868" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C5868">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5869">
+      <c r="A5869" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5869" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C5869">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5870">
+      <c r="A5870" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5870" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C5870">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5871">
+      <c r="A5871" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5871" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C5871">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5872">
+      <c r="A5872" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5872" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C5872">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5873">
+      <c r="A5873" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5873" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C5873">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5874">
+      <c r="A5874" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5874" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C5874">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5875">
+      <c r="A5875" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5875" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C5875">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5876">
+      <c r="A5876" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5876" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C5876">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5877">
+      <c r="A5877" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5877" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C5877">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5878">
+      <c r="A5878" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5878" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C5878">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5879">
+      <c r="A5879" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5879" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C5879">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5880">
+      <c r="A5880" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5880" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C5880">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5881">
+      <c r="A5881" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5881" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C5881">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5882">
+      <c r="A5882" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5882" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C5882">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5883">
+      <c r="A5883" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5883" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C5883">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5884">
+      <c r="A5884" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5884" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C5884">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5885">
+      <c r="A5885" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B5885" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C5885">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5885"/>
+  <dimension ref="A1:C5957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -76873,6 +76873,942 @@
         <v>56</v>
       </c>
     </row>
+    <row r="5886">
+      <c r="A5886" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5886" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C5886">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5887">
+      <c r="A5887" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5887" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C5887">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5888">
+      <c r="A5888" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5888" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C5888">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5889">
+      <c r="A5889" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5889" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C5889">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5890">
+      <c r="A5890" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5890" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C5890">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5891">
+      <c r="A5891" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5891" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C5891">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5892">
+      <c r="A5892" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5892" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C5892">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5893">
+      <c r="A5893" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5893" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C5893">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5894">
+      <c r="A5894" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5894" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C5894">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5895">
+      <c r="A5895" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5895" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C5895">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5896">
+      <c r="A5896" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5896" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C5896">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5897">
+      <c r="A5897" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5897" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C5897">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5898">
+      <c r="A5898" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5898" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C5898">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5899">
+      <c r="A5899" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5899" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C5899">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5900">
+      <c r="A5900" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5900" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C5900">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5901">
+      <c r="A5901" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5901" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C5901">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5902">
+      <c r="A5902" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5902" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C5902">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5903">
+      <c r="A5903" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5903" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C5903">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5904">
+      <c r="A5904" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5904" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C5904">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5905">
+      <c r="A5905" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5905" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C5905">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5906">
+      <c r="A5906" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5906" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C5906">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5907">
+      <c r="A5907" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5907" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C5907">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5908">
+      <c r="A5908" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5908" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C5908">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5909">
+      <c r="A5909" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5909" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C5909">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5910">
+      <c r="A5910" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5910" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C5910">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5911">
+      <c r="A5911" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5911" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C5911">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5912">
+      <c r="A5912" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5912" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C5912">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5913">
+      <c r="A5913" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5913" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C5913">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5914">
+      <c r="A5914" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5914" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C5914">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5915">
+      <c r="A5915" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5915" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C5915">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5916">
+      <c r="A5916" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5916" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C5916">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5917">
+      <c r="A5917" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5917" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C5917">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5918">
+      <c r="A5918" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5918" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C5918">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5919">
+      <c r="A5919" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5919" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C5919">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5920">
+      <c r="A5920" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5920" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C5920">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5921">
+      <c r="A5921" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5921" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C5921">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5922">
+      <c r="A5922" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5922" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C5922">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5923">
+      <c r="A5923" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5923" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C5923">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5924">
+      <c r="A5924" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5924" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C5924">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5925">
+      <c r="A5925" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5925" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C5925">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5926">
+      <c r="A5926" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5926" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C5926">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5927">
+      <c r="A5927" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5927" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C5927">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5928">
+      <c r="A5928" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5928" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C5928">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5929">
+      <c r="A5929" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5929" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C5929">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5930">
+      <c r="A5930" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5930" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C5930">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5931">
+      <c r="A5931" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5931" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C5931">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5932">
+      <c r="A5932" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5932" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C5932">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5933">
+      <c r="A5933" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5933" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C5933">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5934">
+      <c r="A5934" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5934" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C5934">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5935">
+      <c r="A5935" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5935" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C5935">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5936">
+      <c r="A5936" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5936" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C5936">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5937">
+      <c r="A5937" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5937" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C5937">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5938">
+      <c r="A5938" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5938" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C5938">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5939">
+      <c r="A5939" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5939" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C5939">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5940">
+      <c r="A5940" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5940" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C5940">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5941">
+      <c r="A5941" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5941" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C5941">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5942">
+      <c r="A5942" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5942" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C5942">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5943">
+      <c r="A5943" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5943" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C5943">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5944">
+      <c r="A5944" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5944" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C5944">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5945">
+      <c r="A5945" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5945" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C5945">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5946">
+      <c r="A5946" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5946" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C5946">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5947">
+      <c r="A5947" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5947" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C5947">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5948">
+      <c r="A5948" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5948" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C5948">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5949">
+      <c r="A5949" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5949" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C5949">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5950">
+      <c r="A5950" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5950" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C5950">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5951">
+      <c r="A5951" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5951" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C5951">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5952">
+      <c r="A5952" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5952" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C5952">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5953">
+      <c r="A5953" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5953" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C5953">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5954">
+      <c r="A5954" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5954" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C5954">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5955">
+      <c r="A5955" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5955" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C5955">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5956">
+      <c r="A5956" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5956" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C5956">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5957">
+      <c r="A5957" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B5957" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C5957">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5957"/>
+  <dimension ref="A1:C6149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -77809,6 +77809,2502 @@
         <v>143</v>
       </c>
     </row>
+    <row r="5958">
+      <c r="A5958" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5958" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C5958">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5959">
+      <c r="A5959" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5959" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C5959">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5960">
+      <c r="A5960" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5960" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C5960">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5961">
+      <c r="A5961" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5961" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C5961">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5962">
+      <c r="A5962" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5962" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C5962">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5963">
+      <c r="A5963" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5963" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C5963">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5964">
+      <c r="A5964" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5964" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C5964">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5965">
+      <c r="A5965" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5965" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C5965">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5966">
+      <c r="A5966" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5966" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C5966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5967">
+      <c r="A5967" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5967" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C5967">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5968">
+      <c r="A5968" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5968" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C5968">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5969">
+      <c r="A5969" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5969" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C5969">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5970">
+      <c r="A5970" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5970" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C5970">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5971">
+      <c r="A5971" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5971" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C5971">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5972">
+      <c r="A5972" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5972" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C5972">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5973">
+      <c r="A5973" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5973" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C5973">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5974">
+      <c r="A5974" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5974" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C5974">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5975">
+      <c r="A5975" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5975" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C5975">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5976">
+      <c r="A5976" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5976" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C5976">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5977">
+      <c r="A5977" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5977" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C5977">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5978">
+      <c r="A5978" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5978" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C5978">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5979">
+      <c r="A5979" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5979" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C5979">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5980">
+      <c r="A5980" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5980" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C5980">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5981">
+      <c r="A5981" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5981" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C5981">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5982">
+      <c r="A5982" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5982" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C5982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5983">
+      <c r="A5983" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5983" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C5983">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5984">
+      <c r="A5984" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5984" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C5984">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5985">
+      <c r="A5985" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5985" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C5985">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5986">
+      <c r="A5986" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5986" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C5986">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5987">
+      <c r="A5987" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5987" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C5987">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5988">
+      <c r="A5988" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5988" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C5988">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5989">
+      <c r="A5989" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5989" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C5989">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5990">
+      <c r="A5990" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5990" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C5990">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5991">
+      <c r="A5991" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5991" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C5991">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5992">
+      <c r="A5992" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5992" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C5992">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5993">
+      <c r="A5993" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5993" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C5993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5994">
+      <c r="A5994" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5994" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C5994">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5995">
+      <c r="A5995" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5995" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C5995">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5996">
+      <c r="A5996" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5996" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C5996">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5997">
+      <c r="A5997" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5997" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C5997">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5998">
+      <c r="A5998" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5998" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C5998">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5999">
+      <c r="A5999" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B5999" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C5999">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6000">
+      <c r="A6000" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6000" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6000">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6001">
+      <c r="A6001" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6001" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6001">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6002">
+      <c r="A6002" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6002" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6002">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6003">
+      <c r="A6003" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6003" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6003">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6004">
+      <c r="A6004" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6004" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6005">
+      <c r="A6005" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6005" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6005">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6006">
+      <c r="A6006" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6006" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6006">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6007">
+      <c r="A6007" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6007" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6008">
+      <c r="A6008" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6008" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6008">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6009">
+      <c r="A6009" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6009" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6009">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6010">
+      <c r="A6010" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6010" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6010">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6011">
+      <c r="A6011" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6011" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6011">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6012">
+      <c r="A6012" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6012" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6012">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6013">
+      <c r="A6013" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6013" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6013">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6014">
+      <c r="A6014" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6014" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6014">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6015">
+      <c r="A6015" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6015" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6015">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6016">
+      <c r="A6016" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6016" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6016">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6017">
+      <c r="A6017" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6017" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6017">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6018">
+      <c r="A6018" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6018" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6019">
+      <c r="A6019" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6019" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6020">
+      <c r="A6020" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6020" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6020">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6021">
+      <c r="A6021" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6021" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6021">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6022">
+      <c r="A6022" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6022" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6022">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6023">
+      <c r="A6023" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6023" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6024">
+      <c r="A6024" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6024" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6024">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6025">
+      <c r="A6025" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B6025" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6025">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6026">
+      <c r="A6026" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6026" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6026">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6027">
+      <c r="A6027" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6027" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6027">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6028">
+      <c r="A6028" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6028" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6028">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6029">
+      <c r="A6029" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6029" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6030">
+      <c r="A6030" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6030" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6030">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6031">
+      <c r="A6031" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6031" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6031">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6032">
+      <c r="A6032" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6032" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6033">
+      <c r="A6033" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6033" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6033">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6034">
+      <c r="A6034" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6034" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6034">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6035">
+      <c r="A6035" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6035" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6036">
+      <c r="A6036" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6036" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6036">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6037">
+      <c r="A6037" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6037" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6038">
+      <c r="A6038" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6038" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6038">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6039">
+      <c r="A6039" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6039" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6039">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6040">
+      <c r="A6040" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6040" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6040">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6041">
+      <c r="A6041" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6041" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6041">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6042">
+      <c r="A6042" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6042" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6042">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6043">
+      <c r="A6043" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6043" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6043">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6044">
+      <c r="A6044" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6044" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6045">
+      <c r="A6045" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6045" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6045">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6046">
+      <c r="A6046" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6046" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6046">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6047">
+      <c r="A6047" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6047" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6048">
+      <c r="A6048" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6048" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6049">
+      <c r="A6049" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6049" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6049">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6050">
+      <c r="A6050" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6050" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6050">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6051">
+      <c r="A6051" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6051" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6051">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6052">
+      <c r="A6052" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6052" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6053">
+      <c r="A6053" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6053" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6053">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6054">
+      <c r="A6054" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6054" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6054">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6055">
+      <c r="A6055" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6055" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6056">
+      <c r="A6056" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6056" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6056">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6057">
+      <c r="A6057" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6057" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6058">
+      <c r="A6058" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6058" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6058">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6059">
+      <c r="A6059" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6059" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6059">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6060">
+      <c r="A6060" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6060" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6061">
+      <c r="A6061" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6061" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6061">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6062">
+      <c r="A6062" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6062" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6063">
+      <c r="A6063" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6063" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6064">
+      <c r="A6064" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6064" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6064">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6065">
+      <c r="A6065" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6065" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6065">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6066">
+      <c r="A6066" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6066" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6066">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6067">
+      <c r="A6067" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6067" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6067">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6068">
+      <c r="A6068" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6068" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6068">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6069">
+      <c r="A6069" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6069" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6069">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6070">
+      <c r="A6070" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6070" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6071">
+      <c r="A6071" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6071" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6072">
+      <c r="A6072" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6072" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6072">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6073">
+      <c r="A6073" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6073" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6074">
+      <c r="A6074" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6074" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6074">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6075">
+      <c r="A6075" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6075" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6076">
+      <c r="A6076" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6076" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6076">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6077">
+      <c r="A6077" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6077" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6078">
+      <c r="A6078" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6078" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6078">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6079">
+      <c r="A6079" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B6079" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6079">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6080">
+      <c r="A6080" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6080" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6080">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6081">
+      <c r="A6081" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6081" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6081">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6082">
+      <c r="A6082" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6082" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6082">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6083">
+      <c r="A6083" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6083" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6083">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6084">
+      <c r="A6084" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6084" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6084">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6085">
+      <c r="A6085" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6085" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6085">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6086">
+      <c r="A6086" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6086" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6086">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6087">
+      <c r="A6087" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6087" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6087">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6088">
+      <c r="A6088" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6088" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6088">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6089">
+      <c r="A6089" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6089" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6089">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6090">
+      <c r="A6090" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6090" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6090">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6091">
+      <c r="A6091" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6091" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6091">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6092">
+      <c r="A6092" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6092" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6092">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6093">
+      <c r="A6093" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6093" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6093">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6094">
+      <c r="A6094" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6094" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6094">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6095">
+      <c r="A6095" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6095" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6095">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6096">
+      <c r="A6096" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6096" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6096">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6097">
+      <c r="A6097" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6097" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6097">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6098">
+      <c r="A6098" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6098" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6098">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6099">
+      <c r="A6099" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6099" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6099">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6100">
+      <c r="A6100" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6100" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6101">
+      <c r="A6101" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6101" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6102">
+      <c r="A6102" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6102" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6103">
+      <c r="A6103" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6103" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6104">
+      <c r="A6104" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6104" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6105">
+      <c r="A6105" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6105" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6106">
+      <c r="A6106" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6106" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6107">
+      <c r="A6107" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6107" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6108">
+      <c r="A6108" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6108" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6109">
+      <c r="A6109" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6109" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6109">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6110">
+      <c r="A6110" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6110" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6111">
+      <c r="A6111" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6111" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6111">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6112">
+      <c r="A6112" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6112" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6112">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6113">
+      <c r="A6113" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6113" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6113">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6114">
+      <c r="A6114" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6114" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6115">
+      <c r="A6115" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6115" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6116">
+      <c r="A6116" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6116" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6116">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6117">
+      <c r="A6117" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6117" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6118">
+      <c r="A6118" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6118" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6119">
+      <c r="A6119" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6119" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6119">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6120">
+      <c r="A6120" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6120" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6120">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6121">
+      <c r="A6121" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6121" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6122">
+      <c r="A6122" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6122" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6122">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6123">
+      <c r="A6123" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6123" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6124">
+      <c r="A6124" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6124" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6125">
+      <c r="A6125" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6125" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6126">
+      <c r="A6126" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6126" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6127">
+      <c r="A6127" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6127" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6127">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6128">
+      <c r="A6128" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6128" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6129">
+      <c r="A6129" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6129" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6130">
+      <c r="A6130" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6130" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6131">
+      <c r="A6131" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6131" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6132">
+      <c r="A6132" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6132" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6132">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6133">
+      <c r="A6133" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6133" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6133">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6134">
+      <c r="A6134" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6134" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6135">
+      <c r="A6135" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6135" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6135">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6136">
+      <c r="A6136" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6136" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6137">
+      <c r="A6137" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6137" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6137">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6138">
+      <c r="A6138" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6138" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6138">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6139">
+      <c r="A6139" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6139" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6139">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6140">
+      <c r="A6140" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6140" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6140">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6141">
+      <c r="A6141" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6141" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6142">
+      <c r="A6142" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6142" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6143">
+      <c r="A6143" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6143" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6144">
+      <c r="A6144" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6144" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6145">
+      <c r="A6145" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6145" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6146">
+      <c r="A6146" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6146" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6146">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6147">
+      <c r="A6147" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6147" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6148">
+      <c r="A6148" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6148" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6149">
+      <c r="A6149" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B6149" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6149">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6149"/>
+  <dimension ref="A1:C6221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -80305,6 +80305,942 @@
         <v>113</v>
       </c>
     </row>
+    <row r="6150">
+      <c r="A6150" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6150" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6150">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6151">
+      <c r="A6151" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6151" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6151">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6152">
+      <c r="A6152" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6152" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6153">
+      <c r="A6153" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6153" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6153">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6154">
+      <c r="A6154" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6154" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6154">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6155">
+      <c r="A6155" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6155" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6155">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6156">
+      <c r="A6156" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6156" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6157">
+      <c r="A6157" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6157" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6157">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6158">
+      <c r="A6158" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6158" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6159">
+      <c r="A6159" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6159" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6159">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6160">
+      <c r="A6160" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6160" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6160">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6161">
+      <c r="A6161" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6161" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6161">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6162">
+      <c r="A6162" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6162" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6163">
+      <c r="A6163" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6163" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6163">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6164">
+      <c r="A6164" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6164" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6164">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6165">
+      <c r="A6165" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6165" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6165">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6166">
+      <c r="A6166" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6166" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6167">
+      <c r="A6167" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6167" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6167">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6168">
+      <c r="A6168" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6168" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6168">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6169">
+      <c r="A6169" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6169" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6169">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6170">
+      <c r="A6170" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6170" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6171">
+      <c r="A6171" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6171" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6172">
+      <c r="A6172" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6172" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6172">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6173">
+      <c r="A6173" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6173" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6174">
+      <c r="A6174" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6174" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6175">
+      <c r="A6175" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6175" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6175">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6176">
+      <c r="A6176" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6176" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6176">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6177">
+      <c r="A6177" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6177" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6177">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6178">
+      <c r="A6178" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6178" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6179">
+      <c r="A6179" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6179" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6179">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6180">
+      <c r="A6180" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6180" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6180">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6181">
+      <c r="A6181" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6181" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6182">
+      <c r="A6182" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6182" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6182">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6183">
+      <c r="A6183" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6183" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6183">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6184">
+      <c r="A6184" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6184" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6184">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6185">
+      <c r="A6185" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6185" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6185">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6186">
+      <c r="A6186" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6186" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6186">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6187">
+      <c r="A6187" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6187" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6188">
+      <c r="A6188" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6188" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6189">
+      <c r="A6189" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6189" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6189">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6190">
+      <c r="A6190" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6190" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6190">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6191">
+      <c r="A6191" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6191" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6191">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6192">
+      <c r="A6192" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6192" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6192">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6193">
+      <c r="A6193" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6193" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6193">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6194">
+      <c r="A6194" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6194" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6195">
+      <c r="A6195" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6195" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6195">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6196">
+      <c r="A6196" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6196" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6196">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6197">
+      <c r="A6197" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6197" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6198">
+      <c r="A6198" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6198" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6199">
+      <c r="A6199" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6199" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6199">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6200">
+      <c r="A6200" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6200" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6200">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6201">
+      <c r="A6201" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6201" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6201">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6202">
+      <c r="A6202" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6202" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6202">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6203">
+      <c r="A6203" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6203" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6204">
+      <c r="A6204" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6204" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6204">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6205">
+      <c r="A6205" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6205" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6205">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6206">
+      <c r="A6206" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6206" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6206">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6207">
+      <c r="A6207" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6207" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6208">
+      <c r="A6208" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6208" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6208">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6209">
+      <c r="A6209" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6209" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6209">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6210">
+      <c r="A6210" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6210" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6210">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6211">
+      <c r="A6211" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6211" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6211">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6212">
+      <c r="A6212" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6212" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6212">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6213">
+      <c r="A6213" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6213" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6214">
+      <c r="A6214" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6214" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6215">
+      <c r="A6215" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6215" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6215">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6216">
+      <c r="A6216" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6216" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6216">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6217">
+      <c r="A6217" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6217" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6217">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6218">
+      <c r="A6218" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6218" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6218">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6219">
+      <c r="A6219" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6219" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6220">
+      <c r="A6220" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6220" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6221">
+      <c r="A6221" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B6221" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6221">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6221"/>
+  <dimension ref="A1:C6293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -81241,6 +81241,942 @@
         <v>138</v>
       </c>
     </row>
+    <row r="6222">
+      <c r="A6222" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6222" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6223">
+      <c r="A6223" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6223" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6223">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6224">
+      <c r="A6224" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6224" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6225">
+      <c r="A6225" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6225" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6225">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6226">
+      <c r="A6226" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6226" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6226">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6227">
+      <c r="A6227" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6227" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6227">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6228">
+      <c r="A6228" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6228" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6228">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6229">
+      <c r="A6229" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6229" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6229">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6230">
+      <c r="A6230" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6230" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6230">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6231">
+      <c r="A6231" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6231" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6231">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6232">
+      <c r="A6232" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6232" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6232">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6233">
+      <c r="A6233" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6233" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6233">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6234">
+      <c r="A6234" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6234" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6235">
+      <c r="A6235" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6235" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6235">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6236">
+      <c r="A6236" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6236" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6236">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6237">
+      <c r="A6237" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6237" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6237">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6238">
+      <c r="A6238" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6238" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6238">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6239">
+      <c r="A6239" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6239" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6240">
+      <c r="A6240" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6240" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6240">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6241">
+      <c r="A6241" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6241" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6241">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6242">
+      <c r="A6242" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6242" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6243">
+      <c r="A6243" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6243" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6244">
+      <c r="A6244" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6244" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6245">
+      <c r="A6245" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6245" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6245">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6246">
+      <c r="A6246" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6246" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6246">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6247">
+      <c r="A6247" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6247" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6247">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6248">
+      <c r="A6248" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6248" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6248">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6249">
+      <c r="A6249" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6249" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6249">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6250">
+      <c r="A6250" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6250" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6251">
+      <c r="A6251" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6251" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6251">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6252">
+      <c r="A6252" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6252" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6252">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6253">
+      <c r="A6253" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6253" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6254">
+      <c r="A6254" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6254" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6254">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6255">
+      <c r="A6255" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6255" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6255">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6256">
+      <c r="A6256" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6256" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6256">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6257">
+      <c r="A6257" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6257" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6258">
+      <c r="A6258" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6258" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6258">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6259">
+      <c r="A6259" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6259" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6259">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6260">
+      <c r="A6260" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6260" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6261">
+      <c r="A6261" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6261" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6261">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6262">
+      <c r="A6262" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6262" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6262">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6263">
+      <c r="A6263" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6263" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6263">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6264">
+      <c r="A6264" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6264" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6264">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6265">
+      <c r="A6265" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6265" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6265">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6266">
+      <c r="A6266" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6266" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6267">
+      <c r="A6267" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6267" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6267">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6268">
+      <c r="A6268" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6268" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6268">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6269">
+      <c r="A6269" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6269" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6269">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6270">
+      <c r="A6270" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6270" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6270">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6271">
+      <c r="A6271" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6271" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6271">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6272">
+      <c r="A6272" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6272" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6272">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6273">
+      <c r="A6273" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6273" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6274">
+      <c r="A6274" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6274" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6275">
+      <c r="A6275" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6275" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6276">
+      <c r="A6276" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6276" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6276">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6277">
+      <c r="A6277" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6277" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6277">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6278">
+      <c r="A6278" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6278" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6278">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6279">
+      <c r="A6279" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6279" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6279">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6280">
+      <c r="A6280" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6280" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6280">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6281">
+      <c r="A6281" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6281" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6281">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6282">
+      <c r="A6282" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6282" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6282">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6283">
+      <c r="A6283" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6283" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6283">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6284">
+      <c r="A6284" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6284" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6284">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6285">
+      <c r="A6285" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6285" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6286">
+      <c r="A6286" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6286" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6286">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6287">
+      <c r="A6287" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6287" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6287">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6288">
+      <c r="A6288" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6288" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6288">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6289">
+      <c r="A6289" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6289" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6289">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6290">
+      <c r="A6290" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6290" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6290">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6291">
+      <c r="A6291" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6291" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6292">
+      <c r="A6292" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6292" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6293">
+      <c r="A6293" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B6293" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6293">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6293"/>
+  <dimension ref="A1:C6566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -82177,6 +82177,3555 @@
         <v>82</v>
       </c>
     </row>
+    <row r="6294">
+      <c r="A6294" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6294" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6294">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6295">
+      <c r="A6295" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6295" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6295">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6296">
+      <c r="A6296" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6296" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6297">
+      <c r="A6297" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6297" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6297">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6298">
+      <c r="A6298" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6298" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6298">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6299">
+      <c r="A6299" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6299" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6299">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6300">
+      <c r="A6300" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6300" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6300">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6301">
+      <c r="A6301" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6301" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6301">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6302">
+      <c r="A6302" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6302" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6302">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6303">
+      <c r="A6303" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6303" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6304">
+      <c r="A6304" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6304" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6304">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6305">
+      <c r="A6305" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6305" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6305">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6306">
+      <c r="A6306" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6306" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6306">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6307">
+      <c r="A6307" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6307" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6307">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6308">
+      <c r="A6308" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6308" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6308">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6309">
+      <c r="A6309" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6309" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6309">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6310">
+      <c r="A6310" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6310" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6310">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6311">
+      <c r="A6311" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6311" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6311">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6312">
+      <c r="A6312" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6312" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6312">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6313">
+      <c r="A6313" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6313" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6313">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6314">
+      <c r="A6314" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6314" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6314">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6315">
+      <c r="A6315" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6315" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6315">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6316">
+      <c r="A6316" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6316" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6316">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6317">
+      <c r="A6317" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6317" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6317">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6318">
+      <c r="A6318" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6318" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6318">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6319">
+      <c r="A6319" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6319" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6319">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6320">
+      <c r="A6320" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6320" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6320">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6321">
+      <c r="A6321" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6321" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6321">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6322">
+      <c r="A6322" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6322" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6323">
+      <c r="A6323" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6323" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6323">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6324">
+      <c r="A6324" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6324" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6324">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6325">
+      <c r="A6325" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6325" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6325">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6326">
+      <c r="A6326" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6326" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6326">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6327">
+      <c r="A6327" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6327" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6327">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6328">
+      <c r="A6328" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6328" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6328">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6329">
+      <c r="A6329" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6329" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6329">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6330">
+      <c r="A6330" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6330" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6330">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6331">
+      <c r="A6331" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6331" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6331">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6332">
+      <c r="A6332" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6332" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6333">
+      <c r="A6333" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6333" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6333">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6334">
+      <c r="A6334" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6334" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6334">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6335">
+      <c r="A6335" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6335" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6335">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6336">
+      <c r="A6336" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6336" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6336">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6337">
+      <c r="A6337" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6337" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6337">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6338">
+      <c r="A6338" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6338" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6338">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6339">
+      <c r="A6339" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6339" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6339">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6340">
+      <c r="A6340" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6340" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6340">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6341">
+      <c r="A6341" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6341" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6341">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6342">
+      <c r="A6342" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6342" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6342">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6343">
+      <c r="A6343" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6343" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6343">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6344">
+      <c r="A6344" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6344" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6344">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6345">
+      <c r="A6345" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6345" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6345">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6346">
+      <c r="A6346" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6346" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6346">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6347">
+      <c r="A6347" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6347" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6347">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6348">
+      <c r="A6348" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6348" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6348">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6349">
+      <c r="A6349" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6349" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6349">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6350">
+      <c r="A6350" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6350" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6350">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6351">
+      <c r="A6351" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6351" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6351">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6352">
+      <c r="A6352" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6352" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6352">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6353">
+      <c r="A6353" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6353" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6353">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6354">
+      <c r="A6354" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6354" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6354">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6355">
+      <c r="A6355" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6355" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6355">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6356">
+      <c r="A6356" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6356" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6356">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6357">
+      <c r="A6357" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6357" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6358">
+      <c r="A6358" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6358" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6358">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6359">
+      <c r="A6359" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6359" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6359">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6360">
+      <c r="A6360" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6360" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6360">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6361">
+      <c r="A6361" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6361" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6361">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6362">
+      <c r="A6362" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6362" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6362">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6363">
+      <c r="A6363" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6363" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6364">
+      <c r="A6364" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6364" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6364">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6365">
+      <c r="A6365" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B6365" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6365">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6366">
+      <c r="A6366" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6366" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6367">
+      <c r="A6367" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6367" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6367">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6368">
+      <c r="A6368" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6368" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6369">
+      <c r="A6369" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6369" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6369">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6370">
+      <c r="A6370" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6370" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6370">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6371">
+      <c r="A6371" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6371" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6371">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6372">
+      <c r="A6372" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6372" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6373">
+      <c r="A6373" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6373" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6373">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6374">
+      <c r="A6374" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6374" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6374">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6375">
+      <c r="A6375" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6375" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6375">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6376">
+      <c r="A6376" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6376" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6376">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6377">
+      <c r="A6377" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6377" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6377">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6378">
+      <c r="A6378" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6378" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6378">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6379">
+      <c r="A6379" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6379" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6379">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6380">
+      <c r="A6380" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6380" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6380">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6381">
+      <c r="A6381" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6381" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6381">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6382">
+      <c r="A6382" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6382" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6382">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6383">
+      <c r="A6383" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6383" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6383">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6384">
+      <c r="A6384" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6384" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6384">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6385">
+      <c r="A6385" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6385" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6385">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6386">
+      <c r="A6386" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6386" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6386">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6387">
+      <c r="A6387" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6387" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6387">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6388">
+      <c r="A6388" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6388" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6388">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6389">
+      <c r="A6389" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6389" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6389">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6390">
+      <c r="A6390" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6390" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6390">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6391">
+      <c r="A6391" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6391" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6391">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6392">
+      <c r="A6392" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6392" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6392">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6393">
+      <c r="A6393" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6393" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6393">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6394">
+      <c r="A6394" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6394" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6395">
+      <c r="A6395" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6395" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6395">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6396">
+      <c r="A6396" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6396" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6396">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6397">
+      <c r="A6397" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6397" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6398">
+      <c r="A6398" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6398" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6398">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6399">
+      <c r="A6399" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6399" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6399">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6400">
+      <c r="A6400" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6400" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6400">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6401">
+      <c r="A6401" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6401" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6402">
+      <c r="A6402" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6402" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6402">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6403">
+      <c r="A6403" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6403" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6403">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6404">
+      <c r="A6404" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6404" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6405">
+      <c r="A6405" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6405" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6405">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6406">
+      <c r="A6406" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6406" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6406">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6407">
+      <c r="A6407" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6407" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6407">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6408">
+      <c r="A6408" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6408" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6408">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6409">
+      <c r="A6409" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6409" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6409">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6410">
+      <c r="A6410" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6410" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6411">
+      <c r="A6411" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6411" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6411">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6412">
+      <c r="A6412" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6412" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6413">
+      <c r="A6413" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6413" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6413">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6414">
+      <c r="A6414" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6414" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6414">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6415">
+      <c r="A6415" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6415" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6415">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6416">
+      <c r="A6416" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6416" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6416">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6417">
+      <c r="A6417" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6417" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6417">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6418">
+      <c r="A6418" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6418" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6418">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6419">
+      <c r="A6419" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6419" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6420">
+      <c r="A6420" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6420" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6420">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6421">
+      <c r="A6421" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6421" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6421">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6422">
+      <c r="A6422" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6422" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6422">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6423">
+      <c r="A6423" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6423" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6423">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6424">
+      <c r="A6424" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6424" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6424">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6425">
+      <c r="A6425" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6425" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6425">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6426">
+      <c r="A6426" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6426" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6426">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6427">
+      <c r="A6427" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6427" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6427">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6428">
+      <c r="A6428" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6428" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6428">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6429">
+      <c r="A6429" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6429" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6429">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6430">
+      <c r="A6430" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6430" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6430">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6431">
+      <c r="A6431" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6431" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6431">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6432">
+      <c r="A6432" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6432" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6432">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6433">
+      <c r="A6433" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6433" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6433">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6434">
+      <c r="A6434" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6434" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6434">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6435">
+      <c r="A6435" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6435" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6435">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6436">
+      <c r="A6436" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6436" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6436">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6437">
+      <c r="A6437" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B6437" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6437">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6438">
+      <c r="A6438" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6438" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6438">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6439">
+      <c r="A6439" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6439" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6439">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6440">
+      <c r="A6440" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6440" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6441">
+      <c r="A6441" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6441" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6441">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6442">
+      <c r="A6442" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6442" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6442">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6443">
+      <c r="A6443" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6443" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6443">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6444">
+      <c r="A6444" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6444" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6444">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6445">
+      <c r="A6445" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6445" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6445">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6446">
+      <c r="A6446" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6446" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6446">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6447">
+      <c r="A6447" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6447" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6448">
+      <c r="A6448" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6448" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6448">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6449">
+      <c r="A6449" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6449" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6449">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6450">
+      <c r="A6450" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6450" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6451">
+      <c r="A6451" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6451" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6451">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6452">
+      <c r="A6452" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6452" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6452">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6453">
+      <c r="A6453" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6453" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6453">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6454">
+      <c r="A6454" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6454" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6454">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6455">
+      <c r="A6455" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6455" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6455">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6456">
+      <c r="A6456" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6456" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6456">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6457">
+      <c r="A6457" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6457" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6457">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6458">
+      <c r="A6458" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6458" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6459">
+      <c r="A6459" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6459" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6459">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6460">
+      <c r="A6460" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6460" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6460">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6461">
+      <c r="A6461" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6461" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6461">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6462">
+      <c r="A6462" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6462" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6462">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6463">
+      <c r="A6463" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6463" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6464">
+      <c r="A6464" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6464" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6464">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6465">
+      <c r="A6465" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6465" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6465">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6466">
+      <c r="A6466" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6466" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6467">
+      <c r="A6467" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6467" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6467">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6468">
+      <c r="A6468" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6468" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6469">
+      <c r="A6469" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6469" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6469">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6470">
+      <c r="A6470" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6470" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6470">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6471">
+      <c r="A6471" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6471" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6471">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6472">
+      <c r="A6472" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6472" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6472">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6473">
+      <c r="A6473" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6473" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6473">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6474">
+      <c r="A6474" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6474" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6474">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6475">
+      <c r="A6475" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6475" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6475">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6476">
+      <c r="A6476" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6476" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6476">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6477">
+      <c r="A6477" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6477" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6477">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6478">
+      <c r="A6478" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6478" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6478">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6479">
+      <c r="A6479" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6479" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6479">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6480">
+      <c r="A6480" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6480" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6480">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6481">
+      <c r="A6481" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6481" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6481">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6482">
+      <c r="A6482" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6482" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6482">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6483">
+      <c r="A6483" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6483" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6483">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6484">
+      <c r="A6484" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6484" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6485">
+      <c r="A6485" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6485" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6485">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6486">
+      <c r="A6486" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6486" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6487">
+      <c r="A6487" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6487" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6488">
+      <c r="A6488" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6488" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6488">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6489">
+      <c r="A6489" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6489" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6489">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6490">
+      <c r="A6490" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6490" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6491">
+      <c r="A6491" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6491" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6492">
+      <c r="A6492" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6492" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6492">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6493">
+      <c r="A6493" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6493" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6493">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6494">
+      <c r="A6494" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6494" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6494">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6495">
+      <c r="A6495" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6495" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6495">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6496">
+      <c r="A6496" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6496" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6496">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6497">
+      <c r="A6497" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6497" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6497">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6498">
+      <c r="A6498" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6498" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6499">
+      <c r="A6499" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6499" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6500">
+      <c r="A6500" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6500" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6500">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6501">
+      <c r="A6501" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6501" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6502">
+      <c r="A6502" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6502" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6502">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6503">
+      <c r="A6503" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6503" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6504">
+      <c r="A6504" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6504" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6504">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6505">
+      <c r="A6505" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B6505" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6505">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6506">
+      <c r="A6506" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6506" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6506">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6507">
+      <c r="A6507" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6507" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6507">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6508">
+      <c r="A6508" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6508" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6509">
+      <c r="A6509" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6509" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6509">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6510">
+      <c r="A6510" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6510" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6510">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6511">
+      <c r="A6511" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6511" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6511">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6512">
+      <c r="A6512" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6512" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6513">
+      <c r="A6513" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6513" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6513">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6514">
+      <c r="A6514" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6514" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6514">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6515">
+      <c r="A6515" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6515" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6515">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6516">
+      <c r="A6516" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6516" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6517">
+      <c r="A6517" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6517" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6517">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6518">
+      <c r="A6518" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6518" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6518">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6519">
+      <c r="A6519" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6519" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6519">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6520">
+      <c r="A6520" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6520" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6520">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6521">
+      <c r="A6521" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6521" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6521">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6522">
+      <c r="A6522" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6522" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6522">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6523">
+      <c r="A6523" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6523" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6523">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6524">
+      <c r="A6524" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6524" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6525">
+      <c r="A6525" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6525" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6526">
+      <c r="A6526" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6526" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6526">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6527">
+      <c r="A6527" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6527" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6528">
+      <c r="A6528" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6528" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6528">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6529">
+      <c r="A6529" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6529" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6529">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6530">
+      <c r="A6530" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6530" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6530">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6531">
+      <c r="A6531" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6531" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6532">
+      <c r="A6532" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6532" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6532">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6533">
+      <c r="A6533" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6533" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6534">
+      <c r="A6534" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6534" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6534">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6535">
+      <c r="A6535" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6535" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6535">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6536">
+      <c r="A6536" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6536" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6536">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6537">
+      <c r="A6537" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6537" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6537">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6538">
+      <c r="A6538" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6538" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6538">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6539">
+      <c r="A6539" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6539" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6539">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6540">
+      <c r="A6540" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6540" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6540">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6541">
+      <c r="A6541" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6541" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6541">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6542">
+      <c r="A6542" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6542" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6542">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6543">
+      <c r="A6543" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6543" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6544">
+      <c r="A6544" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6544" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6544">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6545">
+      <c r="A6545" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6545" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6545">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6546">
+      <c r="A6546" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6546" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6546">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6547">
+      <c r="A6547" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6547" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6548">
+      <c r="A6548" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6548" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6548">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6549">
+      <c r="A6549" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6549" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6550">
+      <c r="A6550" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6550" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6551">
+      <c r="A6551" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6551" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6551">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6552">
+      <c r="A6552" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6552" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6552">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6553">
+      <c r="A6553" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6553" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6553">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6554">
+      <c r="A6554" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6554" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6554">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6555">
+      <c r="A6555" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6555" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6555">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6556">
+      <c r="A6556" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6556" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6556">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6557">
+      <c r="A6557" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6557" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6557">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6558">
+      <c r="A6558" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6558" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6558">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6559">
+      <c r="A6559" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6559" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6559">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6560">
+      <c r="A6560" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6560" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6561">
+      <c r="A6561" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6561" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6562">
+      <c r="A6562" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6562" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6562">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6563">
+      <c r="A6563" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6563" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6563">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6564">
+      <c r="A6564" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6564" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6564">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6565">
+      <c r="A6565" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6565" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6565">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6566">
+      <c r="A6566" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B6566" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6566">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6566"/>
+  <dimension ref="A1:C6638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -85726,6 +85726,942 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6567">
+      <c r="A6567" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6567" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6567">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6568">
+      <c r="A6568" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6568" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6568">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6569">
+      <c r="A6569" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6569" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6570">
+      <c r="A6570" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6570" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6570">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6571">
+      <c r="A6571" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6571" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6571">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6572">
+      <c r="A6572" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6572" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6572">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6573">
+      <c r="A6573" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6573" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6573">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6574">
+      <c r="A6574" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6574" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6574">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6575">
+      <c r="A6575" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6575" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6576">
+      <c r="A6576" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6576" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6576">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6577">
+      <c r="A6577" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6577" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6577">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6578">
+      <c r="A6578" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6578" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6578">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6579">
+      <c r="A6579" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6579" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6579">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6580">
+      <c r="A6580" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6580" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6580">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6581">
+      <c r="A6581" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6581" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6581">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6582">
+      <c r="A6582" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6582" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6582">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6583">
+      <c r="A6583" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6583" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6583">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6584">
+      <c r="A6584" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6584" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6584">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6585">
+      <c r="A6585" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6585" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6585">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6586">
+      <c r="A6586" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6586" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6586">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6587">
+      <c r="A6587" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6587" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6587">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6588">
+      <c r="A6588" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6588" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6588">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6589">
+      <c r="A6589" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6589" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6589">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6590">
+      <c r="A6590" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6590" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6590">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6591">
+      <c r="A6591" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6591" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6591">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6592">
+      <c r="A6592" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6592" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6592">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6593">
+      <c r="A6593" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6593" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6593">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6594">
+      <c r="A6594" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6594" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6594">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6595">
+      <c r="A6595" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6595" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6595">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6596">
+      <c r="A6596" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6596" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6596">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6597">
+      <c r="A6597" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6597" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6597">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6598">
+      <c r="A6598" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6598" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6598">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6599">
+      <c r="A6599" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6599" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6599">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6600">
+      <c r="A6600" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6600" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6600">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6601">
+      <c r="A6601" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6601" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6601">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6602">
+      <c r="A6602" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6602" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6602">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6603">
+      <c r="A6603" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6603" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6603">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6604">
+      <c r="A6604" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6604" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6604">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6605">
+      <c r="A6605" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6605" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6606">
+      <c r="A6606" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6606" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6606">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6607">
+      <c r="A6607" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6607" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6607">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6608">
+      <c r="A6608" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6608" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6608">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6609">
+      <c r="A6609" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6609" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6609">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6610">
+      <c r="A6610" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6610" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6611">
+      <c r="A6611" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6611" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6611">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6612">
+      <c r="A6612" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6612" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6612">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6613">
+      <c r="A6613" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6613" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6614">
+      <c r="A6614" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6614" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6614">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6615">
+      <c r="A6615" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6615" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6615">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6616">
+      <c r="A6616" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6616" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6616">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6617">
+      <c r="A6617" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6617" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6617">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6618">
+      <c r="A6618" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6618" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6618">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6619">
+      <c r="A6619" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6619" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6619">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6620">
+      <c r="A6620" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6620" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6620">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6621">
+      <c r="A6621" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6621" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6621">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6622">
+      <c r="A6622" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6622" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6622">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6623">
+      <c r="A6623" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6623" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6623">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6624">
+      <c r="A6624" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6624" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6624">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6625">
+      <c r="A6625" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6625" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6625">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6626">
+      <c r="A6626" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6626" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6626">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6627">
+      <c r="A6627" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6627" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6627">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6628">
+      <c r="A6628" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6628" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6628">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6629">
+      <c r="A6629" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6629" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6629">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6630">
+      <c r="A6630" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6630" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6630">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6631">
+      <c r="A6631" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6631" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6631">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6632">
+      <c r="A6632" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6632" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6632">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6633">
+      <c r="A6633" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6633" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6633">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6634">
+      <c r="A6634" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6634" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6634">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6635">
+      <c r="A6635" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6635" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6635">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6636">
+      <c r="A6636" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6636" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6637">
+      <c r="A6637" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6637" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6637">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6638">
+      <c r="A6638" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B6638" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6638">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6638"/>
+  <dimension ref="A1:C6709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -86662,6 +86662,929 @@
         <v>102</v>
       </c>
     </row>
+    <row r="6639">
+      <c r="A6639" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6639" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6639">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6640">
+      <c r="A6640" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6640" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6640">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6641">
+      <c r="A6641" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6641" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6641">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6642">
+      <c r="A6642" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6642" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6642">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6643">
+      <c r="A6643" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6643" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6643">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6644">
+      <c r="A6644" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6644" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6644">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6645">
+      <c r="A6645" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6645" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6645">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6646">
+      <c r="A6646" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6646" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6646">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6647">
+      <c r="A6647" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6647" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6647">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6648">
+      <c r="A6648" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6648" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6648">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6649">
+      <c r="A6649" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6649" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6649">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6650">
+      <c r="A6650" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6650" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6650">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6651">
+      <c r="A6651" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6651" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6651">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6652">
+      <c r="A6652" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6652" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6652">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6653">
+      <c r="A6653" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6653" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6653">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6654">
+      <c r="A6654" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6654" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6654">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6655">
+      <c r="A6655" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6655" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6655">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6656">
+      <c r="A6656" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6656" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6656">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6657">
+      <c r="A6657" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6657" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6657">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6658">
+      <c r="A6658" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6658" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6658">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6659">
+      <c r="A6659" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6659" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6659">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6660">
+      <c r="A6660" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6660" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6660">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6661">
+      <c r="A6661" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6661" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6661">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6662">
+      <c r="A6662" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6662" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6662">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6663">
+      <c r="A6663" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6663" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6663">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6664">
+      <c r="A6664" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6664" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6664">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6665">
+      <c r="A6665" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6665" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6665">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6666">
+      <c r="A6666" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6666" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6666">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6667">
+      <c r="A6667" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6667" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6668">
+      <c r="A6668" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6668" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6668">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6669">
+      <c r="A6669" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6669" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6669">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6670">
+      <c r="A6670" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6670" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6670">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6671">
+      <c r="A6671" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6671" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6671">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6672">
+      <c r="A6672" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6672" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6672">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6673">
+      <c r="A6673" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6673" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6673">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6674">
+      <c r="A6674" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6674" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6674">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6675">
+      <c r="A6675" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6675" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6675">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6676">
+      <c r="A6676" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6676" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6676">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6677">
+      <c r="A6677" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6677" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6677">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6678">
+      <c r="A6678" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6678" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6678">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6679">
+      <c r="A6679" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6679" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6679">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6680">
+      <c r="A6680" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6680" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6680">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6681">
+      <c r="A6681" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6681" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6681">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6682">
+      <c r="A6682" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6682" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6682">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6683">
+      <c r="A6683" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6683" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6683">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6684">
+      <c r="A6684" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6684" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6684">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6685">
+      <c r="A6685" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6685" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6685">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6686">
+      <c r="A6686" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6686" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6686">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6687">
+      <c r="A6687" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6687" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6687">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6688">
+      <c r="A6688" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6688" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6688">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6689">
+      <c r="A6689" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6689" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6689">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6690">
+      <c r="A6690" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6690" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6690">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6691">
+      <c r="A6691" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6691" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6691">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6692">
+      <c r="A6692" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6692" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6692">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6693">
+      <c r="A6693" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6693" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6693">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6694">
+      <c r="A6694" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6694" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6694">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6695">
+      <c r="A6695" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6695" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6695">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6696">
+      <c r="A6696" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6696" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6696">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6697">
+      <c r="A6697" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6697" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6697">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6698">
+      <c r="A6698" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6698" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6698">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6699">
+      <c r="A6699" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6699" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6699">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6700">
+      <c r="A6700" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6700" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6700">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6701">
+      <c r="A6701" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6701" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6701">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6702">
+      <c r="A6702" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6702" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6703">
+      <c r="A6703" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6703" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6703">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6704">
+      <c r="A6704" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6704" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6704">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6705">
+      <c r="A6705" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6705" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6705">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6706">
+      <c r="A6706" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6706" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6706">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6707">
+      <c r="A6707" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6707" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6707">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6708">
+      <c r="A6708" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6708" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6708">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6709">
+      <c r="A6709" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B6709" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6709">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6709"/>
+  <dimension ref="A1:C6953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -87585,6 +87585,3178 @@
         <v>129</v>
       </c>
     </row>
+    <row r="6710">
+      <c r="A6710" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6710" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6710">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6711">
+      <c r="A6711" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6711" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6711">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6712">
+      <c r="A6712" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6712" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6712">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6713">
+      <c r="A6713" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6713" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6713">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6714">
+      <c r="A6714" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6714" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6714">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6715">
+      <c r="A6715" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6715" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6715">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6716">
+      <c r="A6716" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6716" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6716">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6717">
+      <c r="A6717" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6717" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6717">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6718">
+      <c r="A6718" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6718" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6718">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6719">
+      <c r="A6719" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6719" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6719">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6720">
+      <c r="A6720" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6720" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6720">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6721">
+      <c r="A6721" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6721" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6721">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6722">
+      <c r="A6722" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6722" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6722">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6723">
+      <c r="A6723" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6723" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6723">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6724">
+      <c r="A6724" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6724" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6724">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6725">
+      <c r="A6725" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6725" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6725">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6726">
+      <c r="A6726" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6726" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6726">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6727">
+      <c r="A6727" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6727" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6727">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6728">
+      <c r="A6728" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6728" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6728">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6729">
+      <c r="A6729" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6729" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6729">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6730">
+      <c r="A6730" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6730" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6731">
+      <c r="A6731" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6731" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6731">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6732">
+      <c r="A6732" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6732" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6732">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6733">
+      <c r="A6733" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6733" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6733">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6734">
+      <c r="A6734" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6734" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6734">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6735">
+      <c r="A6735" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6735" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6735">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6736">
+      <c r="A6736" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6736" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6736">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6737">
+      <c r="A6737" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6737" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6737">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6738">
+      <c r="A6738" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6738" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6738">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6739">
+      <c r="A6739" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6739" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6739">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6740">
+      <c r="A6740" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6740" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6740">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6741">
+      <c r="A6741" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6741" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6741">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6742">
+      <c r="A6742" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6742" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6742">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6743">
+      <c r="A6743" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6743" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6743">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6744">
+      <c r="A6744" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6744" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6744">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6745">
+      <c r="A6745" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6745" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6745">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6746">
+      <c r="A6746" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6746" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6746">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6747">
+      <c r="A6747" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6747" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6747">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6748">
+      <c r="A6748" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6748" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6748">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6749">
+      <c r="A6749" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6749" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6749">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6750">
+      <c r="A6750" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6750" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6750">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6751">
+      <c r="A6751" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6751" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6751">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6752">
+      <c r="A6752" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6752" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6752">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6753">
+      <c r="A6753" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6753" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6753">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6754">
+      <c r="A6754" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6754" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6754">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6755">
+      <c r="A6755" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6755" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6755">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6756">
+      <c r="A6756" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6756" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6756">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6757">
+      <c r="A6757" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6757" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6757">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6758">
+      <c r="A6758" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6758" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6758">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6759">
+      <c r="A6759" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6759" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6759">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6760">
+      <c r="A6760" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6760" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6760">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6761">
+      <c r="A6761" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6761" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6761">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6762">
+      <c r="A6762" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6762" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6762">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6763">
+      <c r="A6763" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6763" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6763">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6764">
+      <c r="A6764" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6764" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6764">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6765">
+      <c r="A6765" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6765" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6765">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6766">
+      <c r="A6766" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6766" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C6766">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6767">
+      <c r="A6767" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6767" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6767">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6768">
+      <c r="A6768" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6768" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6768">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6769">
+      <c r="A6769" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6769" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6769">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6770">
+      <c r="A6770" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6770" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6770">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6771">
+      <c r="A6771" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6771" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6771">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6772">
+      <c r="A6772" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6772" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6772">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6773">
+      <c r="A6773" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6773" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C6773">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6774">
+      <c r="A6774" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6774" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6775">
+      <c r="A6775" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6775" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6775">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6776">
+      <c r="A6776" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6776" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6776">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6777">
+      <c r="A6777" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6777" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6777">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6778">
+      <c r="A6778" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6778" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6778">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6779">
+      <c r="A6779" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6779" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6779">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6780">
+      <c r="A6780" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6780" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6780">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6781">
+      <c r="A6781" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B6781" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6781">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6782">
+      <c r="A6782" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6782" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6782">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6783">
+      <c r="A6783" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6783" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6783">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6784">
+      <c r="A6784" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6784" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6784">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6785">
+      <c r="A6785" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6785" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6785">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6786">
+      <c r="A6786" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6786" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6786">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6787">
+      <c r="A6787" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6787" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6787">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6788">
+      <c r="A6788" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6788" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6789">
+      <c r="A6789" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6789" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6789">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6790">
+      <c r="A6790" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6790" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6790">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6791">
+      <c r="A6791" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6791" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6791">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6792">
+      <c r="A6792" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6792" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6792">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6793">
+      <c r="A6793" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6793" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6794">
+      <c r="A6794" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6794" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6794">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6795">
+      <c r="A6795" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6795" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6795">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6796">
+      <c r="A6796" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6796" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6797">
+      <c r="A6797" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6797" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6797">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6798">
+      <c r="A6798" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6798" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6798">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6799">
+      <c r="A6799" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6799" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6800">
+      <c r="A6800" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6800" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6801">
+      <c r="A6801" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6801" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6801">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6802">
+      <c r="A6802" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6802" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6802">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6803">
+      <c r="A6803" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6803" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6803">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6804">
+      <c r="A6804" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6804" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6805">
+      <c r="A6805" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6805" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6806">
+      <c r="A6806" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6806" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6806">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6807">
+      <c r="A6807" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6807" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6807">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6808">
+      <c r="A6808" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6808" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6809">
+      <c r="A6809" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6809" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6809">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6810">
+      <c r="A6810" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6810" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6810">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6811">
+      <c r="A6811" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6811" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6811">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6812">
+      <c r="A6812" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6812" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6812">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6813">
+      <c r="A6813" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6813" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6813">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6814">
+      <c r="A6814" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6814" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6814">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6815">
+      <c r="A6815" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6815" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6815">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6816">
+      <c r="A6816" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6816" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6816">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6817">
+      <c r="A6817" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6817" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6817">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6818">
+      <c r="A6818" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6818" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6818">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6819">
+      <c r="A6819" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6819" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6819">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6820">
+      <c r="A6820" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6820" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6820">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6821">
+      <c r="A6821" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6821" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6821">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6822">
+      <c r="A6822" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6822" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6822">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6823">
+      <c r="A6823" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6823" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6823">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6824">
+      <c r="A6824" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6824" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6824">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6825">
+      <c r="A6825" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6825" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6826">
+      <c r="A6826" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6826" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6826">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6827">
+      <c r="A6827" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6827" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6827">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6828">
+      <c r="A6828" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6828" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6829">
+      <c r="A6829" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6829" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6829">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6830">
+      <c r="A6830" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6830" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6831">
+      <c r="A6831" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6831" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6831">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6832">
+      <c r="A6832" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6832" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6832">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6833">
+      <c r="A6833" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6833" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6833">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6834">
+      <c r="A6834" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6834" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6834">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6835">
+      <c r="A6835" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6835" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6836">
+      <c r="A6836" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6836" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C6836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6837">
+      <c r="A6837" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6837" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6837">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6838">
+      <c r="A6838" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6838" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6838">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6839">
+      <c r="A6839" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6839" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6839">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6840">
+      <c r="A6840" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6840" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6840">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6841">
+      <c r="A6841" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B6841" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6841">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6842">
+      <c r="A6842" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6842" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6842">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6843">
+      <c r="A6843" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6843" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6843">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6844">
+      <c r="A6844" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6844" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6844">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6845">
+      <c r="A6845" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6845" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6845">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6846">
+      <c r="A6846" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6846" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6846">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6847">
+      <c r="A6847" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6847" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6847">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6848">
+      <c r="A6848" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6848" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6848">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6849">
+      <c r="A6849" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6849" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6849">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6850">
+      <c r="A6850" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6850" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6850">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6851">
+      <c r="A6851" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6851" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6851">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6852">
+      <c r="A6852" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6852" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6852">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6853">
+      <c r="A6853" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6853" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6853">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6854">
+      <c r="A6854" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6854" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6854">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6855">
+      <c r="A6855" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6855" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6855">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6856">
+      <c r="A6856" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6856" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6857">
+      <c r="A6857" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6857" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6857">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6858">
+      <c r="A6858" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6858" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6858">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6859">
+      <c r="A6859" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6859" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6859">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6860">
+      <c r="A6860" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6860" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6861">
+      <c r="A6861" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6861" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6861">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6862">
+      <c r="A6862" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6862" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6862">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6863">
+      <c r="A6863" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6863" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6864">
+      <c r="A6864" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6864" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6864">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6865">
+      <c r="A6865" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6865" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6865">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6866">
+      <c r="A6866" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6866" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6866">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6867">
+      <c r="A6867" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6867" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6867">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6868">
+      <c r="A6868" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6868" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6868">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6869">
+      <c r="A6869" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6869" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6869">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6870">
+      <c r="A6870" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6870" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6870">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6871">
+      <c r="A6871" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6871" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6871">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6872">
+      <c r="A6872" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6872" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6872">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6873">
+      <c r="A6873" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6873" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6873">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6874">
+      <c r="A6874" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6874" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6874">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6875">
+      <c r="A6875" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6875" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6875">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6876">
+      <c r="A6876" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6876" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6876">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6877">
+      <c r="A6877" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6877" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6877">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6878">
+      <c r="A6878" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6878" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6878">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6879">
+      <c r="A6879" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6879" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6879">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6880">
+      <c r="A6880" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6880" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6880">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6881">
+      <c r="A6881" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6881" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6882">
+      <c r="A6882" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6882" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6883">
+      <c r="A6883" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6883" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6884">
+      <c r="A6884" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6884" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6884">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6885">
+      <c r="A6885" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6885" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6885">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6886">
+      <c r="A6886" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6886" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C6886">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6887">
+      <c r="A6887" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6887" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C6887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6888">
+      <c r="A6888" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6888" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6889">
+      <c r="A6889" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6889" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6889">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6890">
+      <c r="A6890" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6890" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C6890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6891">
+      <c r="A6891" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6891" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C6891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6892">
+      <c r="A6892" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6892" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C6892">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6893">
+      <c r="A6893" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6893" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6894">
+      <c r="A6894" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6894" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6894">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6895">
+      <c r="A6895" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6895" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6895">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6896">
+      <c r="A6896" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6896" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6896">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6897">
+      <c r="A6897" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6897" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6898">
+      <c r="A6898" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6898" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6898">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6899">
+      <c r="A6899" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6899" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6899">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6900">
+      <c r="A6900" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6900" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6901">
+      <c r="A6901" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6901" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6902">
+      <c r="A6902" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B6902" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C6902">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6903">
+      <c r="A6903" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6903" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6903">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6904">
+      <c r="A6904" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6904" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6904">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6905">
+      <c r="A6905" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6905" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6905">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6906">
+      <c r="A6906" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6906" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6907">
+      <c r="A6907" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6907" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6908">
+      <c r="A6908" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6908" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6909">
+      <c r="A6909" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6909" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6910">
+      <c r="A6910" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6910" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6911">
+      <c r="A6911" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6911" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6911">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6912">
+      <c r="A6912" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6912" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6913">
+      <c r="A6913" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6913" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6913">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6914">
+      <c r="A6914" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6914" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6914">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6915">
+      <c r="A6915" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6915" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6916">
+      <c r="A6916" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6916" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6916">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6917">
+      <c r="A6917" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6917" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6917">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6918">
+      <c r="A6918" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6918" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6919">
+      <c r="A6919" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6919" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6920">
+      <c r="A6920" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6920" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6920">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6921">
+      <c r="A6921" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6921" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6922">
+      <c r="A6922" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6922" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6922">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6923">
+      <c r="A6923" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6923" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6923">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6924">
+      <c r="A6924" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6924" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6925">
+      <c r="A6925" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6925" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6925">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6926">
+      <c r="A6926" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6926" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6927">
+      <c r="A6927" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6927" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6927">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6928">
+      <c r="A6928" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6928" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6928">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6929">
+      <c r="A6929" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6929" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6930">
+      <c r="A6930" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6930" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6931">
+      <c r="A6931" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6931" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6932">
+      <c r="A6932" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6932" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6932">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6933">
+      <c r="A6933" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6933" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6933">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6934">
+      <c r="A6934" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6934" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6935">
+      <c r="A6935" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6935" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6935">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6936">
+      <c r="A6936" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6936" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C6936">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6937">
+      <c r="A6937" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6937" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6937">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6938">
+      <c r="A6938" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6938" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C6938">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6939">
+      <c r="A6939" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6939" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C6939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6940">
+      <c r="A6940" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6940" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C6940">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6941">
+      <c r="A6941" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6941" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C6941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6942">
+      <c r="A6942" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6942" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C6942">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6943">
+      <c r="A6943" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6943" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C6943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6944">
+      <c r="A6944" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6944" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C6944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6945">
+      <c r="A6945" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6945" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C6945">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6946">
+      <c r="A6946" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6946" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C6946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6947">
+      <c r="A6947" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6947" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C6947">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6948">
+      <c r="A6948" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6948" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C6948">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6949">
+      <c r="A6949" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6949" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C6949">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6950">
+      <c r="A6950" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6950" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C6950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6951">
+      <c r="A6951" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6951" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C6951">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6952">
+      <c r="A6952" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6952" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C6952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6953">
+      <c r="A6953" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B6953" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C6953">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6953"/>
+  <dimension ref="A1:C7023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -90757,6 +90757,916 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6954">
+      <c r="A6954" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6954" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C6954">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6955">
+      <c r="A6955" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6955" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6955">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6956">
+      <c r="A6956" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6956" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C6956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6957">
+      <c r="A6957" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6957" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C6957">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6958">
+      <c r="A6958" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6958" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C6958">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6959">
+      <c r="A6959" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6959" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C6959">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6960">
+      <c r="A6960" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6960" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C6960">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6961">
+      <c r="A6961" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6961" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C6961">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6962">
+      <c r="A6962" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6962" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C6962">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6963">
+      <c r="A6963" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6963" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C6963">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6964">
+      <c r="A6964" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6964" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C6964">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6965">
+      <c r="A6965" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6965" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C6965">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6966">
+      <c r="A6966" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6966" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C6966">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6967">
+      <c r="A6967" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6967" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C6967">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6968">
+      <c r="A6968" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6968" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C6968">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6969">
+      <c r="A6969" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6969" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C6969">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6970">
+      <c r="A6970" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6970" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C6970">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6971">
+      <c r="A6971" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6971" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C6971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6972">
+      <c r="A6972" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6972" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C6972">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6973">
+      <c r="A6973" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6973" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C6973">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6974">
+      <c r="A6974" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6974" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C6974">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6975">
+      <c r="A6975" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6975" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C6975">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6976">
+      <c r="A6976" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6976" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C6976">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6977">
+      <c r="A6977" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6977" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C6977">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6978">
+      <c r="A6978" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6978" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C6978">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6979">
+      <c r="A6979" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6979" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C6979">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6980">
+      <c r="A6980" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6980" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C6980">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6981">
+      <c r="A6981" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6981" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C6981">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6982">
+      <c r="A6982" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6982" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C6982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6983">
+      <c r="A6983" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6983" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C6983">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6984">
+      <c r="A6984" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6984" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C6984">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6985">
+      <c r="A6985" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6985" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C6985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6986">
+      <c r="A6986" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6986" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C6986">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6987">
+      <c r="A6987" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6987" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C6987">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6988">
+      <c r="A6988" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6988" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C6988">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6989">
+      <c r="A6989" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6989" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C6989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6990">
+      <c r="A6990" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6990" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C6990">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6991">
+      <c r="A6991" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6991" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C6991">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6992">
+      <c r="A6992" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6992" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C6992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6993">
+      <c r="A6993" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6993" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C6993">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6994">
+      <c r="A6994" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6994" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C6994">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6995">
+      <c r="A6995" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6995" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C6995">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6996">
+      <c r="A6996" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6996" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C6996">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6997">
+      <c r="A6997" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6997" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C6997">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6998">
+      <c r="A6998" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6998" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C6998">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6999">
+      <c r="A6999" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B6999" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C6999">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7000">
+      <c r="A7000" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7000" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7000">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7001">
+      <c r="A7001" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7001" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7001">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7002">
+      <c r="A7002" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7002" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7002">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7003">
+      <c r="A7003" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7003" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7003">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7004">
+      <c r="A7004" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7004" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7005">
+      <c r="A7005" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7005" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7005">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7006">
+      <c r="A7006" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7006" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7006">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7007">
+      <c r="A7007" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7007" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7007">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7008">
+      <c r="A7008" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7008" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7008">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7009">
+      <c r="A7009" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7009" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7009">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7010">
+      <c r="A7010" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7010" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7010">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7011">
+      <c r="A7011" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7011" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7011">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7012">
+      <c r="A7012" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7012" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7012">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7013">
+      <c r="A7013" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7013" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7013">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7014">
+      <c r="A7014" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7014" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7014">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7015">
+      <c r="A7015" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7015" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7015">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7016">
+      <c r="A7016" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7016" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7016">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7017">
+      <c r="A7017" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7017" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7017">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7018">
+      <c r="A7018" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7018" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7018">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7019">
+      <c r="A7019" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7019" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7019">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7020">
+      <c r="A7020" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7020" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7020">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7021">
+      <c r="A7021" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7021" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7022">
+      <c r="A7022" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7022" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7022">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7023">
+      <c r="A7023" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B7023" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7023">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7023"/>
+  <dimension ref="A1:C7095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -91667,6 +91667,942 @@
         <v>141</v>
       </c>
     </row>
+    <row r="7024">
+      <c r="A7024" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7024" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7024">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7025">
+      <c r="A7025" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7025" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7025">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7026">
+      <c r="A7026" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7026" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7026">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7027">
+      <c r="A7027" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7027" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7027">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7028">
+      <c r="A7028" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7028" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7028">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7029">
+      <c r="A7029" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7029" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7029">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7030">
+      <c r="A7030" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7030" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7030">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7031">
+      <c r="A7031" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7031" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7031">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7032">
+      <c r="A7032" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7032" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7032">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7033">
+      <c r="A7033" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7033" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7033">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7034">
+      <c r="A7034" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7034" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7034">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7035">
+      <c r="A7035" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7035" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7035">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7036">
+      <c r="A7036" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7036" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7036">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7037">
+      <c r="A7037" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7037" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7037">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7038">
+      <c r="A7038" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7038" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7038">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7039">
+      <c r="A7039" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7039" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7039">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7040">
+      <c r="A7040" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7040" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7040">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7041">
+      <c r="A7041" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7041" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7041">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7042">
+      <c r="A7042" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7042" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7042">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7043">
+      <c r="A7043" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7043" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7043">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7044">
+      <c r="A7044" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7044" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7044">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7045">
+      <c r="A7045" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7045" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7045">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7046">
+      <c r="A7046" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7046" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7046">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7047">
+      <c r="A7047" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7047" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7047">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7048">
+      <c r="A7048" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7048" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7048">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7049">
+      <c r="A7049" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7049" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7049">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7050">
+      <c r="A7050" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7050" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7050">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7051">
+      <c r="A7051" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7051" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7051">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7052">
+      <c r="A7052" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7052" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7052">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7053">
+      <c r="A7053" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7053" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7053">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7054">
+      <c r="A7054" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7054" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7054">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7055">
+      <c r="A7055" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7055" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7055">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7056">
+      <c r="A7056" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7056" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7056">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7057">
+      <c r="A7057" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7057" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7057">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7058">
+      <c r="A7058" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7058" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7058">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7059">
+      <c r="A7059" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7059" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7059">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7060">
+      <c r="A7060" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7060" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7060">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7061">
+      <c r="A7061" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7061" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7061">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7062">
+      <c r="A7062" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7062" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7062">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7063">
+      <c r="A7063" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7063" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7063">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7064">
+      <c r="A7064" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7064" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7064">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7065">
+      <c r="A7065" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7065" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7065">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7066">
+      <c r="A7066" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7066" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7066">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7067">
+      <c r="A7067" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7067" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7067">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7068">
+      <c r="A7068" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7068" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7068">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7069">
+      <c r="A7069" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7069" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7069">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7070">
+      <c r="A7070" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7070" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7070">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7071">
+      <c r="A7071" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7071" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7071">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7072">
+      <c r="A7072" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7072" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7072">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7073">
+      <c r="A7073" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7073" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7073">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7074">
+      <c r="A7074" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7074" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7074">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7075">
+      <c r="A7075" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7075" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7075">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7076">
+      <c r="A7076" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7076" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7076">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7077">
+      <c r="A7077" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7077" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7077">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7078">
+      <c r="A7078" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7078" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7078">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7079">
+      <c r="A7079" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7079" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7079">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7080">
+      <c r="A7080" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7080" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7080">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7081">
+      <c r="A7081" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7081" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7081">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7082">
+      <c r="A7082" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7082" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7082">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7083">
+      <c r="A7083" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7083" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7083">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7084">
+      <c r="A7084" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7084" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7084">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7085">
+      <c r="A7085" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7085" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7085">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7086">
+      <c r="A7086" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7086" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7086">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7087">
+      <c r="A7087" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7087" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7087">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7088">
+      <c r="A7088" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7088" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7088">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7089">
+      <c r="A7089" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7089" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7089">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7090">
+      <c r="A7090" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7090" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7090">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7091">
+      <c r="A7091" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7091" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7091">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7092">
+      <c r="A7092" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7092" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7092">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7093">
+      <c r="A7093" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7093" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7093">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7094">
+      <c r="A7094" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7094" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7094">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7095">
+      <c r="A7095" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B7095" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7095">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7095"/>
+  <dimension ref="A1:C7349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -92603,6 +92603,3308 @@
         <v>377</v>
       </c>
     </row>
+    <row r="7096">
+      <c r="A7096" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7096" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7096">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7097">
+      <c r="A7097" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7097" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7097">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7098">
+      <c r="A7098" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7098" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7098">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7099">
+      <c r="A7099" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7099" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7099">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7100">
+      <c r="A7100" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7100" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7100">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7101">
+      <c r="A7101" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7101" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7101">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7102">
+      <c r="A7102" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7102" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7102">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7103">
+      <c r="A7103" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7103" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7103">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7104">
+      <c r="A7104" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7104" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7105">
+      <c r="A7105" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7105" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7105">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7106">
+      <c r="A7106" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7106" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7106">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7107">
+      <c r="A7107" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7107" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7107">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7108">
+      <c r="A7108" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7108" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7109">
+      <c r="A7109" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7109" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7109">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7110">
+      <c r="A7110" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7110" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7110">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7111">
+      <c r="A7111" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7111" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7111">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7112">
+      <c r="A7112" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7112" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7112">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7113">
+      <c r="A7113" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7113" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7113">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7114">
+      <c r="A7114" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7114" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7114">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7115">
+      <c r="A7115" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7115" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7116">
+      <c r="A7116" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7116" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7117">
+      <c r="A7117" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7117" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7118">
+      <c r="A7118" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7118" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7119">
+      <c r="A7119" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7119" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7120">
+      <c r="A7120" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7120" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7120">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7121">
+      <c r="A7121" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7121" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7121">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7122">
+      <c r="A7122" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7122" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7122">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7123">
+      <c r="A7123" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7123" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7124">
+      <c r="A7124" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7124" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7125">
+      <c r="A7125" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7125" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7125">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7126">
+      <c r="A7126" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7126" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7127">
+      <c r="A7127" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7127" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7128">
+      <c r="A7128" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7128" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7128">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7129">
+      <c r="A7129" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7129" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7129">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7130">
+      <c r="A7130" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7130" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7130">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7131">
+      <c r="A7131" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7131" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7132">
+      <c r="A7132" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7132" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7132">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7133">
+      <c r="A7133" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7133" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7133">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7134">
+      <c r="A7134" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7134" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7135">
+      <c r="A7135" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7135" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7135">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7136">
+      <c r="A7136" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7136" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7136">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7137">
+      <c r="A7137" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7137" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7137">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7138">
+      <c r="A7138" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7138" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7138">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7139">
+      <c r="A7139" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7139" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7140">
+      <c r="A7140" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7140" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7140">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7141">
+      <c r="A7141" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7141" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7141">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7142">
+      <c r="A7142" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7142" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7142">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7143">
+      <c r="A7143" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7143" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7143">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7144">
+      <c r="A7144" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7144" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7145">
+      <c r="A7145" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7145" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7145">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7146">
+      <c r="A7146" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7146" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7146">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7147">
+      <c r="A7147" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7147" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7147">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7148">
+      <c r="A7148" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7148" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7148">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7149">
+      <c r="A7149" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7149" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7150">
+      <c r="A7150" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7150" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7150">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7151">
+      <c r="A7151" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7151" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7151">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7152">
+      <c r="A7152" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7152" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7153">
+      <c r="A7153" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7153" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7154">
+      <c r="A7154" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7154" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7154">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7155">
+      <c r="A7155" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7155" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7156">
+      <c r="A7156" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7156" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7156">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7157">
+      <c r="A7157" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7157" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7157">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7158">
+      <c r="A7158" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7158" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7158">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7159">
+      <c r="A7159" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7159" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7160">
+      <c r="A7160" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7160" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7160">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7161">
+      <c r="A7161" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7161" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7162">
+      <c r="A7162" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7162" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7162">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7163">
+      <c r="A7163" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7163" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7163">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7164">
+      <c r="A7164" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7164" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7164">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7165">
+      <c r="A7165" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7165" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7165">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7166">
+      <c r="A7166" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7166" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7166">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7167">
+      <c r="A7167" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B7167" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7167">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7168">
+      <c r="A7168" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7168" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7169">
+      <c r="A7169" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7169" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7169">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7170">
+      <c r="A7170" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7170" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7170">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7171">
+      <c r="A7171" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7171" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7171">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7172">
+      <c r="A7172" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7172" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7173">
+      <c r="A7173" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7173" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7174">
+      <c r="A7174" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7174" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7174">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7175">
+      <c r="A7175" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7175" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7176">
+      <c r="A7176" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7176" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7177">
+      <c r="A7177" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7177" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7177">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7178">
+      <c r="A7178" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7178" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7178">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7179">
+      <c r="A7179" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7179" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7180">
+      <c r="A7180" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7180" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7181">
+      <c r="A7181" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7181" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7181">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7182">
+      <c r="A7182" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7182" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7182">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7183">
+      <c r="A7183" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7183" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7183">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7184">
+      <c r="A7184" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7184" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7184">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7185">
+      <c r="A7185" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7185" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7186">
+      <c r="A7186" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7186" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7187">
+      <c r="A7187" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7187" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7188">
+      <c r="A7188" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7188" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7189">
+      <c r="A7189" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7189" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7190">
+      <c r="A7190" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7190" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7191">
+      <c r="A7191" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7191" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7192">
+      <c r="A7192" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7192" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7193">
+      <c r="A7193" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7193" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7193">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7194">
+      <c r="A7194" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7194" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7195">
+      <c r="A7195" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7195" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7196">
+      <c r="A7196" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7196" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7196">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7197">
+      <c r="A7197" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7197" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7197">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7198">
+      <c r="A7198" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7198" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7199">
+      <c r="A7199" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7199" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7200">
+      <c r="A7200" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7200" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7200">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7201">
+      <c r="A7201" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7201" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7201">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7202">
+      <c r="A7202" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7202" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7203">
+      <c r="A7203" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7203" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7204">
+      <c r="A7204" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7204" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7204">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7205">
+      <c r="A7205" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7205" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7206">
+      <c r="A7206" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7206" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7207">
+      <c r="A7207" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7207" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7208">
+      <c r="A7208" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7208" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7209">
+      <c r="A7209" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7209" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7210">
+      <c r="A7210" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7210" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7210">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7211">
+      <c r="A7211" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7211" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7212">
+      <c r="A7212" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7212" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7213">
+      <c r="A7213" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7213" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7213">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7214">
+      <c r="A7214" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7214" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7215">
+      <c r="A7215" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7215" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7216">
+      <c r="A7216" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7216" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7217">
+      <c r="A7217" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7217" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7218">
+      <c r="A7218" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7218" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7219">
+      <c r="A7219" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7219" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7219">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7220">
+      <c r="A7220" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7220" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7220">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7221">
+      <c r="A7221" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7221" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7222">
+      <c r="A7222" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7222" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7222">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7223">
+      <c r="A7223" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7223" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7223">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7224">
+      <c r="A7224" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7224" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7224">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7225">
+      <c r="A7225" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7225" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7226">
+      <c r="A7226" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7226" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7227">
+      <c r="A7227" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7227" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7228">
+      <c r="A7228" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7228" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7228">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7229">
+      <c r="A7229" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7229" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7230">
+      <c r="A7230" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7230" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7230">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7231">
+      <c r="A7231" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7231" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7232">
+      <c r="A7232" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7232" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7232">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7233">
+      <c r="A7233" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B7233" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7234">
+      <c r="A7234" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7234" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7234">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7235">
+      <c r="A7235" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7235" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7235">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7236">
+      <c r="A7236" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7236" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7237">
+      <c r="A7237" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7237" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7238">
+      <c r="A7238" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7238" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7238">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7239">
+      <c r="A7239" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7239" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7240">
+      <c r="A7240" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7240" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7240">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7241">
+      <c r="A7241" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7241" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7242">
+      <c r="A7242" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7242" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7243">
+      <c r="A7243" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7243" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7244">
+      <c r="A7244" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7244" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7244">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7245">
+      <c r="A7245" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7245" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7245">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7246">
+      <c r="A7246" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7246" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7246">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7247">
+      <c r="A7247" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7247" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7248">
+      <c r="A7248" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7248" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7248">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7249">
+      <c r="A7249" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7249" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7250">
+      <c r="A7250" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7250" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7251">
+      <c r="A7251" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7251" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7251">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7252">
+      <c r="A7252" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7252" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7253">
+      <c r="A7253" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7253" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7254">
+      <c r="A7254" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7254" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7255">
+      <c r="A7255" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7255" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7255">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7256">
+      <c r="A7256" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7256" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7257">
+      <c r="A7257" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7257" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7258">
+      <c r="A7258" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7258" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7259">
+      <c r="A7259" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7259" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7259">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7260">
+      <c r="A7260" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7260" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7261">
+      <c r="A7261" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7261" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7262">
+      <c r="A7262" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7262" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7263">
+      <c r="A7263" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7263" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7264">
+      <c r="A7264" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7264" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7264">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7265">
+      <c r="A7265" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7265" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7266">
+      <c r="A7266" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7266" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7266">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7267">
+      <c r="A7267" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7267" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7268">
+      <c r="A7268" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7268" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7268">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7269">
+      <c r="A7269" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7269" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7269">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7270">
+      <c r="A7270" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7270" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7270">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7271">
+      <c r="A7271" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7271" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7271">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7272">
+      <c r="A7272" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7272" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7273">
+      <c r="A7273" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7273" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7273">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7274">
+      <c r="A7274" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7274" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7274">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7275">
+      <c r="A7275" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7275" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7276">
+      <c r="A7276" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7276" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7276">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7277">
+      <c r="A7277" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7277" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7278">
+      <c r="A7278" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7278" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7278">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7279">
+      <c r="A7279" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7279" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7279">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7280">
+      <c r="A7280" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7280" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7281">
+      <c r="A7281" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7281" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7282">
+      <c r="A7282" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7282" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7283">
+      <c r="A7283" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7283" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7283">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7284">
+      <c r="A7284" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7284" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7285">
+      <c r="A7285" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7285" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7286">
+      <c r="A7286" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7286" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7287">
+      <c r="A7287" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7287" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7287">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7288">
+      <c r="A7288" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7288" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7288">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7289">
+      <c r="A7289" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7289" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7290">
+      <c r="A7290" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7290" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7290">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7291">
+      <c r="A7291" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7291" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7291">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7292">
+      <c r="A7292" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7292" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7293">
+      <c r="A7293" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7293" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7293">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7294">
+      <c r="A7294" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7294" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7294">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7295">
+      <c r="A7295" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7295" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7296">
+      <c r="A7296" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7296" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7296">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7297">
+      <c r="A7297" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B7297" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7297">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7298">
+      <c r="A7298" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7298" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7299">
+      <c r="A7299" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7299" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7299">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7300">
+      <c r="A7300" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7300" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7301">
+      <c r="A7301" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7301" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7302">
+      <c r="A7302" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7302" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7302">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7303">
+      <c r="A7303" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7303" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7303">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7304">
+      <c r="A7304" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7304" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7304">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7305">
+      <c r="A7305" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7305" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7306">
+      <c r="A7306" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7306" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7306">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7307">
+      <c r="A7307" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7307" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7307">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7308">
+      <c r="A7308" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7308" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7309">
+      <c r="A7309" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7309" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7309">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7310">
+      <c r="A7310" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7310" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7310">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7311">
+      <c r="A7311" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7311" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7312">
+      <c r="A7312" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7312" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7313">
+      <c r="A7313" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7313" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7313">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7314">
+      <c r="A7314" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7314" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7314">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7315">
+      <c r="A7315" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7315" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7316">
+      <c r="A7316" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7316" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7316">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7317">
+      <c r="A7317" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7317" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7318">
+      <c r="A7318" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7318" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7319">
+      <c r="A7319" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7319" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7320">
+      <c r="A7320" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7320" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7321">
+      <c r="A7321" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7321" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7322">
+      <c r="A7322" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7322" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7322">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7323">
+      <c r="A7323" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7323" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7323">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7324">
+      <c r="A7324" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7324" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7325">
+      <c r="A7325" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7325" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7326">
+      <c r="A7326" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7326" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7327">
+      <c r="A7327" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7327" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7327">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7328">
+      <c r="A7328" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7328" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7329">
+      <c r="A7329" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7329" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7329">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7330">
+      <c r="A7330" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7330" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7331">
+      <c r="A7331" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7331" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7332">
+      <c r="A7332" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7332" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7332">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7333">
+      <c r="A7333" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7333" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7334">
+      <c r="A7334" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7334" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7335">
+      <c r="A7335" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7335" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7336">
+      <c r="A7336" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7336" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7337">
+      <c r="A7337" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7337" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7338">
+      <c r="A7338" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7338" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7339">
+      <c r="A7339" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7339" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7339">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7340">
+      <c r="A7340" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7340" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7341">
+      <c r="A7341" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7341" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7342">
+      <c r="A7342" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7342" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7342">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7343">
+      <c r="A7343" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7343" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7343">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7344">
+      <c r="A7344" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7344" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7345">
+      <c r="A7345" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7345" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7346">
+      <c r="A7346" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7346" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7346">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7347">
+      <c r="A7347" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7347" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7348">
+      <c r="A7348" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7348" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7349">
+      <c r="A7349" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B7349" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7349">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7491"/>
+  <dimension ref="A1:C7632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -92579,7 +92579,7 @@
     </row>
     <row r="7094">
       <c r="A7094" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7094" t="inlineStr">
         <is>
@@ -92587,12 +92587,12 @@
         </is>
       </c>
       <c r="C7094">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7095">
       <c r="A7095" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7095" t="inlineStr">
         <is>
@@ -92600,107 +92600,107 @@
         </is>
       </c>
       <c r="C7095">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7096">
       <c r="A7096" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7096" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7096">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7097">
       <c r="A7097" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7097" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7097">
-        <v>79</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7098">
       <c r="A7098" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7098" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7098">
-        <v>487</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7099">
       <c r="A7099" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7099" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7099">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7100">
       <c r="A7100" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7100" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7100">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7101">
       <c r="A7101" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7101" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7101">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7102">
       <c r="A7102" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7102" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7102">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7103">
       <c r="A7103" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7103" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7103">
@@ -92709,505 +92709,505 @@
     </row>
     <row r="7104">
       <c r="A7104" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7104" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7104">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7105">
       <c r="A7105" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7105" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7105">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7106">
       <c r="A7106" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7106" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7106">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7107">
       <c r="A7107" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7107" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7107">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7108">
       <c r="A7108" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7108" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7108">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7109">
       <c r="A7109" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7109" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7109">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7110">
       <c r="A7110" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7110" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7110">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7111">
       <c r="A7111" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7111" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7111">
-        <v>33</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7112">
       <c r="A7112" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7112" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7112">
-        <v>268</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7113">
       <c r="A7113" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7113" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7113">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7114">
       <c r="A7114" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7114" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7114">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7115">
       <c r="A7115" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7115" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7115">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7116">
       <c r="A7116" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7116" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7116">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7117">
       <c r="A7117" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7117" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7117">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7118">
       <c r="A7118" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7118" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7118">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7119">
       <c r="A7119" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7119" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7119">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7120">
       <c r="A7120" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7120" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7120">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7121">
       <c r="A7121" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7121" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7121">
-        <v>260</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7122">
       <c r="A7122" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7122" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7122">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7123">
       <c r="A7123" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7123" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C7123">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7124">
       <c r="A7124" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7124" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7124">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7125">
       <c r="A7125" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7125" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7125">
-        <v>13</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7126">
       <c r="A7126" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7126" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7126">
-        <v>584</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7127">
       <c r="A7127" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7127" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7127">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7128">
       <c r="A7128" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7128" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7128">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7129">
       <c r="A7129" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7129" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7129">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7130">
       <c r="A7130" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7130" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7130">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7131">
       <c r="A7131" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7131" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7131">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7132">
       <c r="A7132" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7132" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7132">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7133">
       <c r="A7133" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7133" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7133">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7134">
       <c r="A7134" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7134" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7134">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7135">
       <c r="A7135" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7135" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7135">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7136">
       <c r="A7136" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7136" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7136">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7137">
       <c r="A7137" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7137" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7137">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7138">
       <c r="A7138" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7138" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7138">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7139">
       <c r="A7139" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7139" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7139">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7140">
       <c r="A7140" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7140" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7140">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7141">
       <c r="A7141" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7141" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7141">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7142">
       <c r="A7142" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7142" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7142">
@@ -93216,102 +93216,102 @@
     </row>
     <row r="7143">
       <c r="A7143" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7143" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7143">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7144">
       <c r="A7144" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7144" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7144">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7145">
       <c r="A7145" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7145" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7145">
-        <v>165</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7146">
       <c r="A7146" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7146" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7146">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7147">
       <c r="A7147" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7147" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7147">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7148">
       <c r="A7148" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7148" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7148">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7149">
       <c r="A7149" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7149" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7149">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7150">
       <c r="A7150" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7150" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7150">
@@ -93320,158 +93320,158 @@
     </row>
     <row r="7151">
       <c r="A7151" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7151" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7151">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7152">
       <c r="A7152" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7152" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7152">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7153">
       <c r="A7153" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7153" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7153">
-        <v>180</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7154">
       <c r="A7154" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7154" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7154">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7155">
       <c r="A7155" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7155" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7155">
-        <v>183</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7156">
       <c r="A7156" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7156" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7156">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7157">
       <c r="A7157" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7157" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7157">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7158">
       <c r="A7158" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7158" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7158">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7159">
       <c r="A7159" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7159" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7159">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7160">
       <c r="A7160" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7160" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7160">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7161">
       <c r="A7161" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7161" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7161">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7162">
       <c r="A7162" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B7162" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7162">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7163">
@@ -93480,11 +93480,11 @@
       </c>
       <c r="B7163" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7163">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7164">
@@ -93493,11 +93493,11 @@
       </c>
       <c r="B7164" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7164">
-        <v>14</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7165">
@@ -93506,908 +93506,908 @@
       </c>
       <c r="B7165" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Banská Štiavnica</t>
         </is>
       </c>
       <c r="C7165">
-        <v>377</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7166">
       <c r="A7166" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7166" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7166">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7167">
       <c r="A7167" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7167" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7167">
-        <v>160</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7168">
       <c r="A7168" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7168" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7168">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7169">
       <c r="A7169" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7169" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7169">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7170">
       <c r="A7170" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7170" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7170">
-        <v>634</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7171">
       <c r="A7171" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7171" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7171">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7172">
       <c r="A7172" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7172" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7172">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7173">
       <c r="A7173" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7173" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7173">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7174">
       <c r="A7174" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7174" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7174">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7175">
       <c r="A7175" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7175" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7175">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7176">
       <c r="A7176" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7176" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7176">
-        <v>101</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7177">
       <c r="A7177" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7177" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7177">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7178">
       <c r="A7178" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7178" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7178">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7179">
       <c r="A7179" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7179" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7179">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7180">
       <c r="A7180" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7180" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7180">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7181">
       <c r="A7181" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7181" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7181">
-        <v>89</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7182">
       <c r="A7182" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7182" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7182">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7183">
       <c r="A7183" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7183" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7183">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7184">
       <c r="A7184" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7184" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7184">
-        <v>250</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7185">
       <c r="A7185" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7185" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7185">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7186">
       <c r="A7186" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7186" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7186">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7187">
       <c r="A7187" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7187" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7187">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7188">
       <c r="A7188" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7188" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7188">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7189">
       <c r="A7189" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7189" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7189">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7190">
       <c r="A7190" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7190" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7190">
-        <v>101</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7191">
       <c r="A7191" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7191" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7191">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7192">
       <c r="A7192" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7192" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7192">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7193">
       <c r="A7193" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7193" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C7193">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7194">
       <c r="A7194" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7194" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7194">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7195">
       <c r="A7195" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7195" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7195">
-        <v>70</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7196">
       <c r="A7196" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7196" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7196">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7197">
       <c r="A7197" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7197" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7197">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7198">
       <c r="A7198" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7198" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7198">
-        <v>304</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7199">
       <c r="A7199" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7199" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7199">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7200">
       <c r="A7200" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7200" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7200">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7201">
       <c r="A7201" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7201" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7201">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7202">
       <c r="A7202" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7202" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7202">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7203">
       <c r="A7203" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7203" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7203">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7204">
       <c r="A7204" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7204" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7204">
-        <v>10</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7205">
       <c r="A7205" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7205" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7205">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7206">
       <c r="A7206" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7206" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7206">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7207">
       <c r="A7207" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7207" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7207">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7208">
       <c r="A7208" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7208" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7208">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7209">
       <c r="A7209" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7209" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7209">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7210">
       <c r="A7210" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7210" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7210">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7211">
       <c r="A7211" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7211" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7211">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7212">
       <c r="A7212" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7212" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7212">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7213">
       <c r="A7213" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7213" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7213">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7214">
       <c r="A7214" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7214" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7214">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7215">
       <c r="A7215" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7215" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7215">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7216">
       <c r="A7216" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7216" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7216">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7217">
       <c r="A7217" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7217" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7217">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7218">
       <c r="A7218" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7218" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7218">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7219">
       <c r="A7219" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7219" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7219">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7220">
       <c r="A7220" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7220" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7220">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7221">
       <c r="A7221" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7221" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7221">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7222">
       <c r="A7222" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7222" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7222">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7223">
       <c r="A7223" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7223" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7223">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7224">
       <c r="A7224" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7224" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7224">
-        <v>36</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7225">
       <c r="A7225" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7225" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7225">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7226">
       <c r="A7226" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7226" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7226">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7227">
       <c r="A7227" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7227" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7227">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7228">
       <c r="A7228" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7228" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7228">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7229">
       <c r="A7229" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7229" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7229">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7230">
       <c r="A7230" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7230" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7230">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7231">
       <c r="A7231" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7231" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7231">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7232">
       <c r="A7232" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7232" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7232">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7233">
       <c r="A7233" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7233" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7233">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7234">
       <c r="A7234" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B7234" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7234">
-        <v>54</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7235">
@@ -94416,11 +94416,11 @@
       </c>
       <c r="B7235" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7235">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7236">
@@ -94429,11 +94429,11 @@
       </c>
       <c r="B7236" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7236">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7237">
@@ -94442,211 +94442,211 @@
       </c>
       <c r="B7237" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Banská Štiavnica</t>
         </is>
       </c>
       <c r="C7237">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7238">
       <c r="A7238" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7238" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7238">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7239">
       <c r="A7239" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7239" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7239">
-        <v>126</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7240">
       <c r="A7240" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7240" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7240">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7241">
       <c r="A7241" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7241" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7241">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7242">
       <c r="A7242" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7242" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7242">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7243">
       <c r="A7243" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7243" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7243">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7244">
       <c r="A7244" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7244" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7244">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7245">
       <c r="A7245" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7245" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7245">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7246">
       <c r="A7246" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7246" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7246">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7247">
       <c r="A7247" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7247" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7247">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7248">
       <c r="A7248" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7248" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7248">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7249">
       <c r="A7249" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7249" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7249">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7250">
       <c r="A7250" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7250" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7250">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7251">
       <c r="A7251" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7251" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7251">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7252">
       <c r="A7252" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7252" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7252">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7253">
       <c r="A7253" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7253" t="inlineStr">
         <is>
@@ -94654,12 +94654,12 @@
         </is>
       </c>
       <c r="C7253">
-        <v>209</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7254">
       <c r="A7254" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7254" t="inlineStr">
         <is>
@@ -94667,12 +94667,12 @@
         </is>
       </c>
       <c r="C7254">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7255">
       <c r="A7255" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7255" t="inlineStr">
         <is>
@@ -94680,12 +94680,12 @@
         </is>
       </c>
       <c r="C7255">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7256">
       <c r="A7256" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7256" t="inlineStr">
         <is>
@@ -94693,12 +94693,12 @@
         </is>
       </c>
       <c r="C7256">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7257">
       <c r="A7257" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7257" t="inlineStr">
         <is>
@@ -94706,12 +94706,12 @@
         </is>
       </c>
       <c r="C7257">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7258">
       <c r="A7258" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7258" t="inlineStr">
         <is>
@@ -94719,12 +94719,12 @@
         </is>
       </c>
       <c r="C7258">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7259">
       <c r="A7259" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7259" t="inlineStr">
         <is>
@@ -94732,909 +94732,909 @@
         </is>
       </c>
       <c r="C7259">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7260">
       <c r="A7260" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7260" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7260">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7261">
       <c r="A7261" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7261" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7261">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7262">
       <c r="A7262" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7262" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7262">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7263">
       <c r="A7263" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7263" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7263">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7264">
       <c r="A7264" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7264" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7264">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7265">
       <c r="A7265" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7265" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C7265">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7266">
       <c r="A7266" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7266" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7266">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7267">
       <c r="A7267" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7267" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7267">
-        <v>34</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7268">
       <c r="A7268" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7268" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7268">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7269">
       <c r="A7269" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7269" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7269">
-        <v>4</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7270">
       <c r="A7270" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7270" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7270">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7271">
       <c r="A7271" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7271" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7271">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7272">
       <c r="A7272" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7272" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7272">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7273">
       <c r="A7273" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7273" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7273">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7274">
       <c r="A7274" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7274" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7274">
-        <v>30</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7275">
       <c r="A7275" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7275" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7275">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7276">
       <c r="A7276" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7276" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7276">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7277">
       <c r="A7277" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7277" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7277">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7278">
       <c r="A7278" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7278" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7278">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7279">
       <c r="A7279" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7279" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7279">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7280">
       <c r="A7280" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7280" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7280">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7281">
       <c r="A7281" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7281" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7281">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7282">
       <c r="A7282" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7282" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7282">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7283">
       <c r="A7283" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7283" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7283">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7284">
       <c r="A7284" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7284" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7284">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7285">
       <c r="A7285" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7285" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7285">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7286">
       <c r="A7286" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7286" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7286">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7287">
       <c r="A7287" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7287" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7287">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7288">
       <c r="A7288" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7288" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7288">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7289">
       <c r="A7289" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7289" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7289">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7290">
       <c r="A7290" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7290" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7290">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7291">
       <c r="A7291" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7291" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7291">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7292">
       <c r="A7292" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7292" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7292">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7293">
       <c r="A7293" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7293" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7293">
-        <v>161</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7294">
       <c r="A7294" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7294" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7294">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7295">
       <c r="A7295" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7295" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7295">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7296">
       <c r="A7296" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7296" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7296">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7297">
       <c r="A7297" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7297" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7297">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7298">
       <c r="A7298" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7298" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7298">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7299">
       <c r="A7299" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7299" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7299">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7300">
       <c r="A7300" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7300" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7300">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7301">
       <c r="A7301" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7301" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7301">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7302">
       <c r="A7302" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7302" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7302">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7303">
       <c r="A7303" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B7303" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7303">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7304">
       <c r="A7304" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B7304" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7304">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7305">
       <c r="A7305" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B7305" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7305">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7306">
       <c r="A7306" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B7306" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7306">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7307">
       <c r="A7307" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7307" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7307">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7308">
       <c r="A7308" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7308" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7308">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7309">
       <c r="A7309" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7309" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7309">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7310">
       <c r="A7310" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7310" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7310">
-        <v>15</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7311">
       <c r="A7311" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7311" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7311">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7312">
       <c r="A7312" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7312" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7312">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7313">
       <c r="A7313" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7313" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7313">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7314">
       <c r="A7314" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7314" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7314">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7315">
       <c r="A7315" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7315" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7315">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7316">
       <c r="A7316" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7316" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7316">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7317">
       <c r="A7317" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7317" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7317">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7318">
       <c r="A7318" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7318" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7318">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7319">
       <c r="A7319" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7319" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7319">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7320">
       <c r="A7320" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7320" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7320">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7321">
       <c r="A7321" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7321" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7321">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7322">
       <c r="A7322" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7322" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7322">
-        <v>13</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7323">
       <c r="A7323" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7323" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7323">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7324">
       <c r="A7324" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7324" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7324">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7325">
       <c r="A7325" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7325" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7325">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7326">
       <c r="A7326" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7326" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7326">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7327">
       <c r="A7327" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7327" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7328">
       <c r="A7328" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7328" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7328">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7329">
       <c r="A7329" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7329" t="inlineStr">
         <is>
@@ -95642,12 +95642,12 @@
         </is>
       </c>
       <c r="C7329">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7330">
       <c r="A7330" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7330" t="inlineStr">
         <is>
@@ -95655,12 +95655,12 @@
         </is>
       </c>
       <c r="C7330">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7331">
       <c r="A7331" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7331" t="inlineStr">
         <is>
@@ -95668,12 +95668,12 @@
         </is>
       </c>
       <c r="C7331">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7332">
       <c r="A7332" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7332" t="inlineStr">
         <is>
@@ -95681,237 +95681,237 @@
         </is>
       </c>
       <c r="C7332">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7333">
       <c r="A7333" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7333" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C7333">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7334">
       <c r="A7334" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7334" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7334">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7335">
       <c r="A7335" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7335" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7335">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7336">
       <c r="A7336" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7336" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7336">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7337">
       <c r="A7337" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7337" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7337">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7338">
       <c r="A7338" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7338" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7338">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7339">
       <c r="A7339" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7339" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7339">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7340">
       <c r="A7340" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7340" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7340">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7341">
       <c r="A7341" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7341" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7341">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7342">
       <c r="A7342" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7342" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7342">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7343">
       <c r="A7343" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7343" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7343">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7344">
       <c r="A7344" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7344" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7344">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7345">
       <c r="A7345" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7345" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7346">
       <c r="A7346" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7346" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7346">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7347">
       <c r="A7347" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7347" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7347">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7348">
       <c r="A7348" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7348" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7348">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7349">
       <c r="A7349" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7349" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7349">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7350">
       <c r="A7350" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7350" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7350">
@@ -95920,102 +95920,102 @@
     </row>
     <row r="7351">
       <c r="A7351" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7351" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7351">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7352">
       <c r="A7352" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7352" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7352">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7353">
       <c r="A7353" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7353" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7353">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7354">
       <c r="A7354" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7354" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7355">
       <c r="A7355" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7355" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7355">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7356">
       <c r="A7356" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7356" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7356">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7357">
       <c r="A7357" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7357" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7357">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7358">
       <c r="A7358" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7358" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7358">
@@ -96024,24 +96024,24 @@
     </row>
     <row r="7359">
       <c r="A7359" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7359" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7359">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7360">
       <c r="A7360" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7360" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7360">
@@ -96050,518 +96050,518 @@
     </row>
     <row r="7361">
       <c r="A7361" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7361" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7361">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7362">
       <c r="A7362" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7362" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7362">
-        <v>6</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7363">
       <c r="A7363" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7363" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7363">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7364">
       <c r="A7364" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7364" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7364">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7365">
       <c r="A7365" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7365" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7365">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7366">
       <c r="A7366" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7366" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7366">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7367">
       <c r="A7367" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B7367" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7367">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7368">
       <c r="A7368" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B7368" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7368">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7369">
       <c r="A7369" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B7369" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7369">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7370">
       <c r="A7370" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B7370" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7370">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7371">
       <c r="A7371" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B7371" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7371">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7372">
       <c r="A7372" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B7372" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7372">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7373">
       <c r="A7373" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7373" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7373">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7374">
       <c r="A7374" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7374" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7374">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7375">
       <c r="A7375" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7375" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Banská Štiavnica</t>
         </is>
       </c>
       <c r="C7375">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7376">
       <c r="A7376" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7376" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7376">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7377">
       <c r="A7377" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7377" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7377">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7378">
       <c r="A7378" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7378" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7378">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7379">
       <c r="A7379" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7379" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7379">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7380">
       <c r="A7380" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7380" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7380">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7381">
       <c r="A7381" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7381" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7381">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7382">
       <c r="A7382" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7382" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7382">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7383">
       <c r="A7383" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7383" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7383">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7384">
       <c r="A7384" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7384" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7384">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7385">
       <c r="A7385" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7385" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7385">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7386">
       <c r="A7386" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7386" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7386">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7387">
       <c r="A7387" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7387" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7387">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7388">
       <c r="A7388" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7388" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7388">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7389">
       <c r="A7389" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7389" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7389">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7390">
       <c r="A7390" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7390" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7390">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7391">
       <c r="A7391" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7391" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7391">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7392">
       <c r="A7392" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7392" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7392">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7393">
       <c r="A7393" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7393" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7393">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7394">
       <c r="A7394" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7394" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7394">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7395">
       <c r="A7395" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7395" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7395">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7396">
       <c r="A7396" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7396" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7396">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7397">
       <c r="A7397" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7397" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7397">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7398">
       <c r="A7398" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7398" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7398">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7399">
       <c r="A7399" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7399" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7399">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7400">
       <c r="A7400" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7400" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7400">
@@ -96570,180 +96570,180 @@
     </row>
     <row r="7401">
       <c r="A7401" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7401" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7401">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7402">
       <c r="A7402" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7402" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7402">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7403">
       <c r="A7403" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7403" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7403">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7404">
       <c r="A7404" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7404" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7404">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7405">
       <c r="A7405" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7405" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7405">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7406">
       <c r="A7406" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7406" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7406">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7407">
       <c r="A7407" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7407" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7407">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7408">
       <c r="A7408" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7408" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7408">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7409">
       <c r="A7409" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7409" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7409">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7410">
       <c r="A7410" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7410" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7410">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7411">
       <c r="A7411" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7411" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7411">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7412">
       <c r="A7412" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7412" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7412">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7413">
       <c r="A7413" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7413" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7413">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7414">
       <c r="A7414" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7414" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7414">
@@ -96752,141 +96752,141 @@
     </row>
     <row r="7415">
       <c r="A7415" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7415" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7415">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7416">
       <c r="A7416" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7416" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7416">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7417">
       <c r="A7417" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7417" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7417">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7418">
       <c r="A7418" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7418" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7418">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7419">
       <c r="A7419" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B7419" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7419">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7420">
       <c r="A7420" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7420" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7420">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7421">
       <c r="A7421" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7421" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7421">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7422">
       <c r="A7422" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7422" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7422">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7423">
       <c r="A7423" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7423" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7423">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7424">
       <c r="A7424" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7424" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7424">
-        <v>441</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7425">
       <c r="A7425" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7425" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7425">
@@ -96895,657 +96895,657 @@
     </row>
     <row r="7426">
       <c r="A7426" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7426" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7426">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7427">
       <c r="A7427" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7427" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7427">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7428">
       <c r="A7428" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7428" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7428">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7429">
       <c r="A7429" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7429" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7429">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7430">
       <c r="A7430" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7430" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7430">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7431">
       <c r="A7431" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7431" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7431">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7432">
       <c r="A7432" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7432" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7432">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7433">
       <c r="A7433" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7433" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7433">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7434">
       <c r="A7434" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7434" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7434">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7435">
       <c r="A7435" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7435" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7435">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7436">
       <c r="A7436" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B7436" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7436">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7437">
       <c r="A7437" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7437" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7437">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7438">
       <c r="A7438" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7438" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7438">
-        <v>234</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7439">
       <c r="A7439" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7439" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Banská Štiavnica</t>
         </is>
       </c>
       <c r="C7439">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7440">
       <c r="A7440" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7440" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7440">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7441">
       <c r="A7441" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7441" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7441">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7442">
       <c r="A7442" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7442" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7442">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7443">
       <c r="A7443" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7443" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7443">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7444">
       <c r="A7444" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7444" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7444">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7445">
       <c r="A7445" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7445" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7445">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7446">
       <c r="A7446" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7446" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7446">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7447">
       <c r="A7447" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7447" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7447">
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7448">
       <c r="A7448" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7448" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7448">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7449">
       <c r="A7449" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7449" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7449">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7450">
       <c r="A7450" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7450" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7450">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7451">
       <c r="A7451" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7451" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7451">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7452">
       <c r="A7452" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7452" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7452">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7453">
       <c r="A7453" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7453" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7453">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7454">
       <c r="A7454" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7454" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7454">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7455">
       <c r="A7455" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7455" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7455">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7456">
       <c r="A7456" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7456" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7456">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7457">
       <c r="A7457" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7457" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7457">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7458">
       <c r="A7458" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7458" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7458">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7459">
       <c r="A7459" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7459" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7459">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7460">
       <c r="A7460" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7460" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7460">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7461">
       <c r="A7461" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7461" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7461">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7462">
       <c r="A7462" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7462" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7462">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7463">
       <c r="A7463" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7463" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7463">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7464">
       <c r="A7464" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7464" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7465">
       <c r="A7465" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7465" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7465">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7466">
       <c r="A7466" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7466" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7466">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7467">
       <c r="A7467" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7467" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7467">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7468">
       <c r="A7468" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7468" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7468">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7469">
       <c r="A7469" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7469" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7469">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7470">
       <c r="A7470" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7470" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7470">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7471">
       <c r="A7471" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7471" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7471">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7472">
       <c r="A7472" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7472" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7472">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7473">
       <c r="A7473" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7473" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7473">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7474">
       <c r="A7474" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7474" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7474">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7475">
       <c r="A7475" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7475" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7475">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7476">
       <c r="A7476" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7476" t="inlineStr">
         <is>
@@ -97553,12 +97553,12 @@
         </is>
       </c>
       <c r="C7476">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7477">
       <c r="A7477" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7477" t="inlineStr">
         <is>
@@ -97566,12 +97566,12 @@
         </is>
       </c>
       <c r="C7477">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7478">
       <c r="A7478" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7478" t="inlineStr">
         <is>
@@ -97579,12 +97579,12 @@
         </is>
       </c>
       <c r="C7478">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7479">
       <c r="A7479" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7479" t="inlineStr">
         <is>
@@ -97592,12 +97592,12 @@
         </is>
       </c>
       <c r="C7479">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7480">
       <c r="A7480" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7480" t="inlineStr">
         <is>
@@ -97605,12 +97605,12 @@
         </is>
       </c>
       <c r="C7480">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7481">
       <c r="A7481" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7481" t="inlineStr">
         <is>
@@ -97618,12 +97618,12 @@
         </is>
       </c>
       <c r="C7481">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7482">
       <c r="A7482" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7482" t="inlineStr">
         <is>
@@ -97631,12 +97631,12 @@
         </is>
       </c>
       <c r="C7482">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7483">
       <c r="A7483" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7483" t="inlineStr">
         <is>
@@ -97644,72 +97644,72 @@
         </is>
       </c>
       <c r="C7483">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7484">
       <c r="A7484" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7484" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7484">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7485">
       <c r="A7485" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7485" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7485">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7486">
       <c r="A7486" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7486" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7486">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7487">
       <c r="A7487" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7487" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7487">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7488">
       <c r="A7488" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B7488" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7488">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7489">
@@ -97718,11 +97718,11 @@
       </c>
       <c r="B7489" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7489">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7490">
@@ -97731,11 +97731,11 @@
       </c>
       <c r="B7490" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7490">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7491">
@@ -97744,11 +97744,1844 @@
       </c>
       <c r="B7491" t="inlineStr">
         <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7492">
+      <c r="A7492" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7492" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7492">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7493">
+      <c r="A7493" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7493" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7493">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7494">
+      <c r="A7494" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7494" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7495">
+      <c r="A7495" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7495" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7495">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7496">
+      <c r="A7496" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7496" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7497">
+      <c r="A7497" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7497" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7497">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7498">
+      <c r="A7498" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7498" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7498">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7499">
+      <c r="A7499" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7499" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7499">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7500">
+      <c r="A7500" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7500" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7500">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7501">
+      <c r="A7501" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7501" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7501">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7502">
+      <c r="A7502" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7502" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7502">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7503">
+      <c r="A7503" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7503" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7504">
+      <c r="A7504" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7504" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7504">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7505">
+      <c r="A7505" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7505" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7505">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7506">
+      <c r="A7506" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7506" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7506">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7507">
+      <c r="A7507" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7507" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7507">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7508">
+      <c r="A7508" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7508" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7508">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7509">
+      <c r="A7509" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7509" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7510">
+      <c r="A7510" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7510" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7510">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7511">
+      <c r="A7511" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7511" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7511">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7512">
+      <c r="A7512" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7512" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7513">
+      <c r="A7513" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7513" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7513">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7514">
+      <c r="A7514" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7514" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7514">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7515">
+      <c r="A7515" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7515" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7515">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7516">
+      <c r="A7516" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7516" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7516">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7517">
+      <c r="A7517" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7517" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7518">
+      <c r="A7518" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7518" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7518">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7519">
+      <c r="A7519" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7519" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7519">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7520">
+      <c r="A7520" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7520" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7521">
+      <c r="A7521" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7521" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7521">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7522">
+      <c r="A7522" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7522" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7522">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7523">
+      <c r="A7523" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7523" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7523">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7524">
+      <c r="A7524" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7524" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7525">
+      <c r="A7525" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7525" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7525">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7526">
+      <c r="A7526" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7526" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7526">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7527">
+      <c r="A7527" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7527" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7528">
+      <c r="A7528" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7528" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7528">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7529">
+      <c r="A7529" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7529" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7529">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7530">
+      <c r="A7530" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7530" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7530">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7531">
+      <c r="A7531" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7531" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7531">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7532">
+      <c r="A7532" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7532" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7532">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7533">
+      <c r="A7533" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7533" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7534">
+      <c r="A7534" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7534" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7535">
+      <c r="A7535" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7535" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7536">
+      <c r="A7536" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7536" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7536">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7537">
+      <c r="A7537" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7537" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7537">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7538">
+      <c r="A7538" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7538" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7538">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7539">
+      <c r="A7539" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7539" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7539">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7540">
+      <c r="A7540" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7540" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7540">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7541">
+      <c r="A7541" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7541" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7541">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7542">
+      <c r="A7542" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7542" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7543">
+      <c r="A7543" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7543" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7543">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7544">
+      <c r="A7544" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7544" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7545">
+      <c r="A7545" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7545" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7545">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7546">
+      <c r="A7546" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7546" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7546">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7547">
+      <c r="A7547" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7547" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7547">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7548">
+      <c r="A7548" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7548" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7548">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7549">
+      <c r="A7549" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7549" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7549">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7550">
+      <c r="A7550" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7550" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7550">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7551">
+      <c r="A7551" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7551" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7551">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7552">
+      <c r="A7552" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7552" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7552">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7553">
+      <c r="A7553" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7553" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7554">
+      <c r="A7554" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7554" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7555">
+      <c r="A7555" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7555" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7555">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7556">
+      <c r="A7556" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7556" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7556">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7557">
+      <c r="A7557" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7557" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7557">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7558">
+      <c r="A7558" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7558" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7559">
+      <c r="A7559" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7559" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7560">
+      <c r="A7560" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B7560" t="inlineStr">
+        <is>
           <t>Žilina</t>
         </is>
       </c>
-      <c r="C7491">
+      <c r="C7560">
         <v>172</v>
+      </c>
+    </row>
+    <row r="7561">
+      <c r="A7561" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7561" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7561">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7562">
+      <c r="A7562" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7562" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7562">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7563">
+      <c r="A7563" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7563" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7563">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7564">
+      <c r="A7564" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7564" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7564">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7565">
+      <c r="A7565" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7565" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7565">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7566">
+      <c r="A7566" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7566" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7566">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7567">
+      <c r="A7567" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7567" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7567">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7568">
+      <c r="A7568" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7568" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7568">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7569">
+      <c r="A7569" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7569" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7569">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7570">
+      <c r="A7570" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7570" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7570">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7571">
+      <c r="A7571" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7571" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7571">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7572">
+      <c r="A7572" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7572" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7572">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7573">
+      <c r="A7573" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7573" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7574">
+      <c r="A7574" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7574" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7574">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7575">
+      <c r="A7575" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7575" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7575">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7576">
+      <c r="A7576" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7576" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7576">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7577">
+      <c r="A7577" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7577" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7577">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7578">
+      <c r="A7578" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7578" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7578">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7579">
+      <c r="A7579" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7579" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7579">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7580">
+      <c r="A7580" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7580" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7580">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7581">
+      <c r="A7581" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7581" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7582">
+      <c r="A7582" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7582" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7582">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7583">
+      <c r="A7583" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7583" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7583">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7584">
+      <c r="A7584" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7584" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7584">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7585">
+      <c r="A7585" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7585" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7585">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7586">
+      <c r="A7586" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7586" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7586">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7587">
+      <c r="A7587" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7587" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7587">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7588">
+      <c r="A7588" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7588" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7588">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7589">
+      <c r="A7589" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7589" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7589">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7590">
+      <c r="A7590" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7590" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7590">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7591">
+      <c r="A7591" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7591" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7591">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7592">
+      <c r="A7592" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7592" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7592">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7593">
+      <c r="A7593" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7593" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7593">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7594">
+      <c r="A7594" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7594" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7594">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7595">
+      <c r="A7595" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7595" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7595">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7596">
+      <c r="A7596" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7596" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7596">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7597">
+      <c r="A7597" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7597" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7597">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7598">
+      <c r="A7598" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7598" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7598">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7599">
+      <c r="A7599" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7599" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7599">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7600">
+      <c r="A7600" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7600" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7600">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7601">
+      <c r="A7601" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7601" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7601">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7602">
+      <c r="A7602" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7602" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7602">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7603">
+      <c r="A7603" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7603" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7603">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7604">
+      <c r="A7604" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7604" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7604">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7605">
+      <c r="A7605" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7605" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7605">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7606">
+      <c r="A7606" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7606" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7606">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7607">
+      <c r="A7607" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7607" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7607">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7608">
+      <c r="A7608" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7608" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7608">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7609">
+      <c r="A7609" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7609" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7609">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7610">
+      <c r="A7610" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7610" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7610">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7611">
+      <c r="A7611" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7611" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7611">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7612">
+      <c r="A7612" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7612" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7612">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7613">
+      <c r="A7613" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7613" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7613">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7614">
+      <c r="A7614" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7614" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7615">
+      <c r="A7615" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7615" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7615">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7616">
+      <c r="A7616" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7616" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7616">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7617">
+      <c r="A7617" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7617" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7618">
+      <c r="A7618" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7618" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7618">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7619">
+      <c r="A7619" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7619" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7619">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7620">
+      <c r="A7620" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7620" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7620">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7621">
+      <c r="A7621" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7621" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7621">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7622">
+      <c r="A7622" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7622" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7622">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7623">
+      <c r="A7623" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7623" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7623">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7624">
+      <c r="A7624" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7624" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7624">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7625">
+      <c r="A7625" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7625" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7625">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7626">
+      <c r="A7626" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7626" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7627">
+      <c r="A7627" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7627" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7627">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7628">
+      <c r="A7628" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7628" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7628">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7629">
+      <c r="A7629" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7629" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7629">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7630">
+      <c r="A7630" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7630" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7630">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7631">
+      <c r="A7631" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7631" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7631">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7632">
+      <c r="A7632" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B7632" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7632">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7632"/>
+  <dimension ref="A1:C7700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99584,6 +99584,890 @@
         <v>216</v>
       </c>
     </row>
+    <row r="7633">
+      <c r="A7633" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7633" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7633">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7634">
+      <c r="A7634" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7634" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7634">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7635">
+      <c r="A7635" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7635" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7636">
+      <c r="A7636" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7636" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7636">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7637">
+      <c r="A7637" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7637" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7637">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7638">
+      <c r="A7638" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7638" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7638">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7639">
+      <c r="A7639" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7639" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7639">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7640">
+      <c r="A7640" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7640" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7640">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7641">
+      <c r="A7641" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7641" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7641">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7642">
+      <c r="A7642" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7642" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7643">
+      <c r="A7643" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7643" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7643">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7644">
+      <c r="A7644" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7644" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7644">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7645">
+      <c r="A7645" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7645" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7645">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7646">
+      <c r="A7646" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7646" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7646">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7647">
+      <c r="A7647" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7647" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7647">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7648">
+      <c r="A7648" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7648" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7648">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7649">
+      <c r="A7649" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7649" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7649">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7650">
+      <c r="A7650" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7650" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7650">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7651">
+      <c r="A7651" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7651" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7651">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7652">
+      <c r="A7652" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7652" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7652">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7653">
+      <c r="A7653" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7653" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7653">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7654">
+      <c r="A7654" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7654" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7654">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7655">
+      <c r="A7655" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7655" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7655">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7656">
+      <c r="A7656" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7656" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7656">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7657">
+      <c r="A7657" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7657" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7657">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7658">
+      <c r="A7658" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7658" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7658">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7659">
+      <c r="A7659" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7659" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7659">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7660">
+      <c r="A7660" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7660" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7661">
+      <c r="A7661" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7661" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7661">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7662">
+      <c r="A7662" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7662" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7662">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7663">
+      <c r="A7663" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7663" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7664">
+      <c r="A7664" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7664" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7664">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7665">
+      <c r="A7665" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7665" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7665">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7666">
+      <c r="A7666" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7666" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7666">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7667">
+      <c r="A7667" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7667" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7667">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7668">
+      <c r="A7668" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7668" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7668">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7669">
+      <c r="A7669" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7669" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7669">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7670">
+      <c r="A7670" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7670" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7670">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7671">
+      <c r="A7671" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7671" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7671">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7672">
+      <c r="A7672" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7672" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7672">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7673">
+      <c r="A7673" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7673" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7673">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7674">
+      <c r="A7674" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7674" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7674">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7675">
+      <c r="A7675" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7675" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7675">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7676">
+      <c r="A7676" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7676" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7676">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7677">
+      <c r="A7677" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7677" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7677">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7678">
+      <c r="A7678" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7678" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7678">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7679">
+      <c r="A7679" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7679" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7679">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7680">
+      <c r="A7680" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7680" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7680">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7681">
+      <c r="A7681" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7681" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7681">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7682">
+      <c r="A7682" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7682" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7682">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7683">
+      <c r="A7683" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7683" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7683">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7684">
+      <c r="A7684" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7684" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7684">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7685">
+      <c r="A7685" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7685" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7685">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7686">
+      <c r="A7686" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7686" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7686">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7687">
+      <c r="A7687" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7687" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7687">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7688">
+      <c r="A7688" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7688" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7688">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7689">
+      <c r="A7689" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7689" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7689">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7690">
+      <c r="A7690" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7690" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7690">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7691">
+      <c r="A7691" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7691" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7691">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7692">
+      <c r="A7692" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7692" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7692">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7693">
+      <c r="A7693" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7693" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7694">
+      <c r="A7694" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7694" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7695">
+      <c r="A7695" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7695" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7696">
+      <c r="A7696" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7696" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7696">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7697">
+      <c r="A7697" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7697" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7697">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7698">
+      <c r="A7698" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7698" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7698">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7699">
+      <c r="A7699" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7699" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7699">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7700">
+      <c r="A7700" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7700" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7700">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7700"/>
+  <dimension ref="A1:C7771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -99586,7 +99586,7 @@
     </row>
     <row r="7633">
       <c r="A7633" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7633" t="inlineStr">
         <is>
@@ -99594,12 +99594,12 @@
         </is>
       </c>
       <c r="C7633">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7634">
       <c r="A7634" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7634" t="inlineStr">
         <is>
@@ -99607,12 +99607,12 @@
         </is>
       </c>
       <c r="C7634">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7635">
       <c r="A7635" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7635" t="inlineStr">
         <is>
@@ -99620,12 +99620,12 @@
         </is>
       </c>
       <c r="C7635">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7636">
       <c r="A7636" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7636" t="inlineStr">
         <is>
@@ -99633,12 +99633,12 @@
         </is>
       </c>
       <c r="C7636">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7637">
       <c r="A7637" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7637" t="inlineStr">
         <is>
@@ -99646,12 +99646,12 @@
         </is>
       </c>
       <c r="C7637">
-        <v>365</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7638">
       <c r="A7638" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7638" t="inlineStr">
         <is>
@@ -99659,12 +99659,12 @@
         </is>
       </c>
       <c r="C7638">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7639">
       <c r="A7639" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7639" t="inlineStr">
         <is>
@@ -99672,12 +99672,12 @@
         </is>
       </c>
       <c r="C7639">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7640">
       <c r="A7640" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7640" t="inlineStr">
         <is>
@@ -99685,12 +99685,12 @@
         </is>
       </c>
       <c r="C7640">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7641">
       <c r="A7641" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7641" t="inlineStr">
         <is>
@@ -99698,12 +99698,12 @@
         </is>
       </c>
       <c r="C7641">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7642">
       <c r="A7642" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7642" t="inlineStr">
         <is>
@@ -99711,12 +99711,12 @@
         </is>
       </c>
       <c r="C7642">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7643">
       <c r="A7643" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7643" t="inlineStr">
         <is>
@@ -99724,12 +99724,12 @@
         </is>
       </c>
       <c r="C7643">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7644">
       <c r="A7644" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7644" t="inlineStr">
         <is>
@@ -99737,12 +99737,12 @@
         </is>
       </c>
       <c r="C7644">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7645">
       <c r="A7645" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7645" t="inlineStr">
         <is>
@@ -99750,12 +99750,12 @@
         </is>
       </c>
       <c r="C7645">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7646">
       <c r="A7646" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7646" t="inlineStr">
         <is>
@@ -99763,12 +99763,12 @@
         </is>
       </c>
       <c r="C7646">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7647">
       <c r="A7647" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7647" t="inlineStr">
         <is>
@@ -99776,12 +99776,12 @@
         </is>
       </c>
       <c r="C7647">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7648">
       <c r="A7648" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7648" t="inlineStr">
         <is>
@@ -99789,12 +99789,12 @@
         </is>
       </c>
       <c r="C7648">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7649">
       <c r="A7649" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7649" t="inlineStr">
         <is>
@@ -99802,12 +99802,12 @@
         </is>
       </c>
       <c r="C7649">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7650">
       <c r="A7650" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7650" t="inlineStr">
         <is>
@@ -99815,12 +99815,12 @@
         </is>
       </c>
       <c r="C7650">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7651">
       <c r="A7651" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7651" t="inlineStr">
         <is>
@@ -99828,12 +99828,12 @@
         </is>
       </c>
       <c r="C7651">
-        <v>74</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7652">
       <c r="A7652" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7652" t="inlineStr">
         <is>
@@ -99841,12 +99841,12 @@
         </is>
       </c>
       <c r="C7652">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7653">
       <c r="A7653" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7653" t="inlineStr">
         <is>
@@ -99854,12 +99854,12 @@
         </is>
       </c>
       <c r="C7653">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7654">
       <c r="A7654" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7654" t="inlineStr">
         <is>
@@ -99867,12 +99867,12 @@
         </is>
       </c>
       <c r="C7654">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7655">
       <c r="A7655" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7655" t="inlineStr">
         <is>
@@ -99880,12 +99880,12 @@
         </is>
       </c>
       <c r="C7655">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7656">
       <c r="A7656" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7656" t="inlineStr">
         <is>
@@ -99893,12 +99893,12 @@
         </is>
       </c>
       <c r="C7656">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7657">
       <c r="A7657" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7657" t="inlineStr">
         <is>
@@ -99906,565 +99906,1488 @@
         </is>
       </c>
       <c r="C7657">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7658">
       <c r="A7658" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7658" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7658">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7659">
       <c r="A7659" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7659" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7659">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7660">
       <c r="A7660" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7660" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7660">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7661">
       <c r="A7661" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7661" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7661">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7662">
       <c r="A7662" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7662" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7662">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7663">
       <c r="A7663" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7663" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C7663">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7664">
       <c r="A7664" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7664" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7664">
-        <v>260</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7665">
       <c r="A7665" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7665" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7665">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7666">
       <c r="A7666" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7666" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7666">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7667">
       <c r="A7667" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7667" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7667">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7668">
       <c r="A7668" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7668" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7668">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7669">
       <c r="A7669" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7669" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7669">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7670">
       <c r="A7670" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7670" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7670">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7671">
       <c r="A7671" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7671" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7671">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7672">
       <c r="A7672" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7672" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7672">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7673">
       <c r="A7673" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7673" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7673">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7674">
       <c r="A7674" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7674" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7674">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7675">
       <c r="A7675" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7675" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7675">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7676">
       <c r="A7676" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7676" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7676">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7677">
       <c r="A7677" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7677" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7677">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7678">
       <c r="A7678" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7678" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7678">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7679">
       <c r="A7679" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7679" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7679">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7680">
       <c r="A7680" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7680" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7680">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7681">
       <c r="A7681" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7681" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7681">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7682">
       <c r="A7682" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7682" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7682">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7683">
       <c r="A7683" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7683" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7683">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7684">
       <c r="A7684" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7684" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7684">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7685">
       <c r="A7685" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7685" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7685">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7686">
       <c r="A7686" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7686" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7686">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7687">
       <c r="A7687" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7687" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7687">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7688">
       <c r="A7688" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7688" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7688">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7689">
       <c r="A7689" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7689" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7689">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7690">
       <c r="A7690" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7690" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7690">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7691">
       <c r="A7691" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7691" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7691">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7692">
       <c r="A7692" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7692" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7692">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7693">
       <c r="A7693" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7693" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7693">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7694">
       <c r="A7694" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7694" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7694">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7695">
       <c r="A7695" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7695" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7695">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7696">
       <c r="A7696" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7696" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7696">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7697">
       <c r="A7697" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7697" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7697">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7698">
       <c r="A7698" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7698" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7698">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7699">
       <c r="A7699" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B7699" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7699">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7700">
       <c r="A7700" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B7700" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7700">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7701">
+      <c r="A7701" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B7701" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7701">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7702">
+      <c r="A7702" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B7702" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7702">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7703">
+      <c r="A7703" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B7703" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7703">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7704">
+      <c r="A7704" s="2">
         <v>44203</v>
       </c>
-      <c r="B7700" t="inlineStr">
+      <c r="B7704" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7704">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7705">
+      <c r="A7705" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7705" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7705">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7706">
+      <c r="A7706" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7706" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7707">
+      <c r="A7707" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7707" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7707">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7708">
+      <c r="A7708" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7708" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7708">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7709">
+      <c r="A7709" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7709" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7709">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7710">
+      <c r="A7710" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7710" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7710">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7711">
+      <c r="A7711" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7711" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7711">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7712">
+      <c r="A7712" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7712" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7712">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7713">
+      <c r="A7713" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7713" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7714">
+      <c r="A7714" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7714" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7714">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7715">
+      <c r="A7715" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7715" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7715">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7716">
+      <c r="A7716" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7716" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7716">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7717">
+      <c r="A7717" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7717" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7717">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7718">
+      <c r="A7718" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7718" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7718">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7719">
+      <c r="A7719" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7719" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7719">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7720">
+      <c r="A7720" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7720" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7720">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7721">
+      <c r="A7721" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7721" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7721">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7722">
+      <c r="A7722" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7722" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7722">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7723">
+      <c r="A7723" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7723" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7723">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7724">
+      <c r="A7724" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7724" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7724">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7725">
+      <c r="A7725" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7725" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7725">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7726">
+      <c r="A7726" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7726" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7726">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7727">
+      <c r="A7727" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7727" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7727">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7728">
+      <c r="A7728" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7728" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7728">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7729">
+      <c r="A7729" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7729" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7729">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7730">
+      <c r="A7730" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7730" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7730">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7731">
+      <c r="A7731" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7731" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7731">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7732">
+      <c r="A7732" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7732" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7732">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7733">
+      <c r="A7733" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7733" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7733">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7734">
+      <c r="A7734" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7734" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7734">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7735">
+      <c r="A7735" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7735" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7735">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7736">
+      <c r="A7736" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7736" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7736">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7737">
+      <c r="A7737" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7737" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7737">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7738">
+      <c r="A7738" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7738" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7738">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7739">
+      <c r="A7739" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7739" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7739">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7740">
+      <c r="A7740" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7740" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7740">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7741">
+      <c r="A7741" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7741" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7741">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7742">
+      <c r="A7742" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7742" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7742">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7743">
+      <c r="A7743" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7743" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7743">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7744">
+      <c r="A7744" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7744" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7744">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7745">
+      <c r="A7745" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7745" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7745">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7746">
+      <c r="A7746" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7746" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7746">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7747">
+      <c r="A7747" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7747" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7747">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7748">
+      <c r="A7748" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7748" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7748">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7749">
+      <c r="A7749" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7749" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7749">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7750">
+      <c r="A7750" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7750" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7750">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7751">
+      <c r="A7751" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7751" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7751">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7752">
+      <c r="A7752" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7752" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7752">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7753">
+      <c r="A7753" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7753" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7753">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7754">
+      <c r="A7754" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7754" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7754">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7755">
+      <c r="A7755" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7755" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7755">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7756">
+      <c r="A7756" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7756" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7756">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7757">
+      <c r="A7757" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7757" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7757">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7758">
+      <c r="A7758" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7758" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7758">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7759">
+      <c r="A7759" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7759" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7759">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7760">
+      <c r="A7760" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7760" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7760">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7761">
+      <c r="A7761" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7761" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7761">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7762">
+      <c r="A7762" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7762" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7762">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7763">
+      <c r="A7763" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7763" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7763">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7764">
+      <c r="A7764" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7764" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7765">
+      <c r="A7765" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7765" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7766">
+      <c r="A7766" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7766" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7766">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7767">
+      <c r="A7767" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7767" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7767">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7768">
+      <c r="A7768" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7768" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7768">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7769">
+      <c r="A7769" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7769" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7769">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7770">
+      <c r="A7770" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7770" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7770">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7771">
+      <c r="A7771" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B7771" t="inlineStr">
         <is>
           <t>Žilina</t>
         </is>
       </c>
-      <c r="C7700">
+      <c r="C7771">
         <v>144</v>
       </c>
     </row>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7771"/>
+  <dimension ref="A1:C7901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101391,6 +101391,1696 @@
         <v>144</v>
       </c>
     </row>
+    <row r="7772">
+      <c r="A7772" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7772" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7772">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7773">
+      <c r="A7773" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7773" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7773">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7774">
+      <c r="A7774" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7774" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7774">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7775">
+      <c r="A7775" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7775" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7775">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7776">
+      <c r="A7776" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7776" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7776">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7777">
+      <c r="A7777" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7777" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7777">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7778">
+      <c r="A7778" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7778" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7778">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7779">
+      <c r="A7779" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7779" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7779">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7780">
+      <c r="A7780" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7780" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7780">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7781">
+      <c r="A7781" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7781" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7782">
+      <c r="A7782" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7782" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7782">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7783">
+      <c r="A7783" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7783" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7783">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7784">
+      <c r="A7784" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7784" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7784">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7785">
+      <c r="A7785" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7785" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7785">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7786">
+      <c r="A7786" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7786" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7786">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7787">
+      <c r="A7787" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7787" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7787">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7788">
+      <c r="A7788" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7788" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7788">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7789">
+      <c r="A7789" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7789" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7789">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7790">
+      <c r="A7790" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7790" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7790">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7791">
+      <c r="A7791" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7791" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7791">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7792">
+      <c r="A7792" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7792" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7792">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7793">
+      <c r="A7793" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7793" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7793">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7794">
+      <c r="A7794" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7794" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7794">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7795">
+      <c r="A7795" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7795" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7795">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7796">
+      <c r="A7796" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7796" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7796">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7797">
+      <c r="A7797" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7797" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7797">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7798">
+      <c r="A7798" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7798" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7798">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7799">
+      <c r="A7799" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7799" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7799">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7800">
+      <c r="A7800" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7800" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7800">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7801">
+      <c r="A7801" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7801" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7801">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7802">
+      <c r="A7802" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7802" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7802">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7803">
+      <c r="A7803" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7803" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7803">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7804">
+      <c r="A7804" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7804" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7804">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7805">
+      <c r="A7805" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7805" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7805">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7806">
+      <c r="A7806" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7806" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7806">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7807">
+      <c r="A7807" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7807" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7807">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7808">
+      <c r="A7808" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7808" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7808">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7809">
+      <c r="A7809" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7809" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7809">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7810">
+      <c r="A7810" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7810" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7810">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7811">
+      <c r="A7811" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7811" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7811">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7812">
+      <c r="A7812" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7812" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7812">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7813">
+      <c r="A7813" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7813" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7813">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7814">
+      <c r="A7814" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7814" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7814">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7815">
+      <c r="A7815" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7815" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7815">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7816">
+      <c r="A7816" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7816" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7816">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7817">
+      <c r="A7817" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7817" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7817">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7818">
+      <c r="A7818" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7818" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7818">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7819">
+      <c r="A7819" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7819" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7819">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7820">
+      <c r="A7820" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7820" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7820">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7821">
+      <c r="A7821" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7821" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7821">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7822">
+      <c r="A7822" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7822" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7823">
+      <c r="A7823" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7823" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7823">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7824">
+      <c r="A7824" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7824" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7824">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7825">
+      <c r="A7825" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7825" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7825">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7826">
+      <c r="A7826" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7826" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7826">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7827">
+      <c r="A7827" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7827" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7827">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7828">
+      <c r="A7828" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7828" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7828">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7829">
+      <c r="A7829" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7829" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7829">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7830">
+      <c r="A7830" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7830" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7830">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7831">
+      <c r="A7831" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7831" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7831">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7832">
+      <c r="A7832" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7832" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7832">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7833">
+      <c r="A7833" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7833" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7833">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7834">
+      <c r="A7834" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7834" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7834">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7835">
+      <c r="A7835" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7835" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7835">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7836">
+      <c r="A7836" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7836" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7836">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7837">
+      <c r="A7837" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7837" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7837">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7838">
+      <c r="A7838" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7838" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7838">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7839">
+      <c r="A7839" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7839" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7839">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7840">
+      <c r="A7840" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B7840" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7840">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7841">
+      <c r="A7841" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7841" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7841">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7842">
+      <c r="A7842" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7842" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7842">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7843">
+      <c r="A7843" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7843" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7843">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7844">
+      <c r="A7844" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7844" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7844">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7845">
+      <c r="A7845" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7845" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7845">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7846">
+      <c r="A7846" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7846" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7847">
+      <c r="A7847" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7847" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7847">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7848">
+      <c r="A7848" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7848" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7848">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7849">
+      <c r="A7849" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7849" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7849">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7850">
+      <c r="A7850" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7850" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7851">
+      <c r="A7851" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7851" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7851">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7852">
+      <c r="A7852" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7852" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7852">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7853">
+      <c r="A7853" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7853" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7853">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7854">
+      <c r="A7854" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7854" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7855">
+      <c r="A7855" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7855" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7856">
+      <c r="A7856" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7856" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7856">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7857">
+      <c r="A7857" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7857" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7857">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7858">
+      <c r="A7858" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7858" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7858">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7859">
+      <c r="A7859" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7859" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7859">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7860">
+      <c r="A7860" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7860" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7860">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7861">
+      <c r="A7861" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7861" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7861">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7862">
+      <c r="A7862" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7862" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7862">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7863">
+      <c r="A7863" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7863" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7863">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7864">
+      <c r="A7864" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7864" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7864">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7865">
+      <c r="A7865" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7865" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7866">
+      <c r="A7866" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7866" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7866">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7867">
+      <c r="A7867" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7867" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7867">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7868">
+      <c r="A7868" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7868" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7868">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7869">
+      <c r="A7869" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7869" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7869">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7870">
+      <c r="A7870" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7870" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7870">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7871">
+      <c r="A7871" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7871" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7872">
+      <c r="A7872" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7872" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7872">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7873">
+      <c r="A7873" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7873" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7874">
+      <c r="A7874" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7874" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7874">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7875">
+      <c r="A7875" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7875" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7875">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7876">
+      <c r="A7876" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7876" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7877">
+      <c r="A7877" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7877" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7878">
+      <c r="A7878" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7878" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7879">
+      <c r="A7879" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7879" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7879">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7880">
+      <c r="A7880" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7880" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7880">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7881">
+      <c r="A7881" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7881" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7881">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7882">
+      <c r="A7882" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7882" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7882">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7883">
+      <c r="A7883" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7883" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7884">
+      <c r="A7884" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7884" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7885">
+      <c r="A7885" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7885" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7886">
+      <c r="A7886" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7886" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7887">
+      <c r="A7887" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7887" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7888">
+      <c r="A7888" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7888" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7889">
+      <c r="A7889" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7889" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7889">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7890">
+      <c r="A7890" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7890" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7890">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7891">
+      <c r="A7891" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7891" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7891">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7892">
+      <c r="A7892" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7892" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7892">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7893">
+      <c r="A7893" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7893" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7894">
+      <c r="A7894" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7894" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7895">
+      <c r="A7895" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7895" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7896">
+      <c r="A7896" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7896" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7896">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7897">
+      <c r="A7897" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7897" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7898">
+      <c r="A7898" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7898" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7898">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7899">
+      <c r="A7899" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7899" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7900">
+      <c r="A7900" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7900" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7900">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7901">
+      <c r="A7901" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B7901" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7901">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7901"/>
+  <dimension ref="A1:C7973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -103081,6 +103081,942 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7902">
+      <c r="A7902" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7902" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7902">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7903">
+      <c r="A7903" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7903" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7903">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7904">
+      <c r="A7904" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7904" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7904">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7905">
+      <c r="A7905" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7905" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7905">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7906">
+      <c r="A7906" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7906" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7906">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7907">
+      <c r="A7907" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7907" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7907">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7908">
+      <c r="A7908" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7908" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7908">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7909">
+      <c r="A7909" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7909" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7909">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7910">
+      <c r="A7910" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7910" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7910">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7911">
+      <c r="A7911" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7911" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7911">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7912">
+      <c r="A7912" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7912" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7912">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7913">
+      <c r="A7913" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7913" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7913">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7914">
+      <c r="A7914" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7914" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7915">
+      <c r="A7915" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7915" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7915">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7916">
+      <c r="A7916" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7916" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7916">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7917">
+      <c r="A7917" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7917" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7917">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7918">
+      <c r="A7918" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7918" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7918">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7919">
+      <c r="A7919" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7919" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7919">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7920">
+      <c r="A7920" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7920" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7920">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7921">
+      <c r="A7921" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7921" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7921">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7922">
+      <c r="A7922" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7922" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7922">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7923">
+      <c r="A7923" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7923" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7923">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7924">
+      <c r="A7924" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7924" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7924">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7925">
+      <c r="A7925" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7925" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7926">
+      <c r="A7926" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7926" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7926">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7927">
+      <c r="A7927" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7927" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7927">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7928">
+      <c r="A7928" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7928" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C7928">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7929">
+      <c r="A7929" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7929" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C7929">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7930">
+      <c r="A7930" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7930" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C7930">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7931">
+      <c r="A7931" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7931" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C7931">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7932">
+      <c r="A7932" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7932" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C7932">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7933">
+      <c r="A7933" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7933" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C7933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7934">
+      <c r="A7934" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7934" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C7934">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7935">
+      <c r="A7935" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7935" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C7935">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7936">
+      <c r="A7936" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7936" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C7936">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7937">
+      <c r="A7937" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7937" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C7937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7938">
+      <c r="A7938" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7938" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C7938">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7939">
+      <c r="A7939" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7939" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C7939">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7940">
+      <c r="A7940" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7940" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C7940">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7941">
+      <c r="A7941" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7941" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C7941">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7942">
+      <c r="A7942" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7942" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7942">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7943">
+      <c r="A7943" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7943" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C7943">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7944">
+      <c r="A7944" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7944" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C7944">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7945">
+      <c r="A7945" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7945" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C7945">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7946">
+      <c r="A7946" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7946" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C7946">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7947">
+      <c r="A7947" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7947" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C7947">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7948">
+      <c r="A7948" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7948" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C7948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7949">
+      <c r="A7949" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7949" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C7949">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7950">
+      <c r="A7950" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7950" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C7950">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7951">
+      <c r="A7951" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7951" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C7951">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7952">
+      <c r="A7952" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7952" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C7952">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7953">
+      <c r="A7953" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7953" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C7953">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7954">
+      <c r="A7954" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7954" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C7954">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7955">
+      <c r="A7955" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7955" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C7955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7956">
+      <c r="A7956" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7956" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C7956">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7957">
+      <c r="A7957" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7957" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C7957">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7958">
+      <c r="A7958" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7958" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C7958">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7959">
+      <c r="A7959" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7959" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C7959">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7960">
+      <c r="A7960" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7960" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C7960">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7961">
+      <c r="A7961" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7961" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C7961">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7962">
+      <c r="A7962" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7962" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C7962">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7963">
+      <c r="A7963" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7963" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C7963">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7964">
+      <c r="A7964" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7964" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C7964">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7965">
+      <c r="A7965" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7965" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C7965">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7966">
+      <c r="A7966" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7966" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C7966">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7967">
+      <c r="A7967" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7967" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C7967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7968">
+      <c r="A7968" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7968" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C7968">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7969">
+      <c r="A7969" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7969" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C7969">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7970">
+      <c r="A7970" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7970" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C7970">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7971">
+      <c r="A7971" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7971" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C7971">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7972">
+      <c r="A7972" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7972" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C7972">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7973">
+      <c r="A7973" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B7973" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C7973">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7973"/>
+  <dimension ref="A1:C8045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -104017,6 +104017,942 @@
         <v>123</v>
       </c>
     </row>
+    <row r="7974">
+      <c r="A7974" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7974" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C7974">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7975">
+      <c r="A7975" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7975" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C7975">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7976">
+      <c r="A7976" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7976" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C7976">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7977">
+      <c r="A7977" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7977" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C7977">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7978">
+      <c r="A7978" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7978" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C7978">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7979">
+      <c r="A7979" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7979" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C7979">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7980">
+      <c r="A7980" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7980" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C7980">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7981">
+      <c r="A7981" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7981" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C7981">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7982">
+      <c r="A7982" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7982" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C7982">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7983">
+      <c r="A7983" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7983" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C7983">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7984">
+      <c r="A7984" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7984" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C7984">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7985">
+      <c r="A7985" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7985" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C7985">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7986">
+      <c r="A7986" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7986" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C7986">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7987">
+      <c r="A7987" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7987" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C7987">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7988">
+      <c r="A7988" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7988" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C7988">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7989">
+      <c r="A7989" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7989" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C7989">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7990">
+      <c r="A7990" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7990" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C7990">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7991">
+      <c r="A7991" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7991" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C7991">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7992">
+      <c r="A7992" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7992" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C7992">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7993">
+      <c r="A7993" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7993" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C7993">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7994">
+      <c r="A7994" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7994" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C7994">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7995">
+      <c r="A7995" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7995" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C7995">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7996">
+      <c r="A7996" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7996" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C7996">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7997">
+      <c r="A7997" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7997" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C7997">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7998">
+      <c r="A7998" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7998" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C7998">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7999">
+      <c r="A7999" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7999" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C7999">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8000">
+      <c r="A8000" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8000" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8000">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8001">
+      <c r="A8001" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8001" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C8001">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8002">
+      <c r="A8002" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8002" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C8002">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8003">
+      <c r="A8003" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8003" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8003">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8004">
+      <c r="A8004" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8004" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C8004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8005">
+      <c r="A8005" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8005" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C8005">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8006">
+      <c r="A8006" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8006" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8006">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8007">
+      <c r="A8007" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8007" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8007">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8008">
+      <c r="A8008" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8008" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8008">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8009">
+      <c r="A8009" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8009" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8009">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8010">
+      <c r="A8010" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8010" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8010">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8011">
+      <c r="A8011" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8011" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8011">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8012">
+      <c r="A8012" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8012" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8012">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8013">
+      <c r="A8013" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8013" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8013">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8014">
+      <c r="A8014" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8014" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8014">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8015">
+      <c r="A8015" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8015" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8015">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8016">
+      <c r="A8016" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8016" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8016">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8017">
+      <c r="A8017" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8017" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C8017">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8018">
+      <c r="A8018" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8018" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8018">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8019">
+      <c r="A8019" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8019" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8019">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8020">
+      <c r="A8020" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8020" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8020">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8021">
+      <c r="A8021" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8021" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C8021">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8022">
+      <c r="A8022" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8022" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C8022">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8023">
+      <c r="A8023" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8023" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8023">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8024">
+      <c r="A8024" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8024" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C8024">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8025">
+      <c r="A8025" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8025" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C8025">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8026">
+      <c r="A8026" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8026" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8026">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8027">
+      <c r="A8027" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8027" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8028">
+      <c r="A8028" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8028" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8028">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8029">
+      <c r="A8029" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8029" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C8029">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8030">
+      <c r="A8030" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8030" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C8030">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8031">
+      <c r="A8031" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8031" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C8031">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8032">
+      <c r="A8032" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8032" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8032">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8033">
+      <c r="A8033" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8033" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8033">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8034">
+      <c r="A8034" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8034" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8034">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8035">
+      <c r="A8035" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8035" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8035">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8036">
+      <c r="A8036" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8036" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C8036">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8037">
+      <c r="A8037" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8037" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C8037">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8038">
+      <c r="A8038" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8038" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8038">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8039">
+      <c r="A8039" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8039" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C8039">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8040">
+      <c r="A8040" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8040" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8040">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8041">
+      <c r="A8041" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8041" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8041">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8042">
+      <c r="A8042" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8042" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8042">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8043">
+      <c r="A8043" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8043" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C8043">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8044">
+      <c r="A8044" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8044" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C8044">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8045">
+      <c r="A8045" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8045" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C8045">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8045"/>
+  <dimension ref="A1:C8116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101393,7 +101393,7 @@
     </row>
     <row r="7772">
       <c r="A7772" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7772" t="inlineStr">
         <is>
@@ -101401,12 +101401,12 @@
         </is>
       </c>
       <c r="C7772">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7773">
       <c r="A7773" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7773" t="inlineStr">
         <is>
@@ -101414,81 +101414,81 @@
         </is>
       </c>
       <c r="C7773">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7774">
       <c r="A7774" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7774" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7774">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7775">
       <c r="A7775" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7775" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7775">
-        <v>57</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7776">
       <c r="A7776" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7776" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7776">
-        <v>254</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7777">
       <c r="A7777" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7777" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7777">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7778">
       <c r="A7778" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7778" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7778">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7779">
       <c r="A7779" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7779" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7779">
@@ -101497,176 +101497,176 @@
     </row>
     <row r="7780">
       <c r="A7780" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7780" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7780">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7781">
       <c r="A7781" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7781" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7781">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7782">
       <c r="A7782" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7782" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7782">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7783">
       <c r="A7783" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7783" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7783">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7784">
       <c r="A7784" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7784" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7784">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7785">
       <c r="A7785" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7785" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7785">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7786">
       <c r="A7786" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7786" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7786">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7787">
       <c r="A7787" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7787" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7787">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7788">
       <c r="A7788" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7788" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7788">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7789">
       <c r="A7789" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7789" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7789">
-        <v>42</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7790">
       <c r="A7790" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7790" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7790">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7791">
       <c r="A7791" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7791" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7791">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7792">
       <c r="A7792" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7792" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7792">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7793">
       <c r="A7793" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7793" t="inlineStr">
         <is>
@@ -101674,12 +101674,12 @@
         </is>
       </c>
       <c r="C7793">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7794">
       <c r="A7794" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7794" t="inlineStr">
         <is>
@@ -101687,12 +101687,12 @@
         </is>
       </c>
       <c r="C7794">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7795">
       <c r="A7795" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7795" t="inlineStr">
         <is>
@@ -101700,12 +101700,12 @@
         </is>
       </c>
       <c r="C7795">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7796">
       <c r="A7796" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7796" t="inlineStr">
         <is>
@@ -101713,12 +101713,12 @@
         </is>
       </c>
       <c r="C7796">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7797">
       <c r="A7797" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7797" t="inlineStr">
         <is>
@@ -101726,12 +101726,12 @@
         </is>
       </c>
       <c r="C7797">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7798">
       <c r="A7798" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7798" t="inlineStr">
         <is>
@@ -101739,12 +101739,12 @@
         </is>
       </c>
       <c r="C7798">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7799">
       <c r="A7799" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7799" t="inlineStr">
         <is>
@@ -101752,12 +101752,12 @@
         </is>
       </c>
       <c r="C7799">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7800">
       <c r="A7800" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7800" t="inlineStr">
         <is>
@@ -101765,1212 +101765,1212 @@
         </is>
       </c>
       <c r="C7800">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7801">
       <c r="A7801" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7801" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C7801">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7802">
       <c r="A7802" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7802" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7802">
-        <v>226</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7803">
       <c r="A7803" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7803" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7803">
-        <v>52</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7804">
       <c r="A7804" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7804" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7804">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7805">
       <c r="A7805" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7805" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7805">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7806">
       <c r="A7806" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7806" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7806">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7807">
       <c r="A7807" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7807" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7807">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7808">
       <c r="A7808" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7808" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7808">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7809">
       <c r="A7809" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7809" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7809">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7810">
       <c r="A7810" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7810" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7810">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7811">
       <c r="A7811" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7811" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7811">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7812">
       <c r="A7812" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7812" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7812">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7813">
       <c r="A7813" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7813" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7813">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7814">
       <c r="A7814" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7814" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7814">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7815">
       <c r="A7815" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7815" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7815">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7816">
       <c r="A7816" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7816" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7816">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7817">
       <c r="A7817" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7817" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7817">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7818">
       <c r="A7818" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7818" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7818">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7819">
       <c r="A7819" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7819" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7819">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7820">
       <c r="A7820" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7820" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7820">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7821">
       <c r="A7821" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7821" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7821">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7822">
       <c r="A7822" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7822" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7822">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7823">
       <c r="A7823" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7823" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7823">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7824">
       <c r="A7824" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7824" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7824">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7825">
       <c r="A7825" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7825" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7825">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7826">
       <c r="A7826" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7826" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7826">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7827">
       <c r="A7827" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7827" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7827">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7828">
       <c r="A7828" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7828" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7828">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7829">
       <c r="A7829" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7829" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7829">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7830">
       <c r="A7830" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7830" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7830">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7831">
       <c r="A7831" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7831" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7831">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7832">
       <c r="A7832" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7832" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7832">
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7833">
       <c r="A7833" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7833" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7833">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7834">
       <c r="A7834" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7834" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7834">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7835">
       <c r="A7835" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7835" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7835">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7836">
       <c r="A7836" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7836" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7836">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7837">
       <c r="A7837" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7837" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7837">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7838">
       <c r="A7838" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7838" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7838">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7839">
       <c r="A7839" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7839" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7839">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7840">
       <c r="A7840" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B7840" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7840">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7841">
       <c r="A7841" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B7841" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7841">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7842">
       <c r="A7842" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B7842" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7842">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7843">
       <c r="A7843" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7843" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7843">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7844">
       <c r="A7844" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7844" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7844">
-        <v>176</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7845">
       <c r="A7845" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7845" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Banská Štiavnica</t>
         </is>
       </c>
       <c r="C7845">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7846">
       <c r="A7846" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7846" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7846">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7847">
       <c r="A7847" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7847" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7847">
-        <v>4</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7848">
       <c r="A7848" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7848" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7848">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7849">
       <c r="A7849" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7849" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7849">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7850">
       <c r="A7850" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7850" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7850">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7851">
       <c r="A7851" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7851" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7851">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7852">
       <c r="A7852" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7852" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7852">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7853">
       <c r="A7853" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7853" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7853">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7854">
       <c r="A7854" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7854" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7854">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7855">
       <c r="A7855" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7855" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7855">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7856">
       <c r="A7856" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7856" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7856">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7857">
       <c r="A7857" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7857" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7857">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7858">
       <c r="A7858" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7858" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7858">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7859">
       <c r="A7859" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7859" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7859">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7860">
       <c r="A7860" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7860" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7860">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7861">
       <c r="A7861" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7861" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7861">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7862">
       <c r="A7862" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7862" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7862">
-        <v>24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7863">
       <c r="A7863" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7863" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7863">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7864">
       <c r="A7864" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7864" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7864">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7865">
       <c r="A7865" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7865" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7865">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7866">
       <c r="A7866" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7866" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7866">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7867">
       <c r="A7867" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7867" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7867">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7868">
       <c r="A7868" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7868" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7868">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7869">
       <c r="A7869" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7869" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7869">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7870">
       <c r="A7870" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7870" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7870">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7871">
       <c r="A7871" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7871" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7871">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7872">
       <c r="A7872" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7872" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7872">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7873">
       <c r="A7873" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7873" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7873">
-        <v>1</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7874">
       <c r="A7874" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7874" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7874">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7875">
       <c r="A7875" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7875" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7875">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7876">
       <c r="A7876" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7876" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C7876">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7877">
       <c r="A7877" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7877" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7877">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7878">
       <c r="A7878" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7878" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7878">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7879">
       <c r="A7879" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7879" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7879">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7880">
       <c r="A7880" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7880" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7880">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7881">
       <c r="A7881" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7881" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7881">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7882">
       <c r="A7882" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7882" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7882">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7883">
       <c r="A7883" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7883" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7883">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7884">
       <c r="A7884" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7884" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C7884">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7885">
       <c r="A7885" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7885" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7885">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7886">
       <c r="A7886" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7886" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7886">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7887">
       <c r="A7887" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7887" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7887">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7888">
       <c r="A7888" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7888" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7888">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7889">
       <c r="A7889" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7889" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7889">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7890">
       <c r="A7890" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7890" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7890">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7891">
       <c r="A7891" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7891" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7891">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7892">
       <c r="A7892" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7892" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7892">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7893">
       <c r="A7893" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7893" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C7893">
@@ -102979,414 +102979,414 @@
     </row>
     <row r="7894">
       <c r="A7894" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7894" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C7894">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7895">
       <c r="A7895" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7895" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C7895">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7896">
       <c r="A7896" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7896" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C7896">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7897">
       <c r="A7897" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7897" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C7897">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7898">
       <c r="A7898" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7898" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7898">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7899">
       <c r="A7899" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7899" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7899">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7900">
       <c r="A7900" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7900" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7900">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7901">
       <c r="A7901" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B7901" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7901">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7902">
       <c r="A7902" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7902" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7902">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7903">
       <c r="A7903" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7903" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7903">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7904">
       <c r="A7904" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7904" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7904">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7905">
       <c r="A7905" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7905" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7905">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7906">
       <c r="A7906" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7906" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7906">
-        <v>269</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7907">
       <c r="A7907" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7907" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7907">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7908">
       <c r="A7908" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7908" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7908">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7909">
       <c r="A7909" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7909" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7909">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7910">
       <c r="A7910" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7910" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7910">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7911">
       <c r="A7911" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B7911" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7911">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7912">
       <c r="A7912" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7912" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7912">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7913">
       <c r="A7913" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7913" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7913">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7914">
       <c r="A7914" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7914" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7914">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7915">
       <c r="A7915" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7915" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7915">
-        <v>47</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7916">
       <c r="A7916" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7916" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7916">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7917">
       <c r="A7917" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7917" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7917">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7918">
       <c r="A7918" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7918" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7918">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7919">
       <c r="A7919" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7919" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7919">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7920">
       <c r="A7920" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7920" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7920">
-        <v>142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7921">
       <c r="A7921" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7921" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7921">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7922">
       <c r="A7922" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7922" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7922">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7923">
       <c r="A7923" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7923" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7923">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7924">
       <c r="A7924" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7924" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7924">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7925">
       <c r="A7925" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7925" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7925">
@@ -103395,397 +103395,397 @@
     </row>
     <row r="7926">
       <c r="A7926" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7926" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7926">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7927">
       <c r="A7927" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7927" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7927">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7928">
       <c r="A7928" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7928" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7928">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7929">
       <c r="A7929" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7929" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7929">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7930">
       <c r="A7930" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7930" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7930">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7931">
       <c r="A7931" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7931" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7931">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7932">
       <c r="A7932" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7932" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7932">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7933">
       <c r="A7933" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7933" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C7933">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7934">
       <c r="A7934" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7934" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C7934">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7935">
       <c r="A7935" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7935" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C7935">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7936">
       <c r="A7936" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7936" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C7936">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7937">
       <c r="A7937" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7937" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C7937">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7938">
       <c r="A7938" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7938" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C7938">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7939">
       <c r="A7939" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7939" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C7939">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7940">
       <c r="A7940" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7940" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C7940">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7941">
       <c r="A7941" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7941" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C7941">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7942">
       <c r="A7942" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7942" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C7942">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7943">
       <c r="A7943" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7943" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C7943">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7944">
       <c r="A7944" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7944" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C7944">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7945">
       <c r="A7945" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7945" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C7945">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7946">
       <c r="A7946" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7946" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C7946">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7947">
       <c r="A7947" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7947" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C7947">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7948">
       <c r="A7948" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7948" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C7948">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7949">
       <c r="A7949" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7949" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C7949">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7950">
       <c r="A7950" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7950" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C7950">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7951">
       <c r="A7951" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7951" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C7951">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7952">
       <c r="A7952" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7952" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C7952">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7953">
       <c r="A7953" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7953" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C7953">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7954">
       <c r="A7954" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7954" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C7954">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7955">
       <c r="A7955" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7955" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C7955">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7956">
       <c r="A7956" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7956" t="inlineStr">
         <is>
@@ -103793,12 +103793,12 @@
         </is>
       </c>
       <c r="C7956">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7957">
       <c r="A7957" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7957" t="inlineStr">
         <is>
@@ -103806,12 +103806,12 @@
         </is>
       </c>
       <c r="C7957">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7958">
       <c r="A7958" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7958" t="inlineStr">
         <is>
@@ -103819,189 +103819,189 @@
         </is>
       </c>
       <c r="C7958">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7959">
       <c r="A7959" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7959" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C7959">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7960">
       <c r="A7960" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7960" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C7960">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7961">
       <c r="A7961" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7961" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C7961">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7962">
       <c r="A7962" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7962" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C7962">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7963">
       <c r="A7963" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7963" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C7963">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7964">
       <c r="A7964" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7964" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C7964">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7965">
       <c r="A7965" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7965" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C7965">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7966">
       <c r="A7966" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7966" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C7966">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7967">
       <c r="A7967" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7967" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C7967">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7968">
       <c r="A7968" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7968" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C7968">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7969">
       <c r="A7969" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7969" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C7969">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7970">
       <c r="A7970" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7970" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C7970">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7971">
       <c r="A7971" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7971" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C7971">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7972">
       <c r="A7972" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B7972" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C7972">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7973">
@@ -104010,345 +104010,345 @@
       </c>
       <c r="B7973" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Bánovce nad Bebravou</t>
         </is>
       </c>
       <c r="C7973">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7974">
       <c r="A7974" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7974" t="inlineStr">
         <is>
-          <t>Bánovce nad Bebravou</t>
+          <t>Banská Bystrica</t>
         </is>
       </c>
       <c r="C7974">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7975">
       <c r="A7975" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7975" t="inlineStr">
         <is>
-          <t>Banská Bystrica</t>
+          <t>Banská Štiavnica</t>
         </is>
       </c>
       <c r="C7975">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7976">
       <c r="A7976" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7976" t="inlineStr">
         <is>
-          <t>Banská Štiavnica</t>
+          <t>Bardejov</t>
         </is>
       </c>
       <c r="C7976">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7977">
       <c r="A7977" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7977" t="inlineStr">
         <is>
-          <t>Bardejov</t>
+          <t>Bratislava</t>
         </is>
       </c>
       <c r="C7977">
-        <v>52</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7978">
       <c r="A7978" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7978" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Brezno</t>
         </is>
       </c>
       <c r="C7978">
-        <v>344</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7979">
       <c r="A7979" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7979" t="inlineStr">
         <is>
-          <t>Brezno</t>
+          <t>Bytča</t>
         </is>
       </c>
       <c r="C7979">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7980">
       <c r="A7980" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7980" t="inlineStr">
         <is>
-          <t>Bytča</t>
+          <t>Čadca</t>
         </is>
       </c>
       <c r="C7980">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7981">
       <c r="A7981" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7981" t="inlineStr">
         <is>
-          <t>Čadca</t>
+          <t>Detva</t>
         </is>
       </c>
       <c r="C7981">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7982">
       <c r="A7982" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7982" t="inlineStr">
         <is>
-          <t>Detva</t>
+          <t>Dolný Kubín</t>
         </is>
       </c>
       <c r="C7982">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7983">
       <c r="A7983" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7983" t="inlineStr">
         <is>
-          <t>Dolný Kubín</t>
+          <t>Dunajská Streda</t>
         </is>
       </c>
       <c r="C7983">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7984">
       <c r="A7984" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7984" t="inlineStr">
         <is>
-          <t>Dunajská Streda</t>
+          <t>Galanta</t>
         </is>
       </c>
       <c r="C7984">
-        <v>102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7985">
       <c r="A7985" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7985" t="inlineStr">
         <is>
-          <t>Galanta</t>
+          <t>Gelnica</t>
         </is>
       </c>
       <c r="C7985">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7986">
       <c r="A7986" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7986" t="inlineStr">
         <is>
-          <t>Gelnica</t>
+          <t>Hlohovec</t>
         </is>
       </c>
       <c r="C7986">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7987">
       <c r="A7987" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7987" t="inlineStr">
         <is>
-          <t>Hlohovec</t>
+          <t>Humenné</t>
         </is>
       </c>
       <c r="C7987">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7988">
       <c r="A7988" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7988" t="inlineStr">
         <is>
-          <t>Humenné</t>
+          <t>Ilava</t>
         </is>
       </c>
       <c r="C7988">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7989">
       <c r="A7989" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7989" t="inlineStr">
         <is>
-          <t>Ilava</t>
+          <t>Kežmarok</t>
         </is>
       </c>
       <c r="C7989">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7990">
       <c r="A7990" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7990" t="inlineStr">
         <is>
-          <t>Kežmarok</t>
+          <t>Komárno</t>
         </is>
       </c>
       <c r="C7990">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7991">
       <c r="A7991" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7991" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Košice</t>
         </is>
       </c>
       <c r="C7991">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7992">
       <c r="A7992" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7992" t="inlineStr">
         <is>
-          <t>Košice</t>
+          <t>Košice - okolie</t>
         </is>
       </c>
       <c r="C7992">
-        <v>146</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7993">
       <c r="A7993" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7993" t="inlineStr">
         <is>
-          <t>Košice - okolie</t>
+          <t>Krupina</t>
         </is>
       </c>
       <c r="C7993">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7994">
       <c r="A7994" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7994" t="inlineStr">
         <is>
-          <t>Krupina</t>
+          <t>Kysucké Nové Mesto</t>
         </is>
       </c>
       <c r="C7994">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7995">
       <c r="A7995" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7995" t="inlineStr">
         <is>
-          <t>Kysucké Nové Mesto</t>
+          <t>Levice</t>
         </is>
       </c>
       <c r="C7995">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7996">
       <c r="A7996" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7996" t="inlineStr">
         <is>
-          <t>Levice</t>
+          <t>Levoča</t>
         </is>
       </c>
       <c r="C7996">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7997">
       <c r="A7997" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7997" t="inlineStr">
         <is>
-          <t>Levoča</t>
+          <t>Liptovský Mikuláš</t>
         </is>
       </c>
       <c r="C7997">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7998">
       <c r="A7998" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7998" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Lučenec</t>
         </is>
       </c>
       <c r="C7998">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7999">
       <c r="A7999" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B7999" t="inlineStr">
         <is>
-          <t>Lučenec</t>
+          <t>Malacky</t>
         </is>
       </c>
       <c r="C7999">
@@ -104357,50 +104357,50 @@
     </row>
     <row r="8000">
       <c r="A8000" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8000" t="inlineStr">
         <is>
-          <t>Malacky</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C8000">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8001">
       <c r="A8001" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8001" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Medzilaborce</t>
         </is>
       </c>
       <c r="C8001">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8002">
       <c r="A8002" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8002" t="inlineStr">
         <is>
-          <t>Medzilaborce</t>
+          <t>Michalovce</t>
         </is>
       </c>
       <c r="C8002">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8003">
       <c r="A8003" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8003" t="inlineStr">
         <is>
-          <t>Michalovce</t>
+          <t>Myjava</t>
         </is>
       </c>
       <c r="C8003">
@@ -104409,535 +104409,535 @@
     </row>
     <row r="8004">
       <c r="A8004" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8004" t="inlineStr">
         <is>
-          <t>Myjava</t>
+          <t>Námestovo</t>
         </is>
       </c>
       <c r="C8004">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8005">
       <c r="A8005" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8005" t="inlineStr">
         <is>
-          <t>Námestovo</t>
+          <t>Nitra</t>
         </is>
       </c>
       <c r="C8005">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8006">
       <c r="A8006" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8006" t="inlineStr">
         <is>
-          <t>Nitra</t>
+          <t>Nové Mesto nad Váhom</t>
         </is>
       </c>
       <c r="C8006">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8007">
       <c r="A8007" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8007" t="inlineStr">
         <is>
-          <t>Nové Mesto nad Váhom</t>
+          <t>Nové Zámky</t>
         </is>
       </c>
       <c r="C8007">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8008">
       <c r="A8008" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8008" t="inlineStr">
         <is>
-          <t>Nové Zámky</t>
+          <t>Partizánske</t>
         </is>
       </c>
       <c r="C8008">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8009">
       <c r="A8009" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8009" t="inlineStr">
         <is>
-          <t>Partizánske</t>
+          <t>Pezinok</t>
         </is>
       </c>
       <c r="C8009">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8010">
       <c r="A8010" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8010" t="inlineStr">
         <is>
-          <t>Pezinok</t>
+          <t>Piešťany</t>
         </is>
       </c>
       <c r="C8010">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8011">
       <c r="A8011" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8011" t="inlineStr">
         <is>
-          <t>Piešťany</t>
+          <t>Poltár</t>
         </is>
       </c>
       <c r="C8011">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8012">
       <c r="A8012" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8012" t="inlineStr">
         <is>
-          <t>Poltár</t>
+          <t>Poprad</t>
         </is>
       </c>
       <c r="C8012">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8013">
       <c r="A8013" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8013" t="inlineStr">
         <is>
-          <t>Poprad</t>
+          <t>Považská Bystrica</t>
         </is>
       </c>
       <c r="C8013">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8014">
       <c r="A8014" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8014" t="inlineStr">
         <is>
-          <t>Považská Bystrica</t>
+          <t>Prešov</t>
         </is>
       </c>
       <c r="C8014">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8015">
       <c r="A8015" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8015" t="inlineStr">
         <is>
-          <t>Prešov</t>
+          <t>Prievidza</t>
         </is>
       </c>
       <c r="C8015">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8016">
       <c r="A8016" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8016" t="inlineStr">
         <is>
-          <t>Prievidza</t>
+          <t>Púchov</t>
         </is>
       </c>
       <c r="C8016">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8017">
       <c r="A8017" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8017" t="inlineStr">
         <is>
-          <t>Púchov</t>
+          <t>Revúca</t>
         </is>
       </c>
       <c r="C8017">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8018">
       <c r="A8018" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8018" t="inlineStr">
         <is>
-          <t>Revúca</t>
+          <t>Rimavská Sobota</t>
         </is>
       </c>
       <c r="C8018">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8019">
       <c r="A8019" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8019" t="inlineStr">
         <is>
-          <t>Rimavská Sobota</t>
+          <t>Rožňava</t>
         </is>
       </c>
       <c r="C8019">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8020">
       <c r="A8020" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8020" t="inlineStr">
         <is>
-          <t>Rožňava</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="C8020">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8021">
       <c r="A8021" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8021" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Sabinov</t>
         </is>
       </c>
       <c r="C8021">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8022">
       <c r="A8022" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8022" t="inlineStr">
         <is>
-          <t>Sabinov</t>
+          <t>Senec</t>
         </is>
       </c>
       <c r="C8022">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8023">
       <c r="A8023" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8023" t="inlineStr">
         <is>
-          <t>Senec</t>
+          <t>Senica</t>
         </is>
       </c>
       <c r="C8023">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8024">
       <c r="A8024" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8024" t="inlineStr">
         <is>
-          <t>Senica</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="C8024">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8025">
       <c r="A8025" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8025" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Snina</t>
         </is>
       </c>
       <c r="C8025">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8026">
       <c r="A8026" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8026" t="inlineStr">
         <is>
-          <t>Snina</t>
+          <t>Sobrance</t>
         </is>
       </c>
       <c r="C8026">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8027">
       <c r="A8027" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8027" t="inlineStr">
         <is>
-          <t>Sobrance</t>
+          <t>Spišská Nová Ves</t>
         </is>
       </c>
       <c r="C8027">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8028">
       <c r="A8028" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8028" t="inlineStr">
         <is>
-          <t>Spišská Nová Ves</t>
+          <t>Stará Ľubovňa</t>
         </is>
       </c>
       <c r="C8028">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8029">
       <c r="A8029" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8029" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa</t>
+          <t>Stropkov</t>
         </is>
       </c>
       <c r="C8029">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8030">
       <c r="A8030" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8030" t="inlineStr">
         <is>
-          <t>Stropkov</t>
+          <t>Svidník</t>
         </is>
       </c>
       <c r="C8030">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8031">
       <c r="A8031" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8031" t="inlineStr">
         <is>
-          <t>Svidník</t>
+          <t>Šaľa</t>
         </is>
       </c>
       <c r="C8031">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8032">
       <c r="A8032" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8032" t="inlineStr">
         <is>
-          <t>Šaľa</t>
+          <t>Topoľčany</t>
         </is>
       </c>
       <c r="C8032">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8033">
       <c r="A8033" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8033" t="inlineStr">
         <is>
-          <t>Topoľčany</t>
+          <t>Trebišov</t>
         </is>
       </c>
       <c r="C8033">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8034">
       <c r="A8034" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8034" t="inlineStr">
         <is>
-          <t>Trebišov</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="C8034">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8035">
       <c r="A8035" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8035" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="C8035">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8036">
       <c r="A8036" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8036" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Turčianske Teplice</t>
         </is>
       </c>
       <c r="C8036">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8037">
       <c r="A8037" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8037" t="inlineStr">
         <is>
-          <t>Turčianske Teplice</t>
+          <t>Tvrdošín</t>
         </is>
       </c>
       <c r="C8037">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8038">
       <c r="A8038" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8038" t="inlineStr">
         <is>
-          <t>Tvrdošín</t>
+          <t>Veľký Krtíš</t>
         </is>
       </c>
       <c r="C8038">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8039">
       <c r="A8039" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8039" t="inlineStr">
         <is>
-          <t>Veľký Krtíš</t>
+          <t>Vranov nad Topľou</t>
         </is>
       </c>
       <c r="C8039">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8040">
       <c r="A8040" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8040" t="inlineStr">
         <is>
-          <t>Vranov nad Topľou</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="C8040">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8041">
       <c r="A8041" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8041" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Zvolen</t>
         </is>
       </c>
       <c r="C8041">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8042">
       <c r="A8042" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8042" t="inlineStr">
         <is>
-          <t>Zvolen</t>
+          <t>Žarnovica</t>
         </is>
       </c>
       <c r="C8042">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8043">
       <c r="A8043" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8043" t="inlineStr">
         <is>
-          <t>Žarnovica</t>
+          <t>Žiar nad Hronom</t>
         </is>
       </c>
       <c r="C8043">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8044">
       <c r="A8044" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B8044" t="inlineStr">
         <is>
-          <t>Žiar nad Hronom</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="C8044">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8045">
@@ -104946,10 +104946,933 @@
       </c>
       <c r="B8045" t="inlineStr">
         <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C8045">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8046">
+      <c r="A8046" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8046" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8046">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8047">
+      <c r="A8047" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8047" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C8047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8048">
+      <c r="A8048" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8048" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C8048">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8049">
+      <c r="A8049" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8049" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C8049">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8050">
+      <c r="A8050" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8050" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C8050">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8051">
+      <c r="A8051" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8051" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C8051">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8052">
+      <c r="A8052" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8052" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C8052">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8053">
+      <c r="A8053" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8053" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C8053">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8054">
+      <c r="A8054" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8054" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C8054">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8055">
+      <c r="A8055" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8055" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C8055">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8056">
+      <c r="A8056" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8056" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C8056">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8057">
+      <c r="A8057" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8057" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C8057">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8058">
+      <c r="A8058" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8058" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C8058">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8059">
+      <c r="A8059" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8059" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C8059">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8060">
+      <c r="A8060" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8060" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C8060">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8061">
+      <c r="A8061" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8061" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C8061">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8062">
+      <c r="A8062" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8062" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C8062">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8063">
+      <c r="A8063" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8063" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C8063">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8064">
+      <c r="A8064" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8064" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C8064">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8065">
+      <c r="A8065" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8065" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C8065">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8066">
+      <c r="A8066" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8066" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C8066">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8067">
+      <c r="A8067" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8067" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C8067">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8068">
+      <c r="A8068" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8068" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C8068">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8069">
+      <c r="A8069" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8069" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C8069">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8070">
+      <c r="A8070" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8070" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C8070">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8071">
+      <c r="A8071" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8071" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8071">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8072">
+      <c r="A8072" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8072" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C8072">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8073">
+      <c r="A8073" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8073" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C8073">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8074">
+      <c r="A8074" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8074" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8074">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8075">
+      <c r="A8075" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8075" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C8075">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8076">
+      <c r="A8076" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8076" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C8076">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8077">
+      <c r="A8077" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8077" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8077">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8078">
+      <c r="A8078" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8078" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8078">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8079">
+      <c r="A8079" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8079" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8079">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8080">
+      <c r="A8080" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8080" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8080">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8081">
+      <c r="A8081" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8081" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8081">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8082">
+      <c r="A8082" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8082" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8082">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8083">
+      <c r="A8083" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8083" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8083">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8084">
+      <c r="A8084" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8084" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8084">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8085">
+      <c r="A8085" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8085" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8085">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8086">
+      <c r="A8086" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8086" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8086">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8087">
+      <c r="A8087" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8087" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8087">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8088">
+      <c r="A8088" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8088" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C8088">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8089">
+      <c r="A8089" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8089" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8089">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8090">
+      <c r="A8090" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8090" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8090">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8091">
+      <c r="A8091" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8091" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8091">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8092">
+      <c r="A8092" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8092" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C8092">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8093">
+      <c r="A8093" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8093" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C8093">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8094">
+      <c r="A8094" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8094" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8094">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8095">
+      <c r="A8095" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8095" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C8095">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8096">
+      <c r="A8096" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8096" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C8096">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8097">
+      <c r="A8097" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8097" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8097">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8098">
+      <c r="A8098" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8098" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8098">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8099">
+      <c r="A8099" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8099" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8099">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8100">
+      <c r="A8100" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8100" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C8100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8101">
+      <c r="A8101" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8101" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C8101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8102">
+      <c r="A8102" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8102" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C8102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8103">
+      <c r="A8103" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8103" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8103">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8104">
+      <c r="A8104" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8104" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8104">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8105">
+      <c r="A8105" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8105" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8105">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8106">
+      <c r="A8106" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8106" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8106">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8107">
+      <c r="A8107" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8107" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C8107">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8108">
+      <c r="A8108" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8108" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C8108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8109">
+      <c r="A8109" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8109" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8110">
+      <c r="A8110" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8110" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C8110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8111">
+      <c r="A8111" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8111" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8111">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8112">
+      <c r="A8112" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8112" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8113">
+      <c r="A8113" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8113" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8113">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8114">
+      <c r="A8114" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8114" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C8114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8115">
+      <c r="A8115" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8115" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C8115">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8116">
+      <c r="A8116" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8116" t="inlineStr">
+        <is>
           <t>Žilina</t>
         </is>
       </c>
-      <c r="C8045">
+      <c r="C8116">
         <v>104</v>
       </c>
     </row>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8116"/>
+  <dimension ref="A1:C8186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -105876,6 +105876,916 @@
         <v>104</v>
       </c>
     </row>
+    <row r="8117">
+      <c r="A8117" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8117" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C8117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8118">
+      <c r="A8118" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8118" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8118">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8119">
+      <c r="A8119" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8119" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C8119">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8120">
+      <c r="A8120" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8120" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C8120">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8121">
+      <c r="A8121" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8121" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C8121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8122">
+      <c r="A8122" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8122" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C8122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8123">
+      <c r="A8123" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8123" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C8123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8124">
+      <c r="A8124" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8124" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C8124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8125">
+      <c r="A8125" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8125" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C8125">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8126">
+      <c r="A8126" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8126" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C8126">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8127">
+      <c r="A8127" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8127" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C8127">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8128">
+      <c r="A8128" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8128" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C8128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8129">
+      <c r="A8129" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8129" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C8129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8130">
+      <c r="A8130" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8130" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C8130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8131">
+      <c r="A8131" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8131" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C8131">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8132">
+      <c r="A8132" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8132" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C8132">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8133">
+      <c r="A8133" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8133" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C8133">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8134">
+      <c r="A8134" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8134" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C8134">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8135">
+      <c r="A8135" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8135" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C8135">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8136">
+      <c r="A8136" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8136" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C8136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8137">
+      <c r="A8137" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8137" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C8137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8138">
+      <c r="A8138" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8138" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C8138">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8139">
+      <c r="A8139" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8139" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C8139">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8140">
+      <c r="A8140" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8140" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C8140">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8141">
+      <c r="A8141" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8141" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C8141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8142">
+      <c r="A8142" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8142" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8142">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8143">
+      <c r="A8143" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8143" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C8143">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8144">
+      <c r="A8144" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8144" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8144">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8145">
+      <c r="A8145" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8145" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C8145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8146">
+      <c r="A8146" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8146" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C8146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8147">
+      <c r="A8147" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8147" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8147">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8148">
+      <c r="A8148" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8148" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8149">
+      <c r="A8149" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8149" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8149">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8150">
+      <c r="A8150" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8150" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8151">
+      <c r="A8151" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8151" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8152">
+      <c r="A8152" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8152" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8152">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8153">
+      <c r="A8153" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8153" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8154">
+      <c r="A8154" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8154" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8154">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8155">
+      <c r="A8155" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8155" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8155">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8156">
+      <c r="A8156" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8156" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8157">
+      <c r="A8157" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8157" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8157">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8158">
+      <c r="A8158" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8158" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C8158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8159">
+      <c r="A8159" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8159" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8160">
+      <c r="A8160" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8160" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8160">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8161">
+      <c r="A8161" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8161" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8161">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8162">
+      <c r="A8162" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8162" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C8162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8163">
+      <c r="A8163" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8163" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C8163">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8164">
+      <c r="A8164" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8164" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8164">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8165">
+      <c r="A8165" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8165" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C8165">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8166">
+      <c r="A8166" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8166" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C8166">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8167">
+      <c r="A8167" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8167" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8168">
+      <c r="A8168" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8168" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8169">
+      <c r="A8169" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8169" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8169">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8170">
+      <c r="A8170" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8170" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C8170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8171">
+      <c r="A8171" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8171" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C8171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8172">
+      <c r="A8172" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8172" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C8172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8173">
+      <c r="A8173" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8173" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8173">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8174">
+      <c r="A8174" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8174" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8174">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8175">
+      <c r="A8175" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8175" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8175">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8176">
+      <c r="A8176" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8176" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8176">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8177">
+      <c r="A8177" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8177" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C8177">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8178">
+      <c r="A8178" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8178" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C8178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8179">
+      <c r="A8179" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8179" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8180">
+      <c r="A8180" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8180" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C8180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8181">
+      <c r="A8181" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8181" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8181">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8182">
+      <c r="A8182" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8182" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8182">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8183">
+      <c r="A8183" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8183" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8183">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8184">
+      <c r="A8184" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8184" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C8184">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8185">
+      <c r="A8185" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8185" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C8185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8186">
+      <c r="A8186" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B8186" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C8186">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8186"/>
+  <dimension ref="A1:C8258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -106786,6 +106786,942 @@
         <v>85</v>
       </c>
     </row>
+    <row r="8187">
+      <c r="A8187" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8187" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C8187">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8188">
+      <c r="A8188" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8188" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8188">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8189">
+      <c r="A8189" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8189" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C8189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8190">
+      <c r="A8190" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8190" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C8190">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8191">
+      <c r="A8191" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8191" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C8191">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8192">
+      <c r="A8192" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8192" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C8192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8193">
+      <c r="A8193" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8193" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C8193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8194">
+      <c r="A8194" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8194" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C8194">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8195">
+      <c r="A8195" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8195" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C8195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8196">
+      <c r="A8196" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8196" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C8196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8197">
+      <c r="A8197" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8197" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C8197">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8198">
+      <c r="A8198" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8198" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C8198">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8199">
+      <c r="A8199" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8199" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C8199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8200">
+      <c r="A8200" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8200" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C8200">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8201">
+      <c r="A8201" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8201" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C8201">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8202">
+      <c r="A8202" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8202" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C8202">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8203">
+      <c r="A8203" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8203" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C8203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8204">
+      <c r="A8204" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8204" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C8204">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8205">
+      <c r="A8205" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8205" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C8205">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8206">
+      <c r="A8206" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8206" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C8206">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8207">
+      <c r="A8207" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8207" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C8207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8208">
+      <c r="A8208" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8208" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C8208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8209">
+      <c r="A8209" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8209" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C8209">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8210">
+      <c r="A8210" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8210" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C8210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8211">
+      <c r="A8211" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8211" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C8211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8212">
+      <c r="A8212" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8212" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C8212">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8213">
+      <c r="A8213" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8213" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8213">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8214">
+      <c r="A8214" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8214" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C8214">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8215">
+      <c r="A8215" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8215" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C8215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8216">
+      <c r="A8216" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8216" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8216">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8217">
+      <c r="A8217" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8217" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C8217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8218">
+      <c r="A8218" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8218" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C8218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8219">
+      <c r="A8219" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8219" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8219">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8220">
+      <c r="A8220" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8220" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8220">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8221">
+      <c r="A8221" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8221" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8221">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8222">
+      <c r="A8222" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8222" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8222">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8223">
+      <c r="A8223" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8223" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8223">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8224">
+      <c r="A8224" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8224" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8224">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8225">
+      <c r="A8225" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8225" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8225">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8226">
+      <c r="A8226" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8226" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8227">
+      <c r="A8227" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8227" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8227">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8228">
+      <c r="A8228" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8228" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8228">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8229">
+      <c r="A8229" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8229" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8229">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8230">
+      <c r="A8230" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8230" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C8230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8231">
+      <c r="A8231" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8231" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8232">
+      <c r="A8232" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8232" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8232">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8233">
+      <c r="A8233" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8233" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8233">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8234">
+      <c r="A8234" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8234" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C8234">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8235">
+      <c r="A8235" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8235" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C8235">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8236">
+      <c r="A8236" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8236" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8236">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8237">
+      <c r="A8237" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8237" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C8237">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8238">
+      <c r="A8238" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8238" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C8238">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8239">
+      <c r="A8239" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8239" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8240">
+      <c r="A8240" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8240" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8241">
+      <c r="A8241" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8241" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8242">
+      <c r="A8242" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8242" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C8242">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8243">
+      <c r="A8243" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8243" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C8243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8244">
+      <c r="A8244" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8244" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C8244">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8245">
+      <c r="A8245" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8245" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8245">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8246">
+      <c r="A8246" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8246" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8246">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8247">
+      <c r="A8247" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8247" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8247">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8248">
+      <c r="A8248" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8248" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8248">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8249">
+      <c r="A8249" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8249" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C8249">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8250">
+      <c r="A8250" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8250" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C8250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8251">
+      <c r="A8251" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8251" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8252">
+      <c r="A8252" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8252" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C8252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8253">
+      <c r="A8253" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8253" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8253">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8254">
+      <c r="A8254" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8254" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8254">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8255">
+      <c r="A8255" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8255" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8255">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8256">
+      <c r="A8256" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8256" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C8256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8257">
+      <c r="A8257" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8257" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C8257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8258">
+      <c r="A8258" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B8258" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C8258">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
+++ b/OpenData_Slovakia_Covid_PositiveTests_District.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8258"/>
+  <dimension ref="A1:C8438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -107722,6 +107722,2346 @@
         <v>79</v>
       </c>
     </row>
+    <row r="8259">
+      <c r="A8259" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8259" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C8259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8260">
+      <c r="A8260" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8260" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8260">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8261">
+      <c r="A8261" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8261" t="inlineStr">
+        <is>
+          <t>Banská Štiavnica</t>
+        </is>
+      </c>
+      <c r="C8261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8262">
+      <c r="A8262" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8262" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C8262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8263">
+      <c r="A8263" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8263" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C8263">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8264">
+      <c r="A8264" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8264" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C8264">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8265">
+      <c r="A8265" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8265" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C8265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8266">
+      <c r="A8266" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8266" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C8266">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8267">
+      <c r="A8267" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8267" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C8267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8268">
+      <c r="A8268" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8268" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C8268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8269">
+      <c r="A8269" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8269" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C8269">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8270">
+      <c r="A8270" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8270" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C8270">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8271">
+      <c r="A8271" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8271" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C8271">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8272">
+      <c r="A8272" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8272" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C8272">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8273">
+      <c r="A8273" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8273" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C8273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8274">
+      <c r="A8274" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8274" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C8274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8275">
+      <c r="A8275" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8275" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C8275">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8276">
+      <c r="A8276" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8276" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C8276">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8277">
+      <c r="A8277" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8277" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C8277">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8278">
+      <c r="A8278" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8278" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C8278">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8279">
+      <c r="A8279" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8279" t="inlineStr">
+        <is>
+          <t>Krupina</t>
+        </is>
+      </c>
+      <c r="C8279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8280">
+      <c r="A8280" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8280" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C8280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8281">
+      <c r="A8281" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8281" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C8281">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8282">
+      <c r="A8282" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8282" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C8282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8283">
+      <c r="A8283" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8283" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C8283">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8284">
+      <c r="A8284" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8284" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8284">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8285">
+      <c r="A8285" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8285" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C8285">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8286">
+      <c r="A8286" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8286" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8286">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8287">
+      <c r="A8287" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8287" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="C8287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8288">
+      <c r="A8288" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8288" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C8288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8289">
+      <c r="A8289" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8289" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8289">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8290">
+      <c r="A8290" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8290" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8290">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8291">
+      <c r="A8291" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8291" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8291">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8292">
+      <c r="A8292" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8292" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8293">
+      <c r="A8293" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8293" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8293">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8294">
+      <c r="A8294" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8294" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8294">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8295">
+      <c r="A8295" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8295" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8296">
+      <c r="A8296" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8296" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8296">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8297">
+      <c r="A8297" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8297" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8297">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8298">
+      <c r="A8298" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8298" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8298">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8299">
+      <c r="A8299" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8299" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8299">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8300">
+      <c r="A8300" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8300" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C8300">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8301">
+      <c r="A8301" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8301" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8302">
+      <c r="A8302" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8302" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8302">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8303">
+      <c r="A8303" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8303" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8303">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8304">
+      <c r="A8304" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8304" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C8304">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8305">
+      <c r="A8305" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8305" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C8305">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8306">
+      <c r="A8306" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8306" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8306">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8307">
+      <c r="A8307" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8307" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C8307">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8308">
+      <c r="A8308" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8308" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="C8308">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8309">
+      <c r="A8309" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8309" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8310">
+      <c r="A8310" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8310" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8311">
+      <c r="A8311" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8311" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8311">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8312">
+      <c r="A8312" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8312" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C8312">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8313">
+      <c r="A8313" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8313" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8313">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8314">
+      <c r="A8314" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8314" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8314">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8315">
+      <c r="A8315" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8315" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8315">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8316">
+      <c r="A8316" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8316" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8316">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8317">
+      <c r="A8317" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8317" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C8317">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8318">
+      <c r="A8318" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8318" t="inlineStr">
+        <is>
+          <t>Turčianske Teplice</t>
+        </is>
+      </c>
+      <c r="C8318">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8319">
+      <c r="A8319" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8319" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8320">
+      <c r="A8320" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8320" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C8320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8321">
+      <c r="A8321" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8321" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8321">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8322">
+      <c r="A8322" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8322" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8322">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8323">
+      <c r="A8323" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8323" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8323">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8324">
+      <c r="A8324" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8324" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C8324">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8325">
+      <c r="A8325" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8325" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C8325">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8326">
+      <c r="A8326" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B8326" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C8326">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8327">
+      <c r="A8327" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8327" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8327">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8328">
+      <c r="A8328" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8328" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C8328">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8329">
+      <c r="A8329" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8329" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C8329">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8330">
+      <c r="A8330" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8330" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C8330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8331">
+      <c r="A8331" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8331" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C8331">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8332">
+      <c r="A8332" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8332" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C8332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8333">
+      <c r="A8333" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8333" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C8333">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8334">
+      <c r="A8334" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8334" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C8334">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8335">
+      <c r="A8335" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8335" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C8335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8336">
+      <c r="A8336" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8336" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C8336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8337">
+      <c r="A8337" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8337" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C8337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8338">
+      <c r="A8338" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8338" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C8338">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8339">
+      <c r="A8339" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8339" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C8339">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8340">
+      <c r="A8340" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8340" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C8340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8341">
+      <c r="A8341" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8341" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C8341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8342">
+      <c r="A8342" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8342" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8343">
+      <c r="A8343" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8343" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C8343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8344">
+      <c r="A8344" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8344" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8344">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8345">
+      <c r="A8345" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8345" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8346">
+      <c r="A8346" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8346" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8346">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8347">
+      <c r="A8347" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8347" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8347">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8348">
+      <c r="A8348" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8348" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8348">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8349">
+      <c r="A8349" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8349" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8350">
+      <c r="A8350" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8350" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8351">
+      <c r="A8351" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8351" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8352">
+      <c r="A8352" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8352" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8352">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8353">
+      <c r="A8353" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8353" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8354">
+      <c r="A8354" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8354" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8354">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8355">
+      <c r="A8355" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8355" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8356">
+      <c r="A8356" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8356" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8356">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8357">
+      <c r="A8357" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8357" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8357">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8358">
+      <c r="A8358" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8358" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8358">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8359">
+      <c r="A8359" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8359" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8360">
+      <c r="A8360" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8360" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8361">
+      <c r="A8361" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8361" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8361">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8362">
+      <c r="A8362" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8362" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C8362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8363">
+      <c r="A8363" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8363" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C8363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8364">
+      <c r="A8364" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8364" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8364">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8365">
+      <c r="A8365" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8365" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8365">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8366">
+      <c r="A8366" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8366" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8367">
+      <c r="A8367" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8367" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8368">
+      <c r="A8368" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8368" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8369">
+      <c r="A8369" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8369" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8369">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8370">
+      <c r="A8370" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8370" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8371">
+      <c r="A8371" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B8371" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8372">
+      <c r="A8372" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8372" t="inlineStr">
+        <is>
+          <t>Bánovce nad Bebravou</t>
+        </is>
+      </c>
+      <c r="C8372">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8373">
+      <c r="A8373" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8373" t="inlineStr">
+        <is>
+          <t>Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8373">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8374">
+      <c r="A8374" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8374" t="inlineStr">
+        <is>
+          <t>Bardejov</t>
+        </is>
+      </c>
+      <c r="C8374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8375">
+      <c r="A8375" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8375" t="inlineStr">
+        <is>
+          <t>Bratislava</t>
+        </is>
+      </c>
+      <c r="C8375">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8376">
+      <c r="A8376" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8376" t="inlineStr">
+        <is>
+          <t>Brezno</t>
+        </is>
+      </c>
+      <c r="C8376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8377">
+      <c r="A8377" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8377" t="inlineStr">
+        <is>
+          <t>Bytča</t>
+        </is>
+      </c>
+      <c r="C8377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8378">
+      <c r="A8378" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8378" t="inlineStr">
+        <is>
+          <t>Čadca</t>
+        </is>
+      </c>
+      <c r="C8378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8379">
+      <c r="A8379" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8379" t="inlineStr">
+        <is>
+          <t>Detva</t>
+        </is>
+      </c>
+      <c r="C8379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8380">
+      <c r="A8380" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8380" t="inlineStr">
+        <is>
+          <t>Dolný Kubín</t>
+        </is>
+      </c>
+      <c r="C8380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8381">
+      <c r="A8381" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8381" t="inlineStr">
+        <is>
+          <t>Dunajská Streda</t>
+        </is>
+      </c>
+      <c r="C8381">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8382">
+      <c r="A8382" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8382" t="inlineStr">
+        <is>
+          <t>Galanta</t>
+        </is>
+      </c>
+      <c r="C8382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8383">
+      <c r="A8383" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8383" t="inlineStr">
+        <is>
+          <t>Gelnica</t>
+        </is>
+      </c>
+      <c r="C8383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8384">
+      <c r="A8384" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8384" t="inlineStr">
+        <is>
+          <t>Hlohovec</t>
+        </is>
+      </c>
+      <c r="C8384">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8385">
+      <c r="A8385" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8385" t="inlineStr">
+        <is>
+          <t>Humenné</t>
+        </is>
+      </c>
+      <c r="C8385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8386">
+      <c r="A8386" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8386" t="inlineStr">
+        <is>
+          <t>Ilava</t>
+        </is>
+      </c>
+      <c r="C8386">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8387">
+      <c r="A8387" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8387" t="inlineStr">
+        <is>
+          <t>Kežmarok</t>
+        </is>
+      </c>
+      <c r="C8387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8388">
+      <c r="A8388" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8388" t="inlineStr">
+        <is>
+          <t>Komárno</t>
+        </is>
+      </c>
+      <c r="C8388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8389">
+      <c r="A8389" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8389" t="inlineStr">
+        <is>
+          <t>Košice</t>
+        </is>
+      </c>
+      <c r="C8389">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8390">
+      <c r="A8390" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8390" t="inlineStr">
+        <is>
+          <t>Košice - okolie</t>
+        </is>
+      </c>
+      <c r="C8390">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8391">
+      <c r="A8391" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8391" t="inlineStr">
+        <is>
+          <t>Kysucké Nové Mesto</t>
+        </is>
+      </c>
+      <c r="C8391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8392">
+      <c r="A8392" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8392" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="C8392">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8393">
+      <c r="A8393" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8393" t="inlineStr">
+        <is>
+          <t>Levoča</t>
+        </is>
+      </c>
+      <c r="C8393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8394">
+      <c r="A8394" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8394" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="C8394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8395">
+      <c r="A8395" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8395" t="inlineStr">
+        <is>
+          <t>Lučenec</t>
+        </is>
+      </c>
+      <c r="C8395">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8396">
+      <c r="A8396" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8396" t="inlineStr">
+        <is>
+          <t>Malacky</t>
+        </is>
+      </c>
+      <c r="C8396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8397">
+      <c r="A8397" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8397" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C8397">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8398">
+      <c r="A8398" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8398" t="inlineStr">
+        <is>
+          <t>Medzilaborce</t>
+        </is>
+      </c>
+      <c r="C8398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8399">
+      <c r="A8399" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8399" t="inlineStr">
+        <is>
+          <t>Michalovce</t>
+        </is>
+      </c>
+      <c r="C8399">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8400">
+      <c r="A8400" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8400" t="inlineStr">
+        <is>
+          <t>Námestovo</t>
+        </is>
+      </c>
+      <c r="C8400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8401">
+      <c r="A8401" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8401" t="inlineStr">
+        <is>
+          <t>Nitra</t>
+        </is>
+      </c>
+      <c r="C8401">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8402">
+      <c r="A8402" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8402" t="inlineStr">
+        <is>
+          <t>Nové Mesto nad Váhom</t>
+        </is>
+      </c>
+      <c r="C8402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8403">
+      <c r="A8403" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8403" t="inlineStr">
+        <is>
+          <t>Nové Zámky</t>
+        </is>
+      </c>
+      <c r="C8403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8404">
+      <c r="A8404" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8404" t="inlineStr">
+        <is>
+          <t>Partizánske</t>
+        </is>
+      </c>
+      <c r="C8404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8405">
+      <c r="A8405" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8405" t="inlineStr">
+        <is>
+          <t>Pezinok</t>
+        </is>
+      </c>
+      <c r="C8405">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8406">
+      <c r="A8406" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8406" t="inlineStr">
+        <is>
+          <t>Piešťany</t>
+        </is>
+      </c>
+      <c r="C8406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8407">
+      <c r="A8407" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8407" t="inlineStr">
+        <is>
+          <t>Poltár</t>
+        </is>
+      </c>
+      <c r="C8407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8408">
+      <c r="A8408" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8408" t="inlineStr">
+        <is>
+          <t>Poprad</t>
+        </is>
+      </c>
+      <c r="C8408">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8409">
+      <c r="A8409" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8409" t="inlineStr">
+        <is>
+          <t>Považská Bystrica</t>
+        </is>
+      </c>
+      <c r="C8409">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8410">
+      <c r="A8410" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8410" t="inlineStr">
+        <is>
+          <t>Prešov</t>
+        </is>
+      </c>
+      <c r="C8410">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8411">
+      <c r="A8411" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8411" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="C8411">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8412">
+      <c r="A8412" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8412" t="inlineStr">
+        <is>
+          <t>Púchov</t>
+        </is>
+      </c>
+      <c r="C8412">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8413">
+      <c r="A8413" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8413" t="inlineStr">
+        <is>
+          <t>Revúca</t>
+        </is>
+      </c>
+      <c r="C8413">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8414">
+      <c r="A8414" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8414" t="inlineStr">
+        <is>
+          <t>Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="C8414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8415">
+      <c r="A8415" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8415" t="inlineStr">
+        <is>
+          <t>Rožňava</t>
+        </is>
+      </c>
+      <c r="C8415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8416">
+      <c r="A8416" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8416" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="C8416">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8417">
+      <c r="A8417" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8417" t="inlineStr">
+        <is>
+          <t>Sabinov</t>
+        </is>
+      </c>
+      <c r="C8417">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8418">
+      <c r="A8418" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8418" t="inlineStr">
+        <is>
+          <t>Senec</t>
+        </is>
+      </c>
+      <c r="C8418">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8419">
+      <c r="A8419" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8419" t="inlineStr">
+        <is>
+          <t>Senica</t>
+        </is>
+      </c>
+      <c r="C8419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8420">
+      <c r="A8420" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8420" t="inlineStr">
+        <is>
+          <t>Snina</t>
+        </is>
+      </c>
+      <c r="C8420">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8421">
+      <c r="A8421" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8421" t="inlineStr">
+        <is>
+          <t>Sobrance</t>
+        </is>
+      </c>
+      <c r="C8421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8422">
+      <c r="A8422" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8422" t="inlineStr">
+        <is>
+          <t>Spišská Nová Ves</t>
+        </is>
+      </c>
+      <c r="C8422">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8423">
+      <c r="A8423" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8423" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa</t>
+        </is>
+      </c>
+      <c r="C8423">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8424">
+      <c r="A8424" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8424" t="inlineStr">
+        <is>
+          <t>Stropkov</t>
+        </is>
+      </c>
+      <c r="C8424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8425">
+      <c r="A8425" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8425" t="inlineStr">
+        <is>
+          <t>Svidník</t>
+        </is>
+      </c>
+      <c r="C8425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8426">
+      <c r="A8426" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8426" t="inlineStr">
+        <is>
+          <t>Šaľa</t>
+        </is>
+      </c>
+      <c r="C8426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8427">
+      <c r="A8427" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8427" t="inlineStr">
+        <is>
+          <t>Topoľčany</t>
+        </is>
+      </c>
+      <c r="C8427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8428">
+      <c r="A8428" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8428" t="inlineStr">
+        <is>
+          <t>Trebišov</t>
+        </is>
+      </c>
+      <c r="C8428">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8429">
+      <c r="A8429" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8429" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="C8429">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8430">
+      <c r="A8430" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8430" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="C8430">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8431">
+      <c r="A8431" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8431" t="inlineStr">
+        <is>
+          <t>Tvrdošín</t>
+        </is>
+      </c>
+      <c r="C8431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8432">
+      <c r="A8432" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8432" t="inlineStr">
+        <is>
+          <t>Veľký Krtíš</t>
+        </is>
+      </c>
+      <c r="C8432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8433">
+      <c r="A8433" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8433" t="inlineStr">
+        <is>
+          <t>Vranov nad Topľou</t>
+        </is>
+      </c>
+      <c r="C8433">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8434">
+      <c r="A8434" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8434" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="C8434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8435">
+      <c r="A8435" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8435" t="inlineStr">
+        <is>
+          <t>Zvolen</t>
+        </is>
+      </c>
+      <c r="C8435">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8436">
+      <c r="A8436" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8436" t="inlineStr">
+        <is>
+          <t>Žarnovica</t>
+        </is>
+      </c>
+      <c r="C8436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8437">
+      <c r="A8437" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8437" t="inlineStr">
+        <is>
+          <t>Žiar nad Hronom</t>
+        </is>
+      </c>
+      <c r="C8437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8438">
+      <c r="A8438" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B8438" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="C8438">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
